--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000965344717952</v>
+        <v>1.000965344717951</v>
       </c>
       <c r="D2">
         <v>1.020338477058512</v>
@@ -430,7 +430,7 @@
         <v>1.008836090523287</v>
       </c>
       <c r="F2">
-        <v>1.018082880395411</v>
+        <v>1.01808288039541</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.046803855380541</v>
       </c>
       <c r="J2">
-        <v>1.023117220778598</v>
+        <v>1.023117220778597</v>
       </c>
       <c r="K2">
-        <v>1.031521553727684</v>
+        <v>1.031521553727683</v>
       </c>
       <c r="L2">
-        <v>1.020173681984642</v>
+        <v>1.020173681984641</v>
       </c>
       <c r="M2">
-        <v>1.029295911600016</v>
+        <v>1.029295911600015</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -468,7 +468,7 @@
         <v>1.014586654155379</v>
       </c>
       <c r="F3">
-        <v>1.024735389801926</v>
+        <v>1.024735389801927</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -500,31 +500,31 @@
         <v>1.01203599162658</v>
       </c>
       <c r="D4">
-        <v>1.029058994533299</v>
+        <v>1.029058994533298</v>
       </c>
       <c r="E4">
         <v>1.018207064872707</v>
       </c>
       <c r="F4">
-        <v>1.02892417596612</v>
+        <v>1.028924175966119</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050990597151894</v>
+        <v>1.050990597151893</v>
       </c>
       <c r="J4">
-        <v>1.031136747279597</v>
+        <v>1.031136747279596</v>
       </c>
       <c r="K4">
         <v>1.038818910694933</v>
       </c>
       <c r="L4">
-        <v>1.028090602827022</v>
+        <v>1.02809060282702</v>
       </c>
       <c r="M4">
-        <v>1.038685608232795</v>
+        <v>1.038685608232794</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,7 +538,7 @@
         <v>1.013804003293747</v>
       </c>
       <c r="D5">
-        <v>1.030452575087366</v>
+        <v>1.030452575087365</v>
       </c>
       <c r="E5">
         <v>1.019706213535177</v>
@@ -553,16 +553,16 @@
         <v>1.051652427790322</v>
       </c>
       <c r="J5">
-        <v>1.032415179583748</v>
+        <v>1.032415179583747</v>
       </c>
       <c r="K5">
-        <v>1.039981102813952</v>
+        <v>1.039981102813951</v>
       </c>
       <c r="L5">
-        <v>1.029353692831125</v>
+        <v>1.029353692831124</v>
       </c>
       <c r="M5">
-        <v>1.04018511210597</v>
+        <v>1.040185112105969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014099236386213</v>
+        <v>1.014099236386211</v>
       </c>
       <c r="D6">
-        <v>1.030685303607458</v>
+        <v>1.030685303607455</v>
       </c>
       <c r="E6">
-        <v>1.019956619422275</v>
+        <v>1.019956619422273</v>
       </c>
       <c r="F6">
-        <v>1.030948592035316</v>
+        <v>1.030948592035313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05176274645016</v>
+        <v>1.051762746450159</v>
       </c>
       <c r="J6">
-        <v>1.032628590574789</v>
+        <v>1.032628590574786</v>
       </c>
       <c r="K6">
-        <v>1.040175076713879</v>
+        <v>1.040175076713877</v>
       </c>
       <c r="L6">
-        <v>1.02956457130108</v>
+        <v>1.029564571301078</v>
       </c>
       <c r="M6">
-        <v>1.040435502909177</v>
+        <v>1.040435502909175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012059725609612</v>
+        <v>1.012059725609613</v>
       </c>
       <c r="D7">
-        <v>1.029077700700596</v>
+        <v>1.029077700700597</v>
       </c>
       <c r="E7">
-        <v>1.018227184910407</v>
+        <v>1.018227184910408</v>
       </c>
       <c r="F7">
         <v>1.028947456151619</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05099949490909</v>
+        <v>1.050999494909091</v>
       </c>
       <c r="J7">
         <v>1.031153913719052</v>
@@ -635,10 +635,10 @@
         <v>1.038834518496943</v>
       </c>
       <c r="L7">
-        <v>1.028107561325691</v>
+        <v>1.028107561325692</v>
       </c>
       <c r="M7">
-        <v>1.038705738053707</v>
+        <v>1.038705738053708</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003289500530034</v>
+        <v>1.003289500530033</v>
       </c>
       <c r="D8">
-        <v>1.022168356135343</v>
+        <v>1.022168356135342</v>
       </c>
       <c r="E8">
-        <v>1.010801105844408</v>
+        <v>1.010801105844406</v>
       </c>
       <c r="F8">
         <v>1.020356005343074</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047688523198505</v>
+        <v>1.047688523198504</v>
       </c>
       <c r="J8">
-        <v>1.024802709795714</v>
+        <v>1.024802709795713</v>
       </c>
       <c r="K8">
-        <v>1.033056187616471</v>
+        <v>1.03305618761647</v>
       </c>
       <c r="L8">
-        <v>1.021836730278886</v>
+        <v>1.021836730278885</v>
       </c>
       <c r="M8">
         <v>1.031267124374961</v>
@@ -687,31 +687,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9867987306321265</v>
+        <v>0.9867987306321272</v>
       </c>
       <c r="D9">
-        <v>1.00919736845466</v>
+        <v>1.009197368454661</v>
       </c>
       <c r="E9">
-        <v>0.9968853748487774</v>
+        <v>0.9968853748487783</v>
       </c>
       <c r="F9">
-        <v>1.004259223626099</v>
+        <v>1.0042592236261</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041355120535195</v>
+        <v>1.041355120535196</v>
       </c>
       <c r="J9">
-        <v>1.01282642976479</v>
+        <v>1.012826429764791</v>
       </c>
       <c r="K9">
-        <v>1.022142966632926</v>
+        <v>1.022142966632927</v>
       </c>
       <c r="L9">
-        <v>1.010029187608467</v>
+        <v>1.010029187608468</v>
       </c>
       <c r="M9">
         <v>1.017283573809885</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9749874495785267</v>
+        <v>0.9749874495785257</v>
       </c>
       <c r="D10">
-        <v>0.9999284756010958</v>
+        <v>0.9999284756010945</v>
       </c>
       <c r="E10">
-        <v>0.9869572705844386</v>
+        <v>0.9869572705844378</v>
       </c>
       <c r="F10">
-        <v>0.9927745029953008</v>
+        <v>0.9927745029952997</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>1.004229843340293</v>
       </c>
       <c r="K10">
-        <v>1.014299021563127</v>
+        <v>1.014299021563126</v>
       </c>
       <c r="L10">
         <v>1.001566077463471</v>
       </c>
       <c r="M10">
-        <v>1.007275453122787</v>
+        <v>1.007275453122786</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9696478781468625</v>
+        <v>0.9696478781468638</v>
       </c>
       <c r="D11">
-        <v>0.9957451738322063</v>
+        <v>0.9957451738322075</v>
       </c>
       <c r="E11">
-        <v>0.9824798966545975</v>
+        <v>0.9824798966545989</v>
       </c>
       <c r="F11">
-        <v>0.9875943850984913</v>
+        <v>0.9875943850984926</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034652503494484</v>
+        <v>1.034652503494485</v>
       </c>
       <c r="J11">
-        <v>1.000340219609732</v>
+        <v>1.000340219609734</v>
       </c>
       <c r="K11">
-        <v>1.010747778502997</v>
+        <v>1.010747778502999</v>
       </c>
       <c r="L11">
-        <v>0.9977399565940879</v>
+        <v>0.9977399565940892</v>
       </c>
       <c r="M11">
-        <v>1.002754107569563</v>
+        <v>1.002754107569564</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9676276305095105</v>
+        <v>0.9676276305095097</v>
       </c>
       <c r="D12">
-        <v>0.9941636205593674</v>
+        <v>0.9941636205593672</v>
       </c>
       <c r="E12">
-        <v>0.9807876534129153</v>
+        <v>0.9807876534129149</v>
       </c>
       <c r="F12">
-        <v>0.985636367634974</v>
+        <v>0.9856363676349735</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033856776659488</v>
+        <v>1.033856776659487</v>
       </c>
       <c r="J12">
-        <v>0.9988681715582508</v>
+        <v>0.9988681715582505</v>
       </c>
       <c r="K12">
         <v>1.009403497154675</v>
       </c>
       <c r="L12">
-        <v>0.9962924260338237</v>
+        <v>0.9962924260338234</v>
       </c>
       <c r="M12">
-        <v>1.001044024775357</v>
+        <v>1.001044024775356</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,25 +845,25 @@
         <v>0.9945041599146103</v>
       </c>
       <c r="E13">
-        <v>0.981152004964615</v>
+        <v>0.9811520049646154</v>
       </c>
       <c r="F13">
-        <v>0.9860579508098563</v>
+        <v>0.9860579508098561</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034028239182638</v>
+        <v>1.034028239182637</v>
       </c>
       <c r="J13">
-        <v>0.9991852020835508</v>
+        <v>0.999185202083551</v>
       </c>
       <c r="K13">
         <v>1.009693023776641</v>
       </c>
       <c r="L13">
-        <v>0.99660415413389</v>
+        <v>0.9966041541338905</v>
       </c>
       <c r="M13">
         <v>1.001412272996693</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9694816554895997</v>
+        <v>0.9694816554896011</v>
       </c>
       <c r="D14">
-        <v>0.9956150205109316</v>
+        <v>0.9956150205109328</v>
       </c>
       <c r="E14">
-        <v>0.9823406244273878</v>
+        <v>0.9823406244273888</v>
       </c>
       <c r="F14">
-        <v>0.9874332433376174</v>
+        <v>0.9874332433376185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034587076530163</v>
+        <v>1.034587076530164</v>
       </c>
       <c r="J14">
-        <v>1.000219109246931</v>
+        <v>1.000219109246933</v>
       </c>
       <c r="K14">
-        <v>1.010637185746386</v>
+        <v>1.010637185746388</v>
       </c>
       <c r="L14">
-        <v>0.9976208534358062</v>
+        <v>0.9976208534358074</v>
       </c>
       <c r="M14">
-        <v>1.002613392113539</v>
+        <v>1.002613392113541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9703509322069295</v>
+        <v>0.9703509322069311</v>
       </c>
       <c r="D15">
-        <v>0.9962957197915427</v>
+        <v>0.9962957197915443</v>
       </c>
       <c r="E15">
-        <v>0.9830690350605454</v>
+        <v>0.9830690350605473</v>
       </c>
       <c r="F15">
-        <v>0.9882760270526834</v>
+        <v>0.9882760270526849</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034929143816683</v>
       </c>
       <c r="J15">
-        <v>1.000852451716212</v>
+        <v>1.000852451716213</v>
       </c>
       <c r="K15">
-        <v>1.011215514939731</v>
+        <v>1.011215514939733</v>
       </c>
       <c r="L15">
-        <v>0.998243719098531</v>
+        <v>0.9982437190985326</v>
       </c>
       <c r="M15">
-        <v>1.003349301165571</v>
+        <v>1.003349301165573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753368218786529</v>
+        <v>0.9753368218786548</v>
       </c>
       <c r="D16">
-        <v>1.000202349916541</v>
+        <v>1.000202349916543</v>
       </c>
       <c r="E16">
-        <v>0.9872504663114356</v>
+        <v>0.9872504663114374</v>
       </c>
       <c r="F16">
-        <v>0.993113697021955</v>
+        <v>0.9931136970219568</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036886718902447</v>
+        <v>1.036886718902448</v>
       </c>
       <c r="J16">
-        <v>1.004484284181385</v>
+        <v>1.004484284181387</v>
       </c>
       <c r="K16">
-        <v>1.014531284828874</v>
+        <v>1.014531284828875</v>
       </c>
       <c r="L16">
-        <v>1.001816430018398</v>
+        <v>1.0018164300184</v>
       </c>
       <c r="M16">
-        <v>1.007571361945017</v>
+        <v>1.007571361945019</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784019996080795</v>
+        <v>0.9784019996080784</v>
       </c>
       <c r="D17">
-        <v>1.002605955557302</v>
+        <v>1.002605955557301</v>
       </c>
       <c r="E17">
-        <v>0.9898240288481389</v>
+        <v>0.9898240288481381</v>
       </c>
       <c r="F17">
-        <v>0.9960909252401582</v>
+        <v>0.9960909252401576</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038086232273057</v>
       </c>
       <c r="J17">
-        <v>1.006716227234782</v>
+        <v>1.006716227234781</v>
       </c>
       <c r="K17">
-        <v>1.016568446695465</v>
+        <v>1.016568446695464</v>
       </c>
       <c r="L17">
-        <v>1.004012863644169</v>
+        <v>1.004012863644168</v>
       </c>
       <c r="M17">
-        <v>1.010167843621952</v>
+        <v>1.010167843621951</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801683618856812</v>
+        <v>0.9801683618856808</v>
       </c>
       <c r="D18">
-        <v>1.003991713933196</v>
+        <v>1.003991713933195</v>
       </c>
       <c r="E18">
-        <v>0.9913080995490198</v>
+        <v>0.9913080995490191</v>
       </c>
       <c r="F18">
-        <v>0.9978077080135853</v>
+        <v>0.9978077080135854</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,10 +1050,10 @@
         <v>1.008002102768456</v>
       </c>
       <c r="K18">
-        <v>1.017741899095949</v>
+        <v>1.01774189909595</v>
       </c>
       <c r="L18">
-        <v>1.005278572376484</v>
+        <v>1.005278572376483</v>
       </c>
       <c r="M18">
         <v>1.011664390877183</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807670851974027</v>
+        <v>0.9807670851974035</v>
       </c>
       <c r="D19">
-        <v>1.004461531784115</v>
+        <v>1.004461531784116</v>
       </c>
       <c r="E19">
-        <v>0.9918113047662811</v>
+        <v>0.9918113047662819</v>
       </c>
       <c r="F19">
-        <v>0.998389809584233</v>
+        <v>0.998389809584234</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039009583834745</v>
       </c>
       <c r="J19">
-        <v>1.008437903686184</v>
+        <v>1.008437903686185</v>
       </c>
       <c r="K19">
-        <v>1.018139562655575</v>
+        <v>1.018139562655576</v>
       </c>
       <c r="L19">
-        <v>1.00570758737795</v>
+        <v>1.005707587377951</v>
       </c>
       <c r="M19">
-        <v>1.012171702002545</v>
+        <v>1.012171702002546</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780753802187983</v>
+        <v>0.9780753802187979</v>
       </c>
       <c r="D20">
         <v>1.002349764462981</v>
       </c>
       <c r="E20">
-        <v>0.9895496889792353</v>
+        <v>0.9895496889792351</v>
       </c>
       <c r="F20">
-        <v>0.995773562133626</v>
+        <v>0.9957735621336258</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1.006478428319806</v>
       </c>
       <c r="K20">
-        <v>1.016351421551397</v>
+        <v>1.016351421551398</v>
       </c>
       <c r="L20">
         <v>1.003778817665404</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690648543125593</v>
+        <v>0.9690648543125584</v>
       </c>
       <c r="D21">
-        <v>0.9952886828999749</v>
+        <v>0.9952886828999739</v>
       </c>
       <c r="E21">
-        <v>0.981991430432185</v>
+        <v>0.9819914304321843</v>
       </c>
       <c r="F21">
-        <v>0.987029213447759</v>
+        <v>0.9870292134477581</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.034422984137185</v>
       </c>
       <c r="J21">
-        <v>0.9999154206188514</v>
+        <v>0.9999154206188505</v>
       </c>
       <c r="K21">
-        <v>1.010359865755003</v>
+        <v>1.010359865755002</v>
       </c>
       <c r="L21">
-        <v>0.9973222057994467</v>
+        <v>0.997322205799446</v>
       </c>
       <c r="M21">
-        <v>1.002260559788934</v>
+        <v>1.002260559788933</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,19 +1184,19 @@
         <v>0.9631843222193961</v>
       </c>
       <c r="D22">
-        <v>0.9906876230919665</v>
+        <v>0.9906876230919662</v>
       </c>
       <c r="E22">
         <v>0.9770692417034589</v>
       </c>
       <c r="F22">
-        <v>0.9813335826310801</v>
+        <v>0.9813335826310804</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032102714976643</v>
+        <v>1.032102714976644</v>
       </c>
       <c r="J22">
         <v>0.995629968742718</v>
@@ -1208,7 +1208,7 @@
         <v>0.993109071543244</v>
       </c>
       <c r="M22">
-        <v>0.9972841215566095</v>
+        <v>0.9972841215566099</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9663232315047667</v>
+        <v>0.9663232315047672</v>
       </c>
       <c r="D23">
-        <v>0.993142836313661</v>
+        <v>0.9931428363136612</v>
       </c>
       <c r="E23">
-        <v>0.97969555996136</v>
+        <v>0.9796955599613604</v>
       </c>
       <c r="F23">
-        <v>0.9843727007718986</v>
+        <v>0.984372700771899</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.033342396801086</v>
       </c>
       <c r="J23">
-        <v>0.9979176280323425</v>
+        <v>0.9979176280323427</v>
       </c>
       <c r="K23">
         <v>1.008535376929519</v>
       </c>
       <c r="L23">
-        <v>0.9953578530929564</v>
+        <v>0.9953578530929567</v>
       </c>
       <c r="M23">
-        <v>0.9999400698023241</v>
+        <v>0.9999400698023245</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782230316889233</v>
+        <v>0.9782230316889234</v>
       </c>
       <c r="D24">
         <v>1.002465576167155</v>
       </c>
       <c r="E24">
-        <v>0.9896737038575262</v>
+        <v>0.989673703857526</v>
       </c>
       <c r="F24">
-        <v>0.9959170257944934</v>
+        <v>0.9959170257944931</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>1.006585928634996</v>
       </c>
       <c r="K24">
-        <v>1.01644953143294</v>
+        <v>1.016449531432939</v>
       </c>
       <c r="L24">
         <v>1.003884620510685</v>
       </c>
       <c r="M24">
-        <v>1.010016224448393</v>
+        <v>1.010016224448392</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9911964431407007</v>
+        <v>0.9911964431407003</v>
       </c>
       <c r="D25">
         <v>1.012653343285275</v>
@@ -1316,10 +1316,10 @@
         <v>1.016023758271431</v>
       </c>
       <c r="K25">
-        <v>1.025058357346031</v>
+        <v>1.02505835734603</v>
       </c>
       <c r="L25">
-        <v>1.013179416996558</v>
+        <v>1.013179416996557</v>
       </c>
       <c r="M25">
         <v>1.021011796928708</v>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000965344717951</v>
+        <v>1.000965344717952</v>
       </c>
       <c r="D2">
         <v>1.020338477058512</v>
@@ -430,7 +430,7 @@
         <v>1.008836090523287</v>
       </c>
       <c r="F2">
-        <v>1.01808288039541</v>
+        <v>1.018082880395411</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.046803855380541</v>
       </c>
       <c r="J2">
-        <v>1.023117220778597</v>
+        <v>1.023117220778598</v>
       </c>
       <c r="K2">
-        <v>1.031521553727683</v>
+        <v>1.031521553727684</v>
       </c>
       <c r="L2">
-        <v>1.020173681984641</v>
+        <v>1.020173681984642</v>
       </c>
       <c r="M2">
-        <v>1.029295911600015</v>
+        <v>1.029295911600016</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -468,7 +468,7 @@
         <v>1.014586654155379</v>
       </c>
       <c r="F3">
-        <v>1.024735389801927</v>
+        <v>1.024735389801926</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -500,31 +500,31 @@
         <v>1.01203599162658</v>
       </c>
       <c r="D4">
-        <v>1.029058994533298</v>
+        <v>1.029058994533299</v>
       </c>
       <c r="E4">
         <v>1.018207064872707</v>
       </c>
       <c r="F4">
-        <v>1.028924175966119</v>
+        <v>1.02892417596612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050990597151893</v>
+        <v>1.050990597151894</v>
       </c>
       <c r="J4">
-        <v>1.031136747279596</v>
+        <v>1.031136747279597</v>
       </c>
       <c r="K4">
         <v>1.038818910694933</v>
       </c>
       <c r="L4">
-        <v>1.02809060282702</v>
+        <v>1.028090602827022</v>
       </c>
       <c r="M4">
-        <v>1.038685608232794</v>
+        <v>1.038685608232795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,7 +538,7 @@
         <v>1.013804003293747</v>
       </c>
       <c r="D5">
-        <v>1.030452575087365</v>
+        <v>1.030452575087366</v>
       </c>
       <c r="E5">
         <v>1.019706213535177</v>
@@ -553,16 +553,16 @@
         <v>1.051652427790322</v>
       </c>
       <c r="J5">
-        <v>1.032415179583747</v>
+        <v>1.032415179583748</v>
       </c>
       <c r="K5">
-        <v>1.039981102813951</v>
+        <v>1.039981102813952</v>
       </c>
       <c r="L5">
-        <v>1.029353692831124</v>
+        <v>1.029353692831125</v>
       </c>
       <c r="M5">
-        <v>1.040185112105969</v>
+        <v>1.04018511210597</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014099236386211</v>
+        <v>1.014099236386213</v>
       </c>
       <c r="D6">
-        <v>1.030685303607455</v>
+        <v>1.030685303607458</v>
       </c>
       <c r="E6">
-        <v>1.019956619422273</v>
+        <v>1.019956619422275</v>
       </c>
       <c r="F6">
-        <v>1.030948592035313</v>
+        <v>1.030948592035316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051762746450159</v>
+        <v>1.05176274645016</v>
       </c>
       <c r="J6">
-        <v>1.032628590574786</v>
+        <v>1.032628590574789</v>
       </c>
       <c r="K6">
-        <v>1.040175076713877</v>
+        <v>1.040175076713879</v>
       </c>
       <c r="L6">
-        <v>1.029564571301078</v>
+        <v>1.02956457130108</v>
       </c>
       <c r="M6">
-        <v>1.040435502909175</v>
+        <v>1.040435502909177</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012059725609613</v>
+        <v>1.012059725609612</v>
       </c>
       <c r="D7">
-        <v>1.029077700700597</v>
+        <v>1.029077700700596</v>
       </c>
       <c r="E7">
-        <v>1.018227184910408</v>
+        <v>1.018227184910407</v>
       </c>
       <c r="F7">
         <v>1.028947456151619</v>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050999494909091</v>
+        <v>1.05099949490909</v>
       </c>
       <c r="J7">
         <v>1.031153913719052</v>
@@ -635,10 +635,10 @@
         <v>1.038834518496943</v>
       </c>
       <c r="L7">
-        <v>1.028107561325692</v>
+        <v>1.028107561325691</v>
       </c>
       <c r="M7">
-        <v>1.038705738053708</v>
+        <v>1.038705738053707</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003289500530033</v>
+        <v>1.003289500530034</v>
       </c>
       <c r="D8">
-        <v>1.022168356135342</v>
+        <v>1.022168356135343</v>
       </c>
       <c r="E8">
-        <v>1.010801105844406</v>
+        <v>1.010801105844408</v>
       </c>
       <c r="F8">
         <v>1.020356005343074</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047688523198504</v>
+        <v>1.047688523198505</v>
       </c>
       <c r="J8">
-        <v>1.024802709795713</v>
+        <v>1.024802709795714</v>
       </c>
       <c r="K8">
-        <v>1.03305618761647</v>
+        <v>1.033056187616471</v>
       </c>
       <c r="L8">
-        <v>1.021836730278885</v>
+        <v>1.021836730278886</v>
       </c>
       <c r="M8">
         <v>1.031267124374961</v>
@@ -687,31 +687,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9867987306321272</v>
+        <v>0.9867987306321265</v>
       </c>
       <c r="D9">
-        <v>1.009197368454661</v>
+        <v>1.00919736845466</v>
       </c>
       <c r="E9">
-        <v>0.9968853748487783</v>
+        <v>0.9968853748487774</v>
       </c>
       <c r="F9">
-        <v>1.0042592236261</v>
+        <v>1.004259223626099</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041355120535196</v>
+        <v>1.041355120535195</v>
       </c>
       <c r="J9">
-        <v>1.012826429764791</v>
+        <v>1.01282642976479</v>
       </c>
       <c r="K9">
-        <v>1.022142966632927</v>
+        <v>1.022142966632926</v>
       </c>
       <c r="L9">
-        <v>1.010029187608468</v>
+        <v>1.010029187608467</v>
       </c>
       <c r="M9">
         <v>1.017283573809885</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9749874495785257</v>
+        <v>0.9749874495785267</v>
       </c>
       <c r="D10">
-        <v>0.9999284756010945</v>
+        <v>0.9999284756010958</v>
       </c>
       <c r="E10">
-        <v>0.9869572705844378</v>
+        <v>0.9869572705844386</v>
       </c>
       <c r="F10">
-        <v>0.9927745029952997</v>
+        <v>0.9927745029953008</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>1.004229843340293</v>
       </c>
       <c r="K10">
-        <v>1.014299021563126</v>
+        <v>1.014299021563127</v>
       </c>
       <c r="L10">
         <v>1.001566077463471</v>
       </c>
       <c r="M10">
-        <v>1.007275453122786</v>
+        <v>1.007275453122787</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9696478781468638</v>
+        <v>0.9696478781468625</v>
       </c>
       <c r="D11">
-        <v>0.9957451738322075</v>
+        <v>0.9957451738322063</v>
       </c>
       <c r="E11">
-        <v>0.9824798966545989</v>
+        <v>0.9824798966545975</v>
       </c>
       <c r="F11">
-        <v>0.9875943850984926</v>
+        <v>0.9875943850984913</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034652503494485</v>
+        <v>1.034652503494484</v>
       </c>
       <c r="J11">
-        <v>1.000340219609734</v>
+        <v>1.000340219609732</v>
       </c>
       <c r="K11">
-        <v>1.010747778502999</v>
+        <v>1.010747778502997</v>
       </c>
       <c r="L11">
-        <v>0.9977399565940892</v>
+        <v>0.9977399565940879</v>
       </c>
       <c r="M11">
-        <v>1.002754107569564</v>
+        <v>1.002754107569563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9676276305095097</v>
+        <v>0.9676276305095105</v>
       </c>
       <c r="D12">
-        <v>0.9941636205593672</v>
+        <v>0.9941636205593674</v>
       </c>
       <c r="E12">
-        <v>0.9807876534129149</v>
+        <v>0.9807876534129153</v>
       </c>
       <c r="F12">
-        <v>0.9856363676349735</v>
+        <v>0.985636367634974</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033856776659487</v>
+        <v>1.033856776659488</v>
       </c>
       <c r="J12">
-        <v>0.9988681715582505</v>
+        <v>0.9988681715582508</v>
       </c>
       <c r="K12">
         <v>1.009403497154675</v>
       </c>
       <c r="L12">
-        <v>0.9962924260338234</v>
+        <v>0.9962924260338237</v>
       </c>
       <c r="M12">
-        <v>1.001044024775356</v>
+        <v>1.001044024775357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -845,25 +845,25 @@
         <v>0.9945041599146103</v>
       </c>
       <c r="E13">
-        <v>0.9811520049646154</v>
+        <v>0.981152004964615</v>
       </c>
       <c r="F13">
-        <v>0.9860579508098561</v>
+        <v>0.9860579508098563</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034028239182637</v>
+        <v>1.034028239182638</v>
       </c>
       <c r="J13">
-        <v>0.999185202083551</v>
+        <v>0.9991852020835508</v>
       </c>
       <c r="K13">
         <v>1.009693023776641</v>
       </c>
       <c r="L13">
-        <v>0.9966041541338905</v>
+        <v>0.99660415413389</v>
       </c>
       <c r="M13">
         <v>1.001412272996693</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9694816554896011</v>
+        <v>0.9694816554895997</v>
       </c>
       <c r="D14">
-        <v>0.9956150205109328</v>
+        <v>0.9956150205109316</v>
       </c>
       <c r="E14">
-        <v>0.9823406244273888</v>
+        <v>0.9823406244273878</v>
       </c>
       <c r="F14">
-        <v>0.9874332433376185</v>
+        <v>0.9874332433376174</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034587076530164</v>
+        <v>1.034587076530163</v>
       </c>
       <c r="J14">
-        <v>1.000219109246933</v>
+        <v>1.000219109246931</v>
       </c>
       <c r="K14">
-        <v>1.010637185746388</v>
+        <v>1.010637185746386</v>
       </c>
       <c r="L14">
-        <v>0.9976208534358074</v>
+        <v>0.9976208534358062</v>
       </c>
       <c r="M14">
-        <v>1.002613392113541</v>
+        <v>1.002613392113539</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9703509322069311</v>
+        <v>0.9703509322069295</v>
       </c>
       <c r="D15">
-        <v>0.9962957197915443</v>
+        <v>0.9962957197915427</v>
       </c>
       <c r="E15">
-        <v>0.9830690350605473</v>
+        <v>0.9830690350605454</v>
       </c>
       <c r="F15">
-        <v>0.9882760270526849</v>
+        <v>0.9882760270526834</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.034929143816683</v>
       </c>
       <c r="J15">
-        <v>1.000852451716213</v>
+        <v>1.000852451716212</v>
       </c>
       <c r="K15">
-        <v>1.011215514939733</v>
+        <v>1.011215514939731</v>
       </c>
       <c r="L15">
-        <v>0.9982437190985326</v>
+        <v>0.998243719098531</v>
       </c>
       <c r="M15">
-        <v>1.003349301165573</v>
+        <v>1.003349301165571</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753368218786548</v>
+        <v>0.9753368218786529</v>
       </c>
       <c r="D16">
-        <v>1.000202349916543</v>
+        <v>1.000202349916541</v>
       </c>
       <c r="E16">
-        <v>0.9872504663114374</v>
+        <v>0.9872504663114356</v>
       </c>
       <c r="F16">
-        <v>0.9931136970219568</v>
+        <v>0.993113697021955</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036886718902448</v>
+        <v>1.036886718902447</v>
       </c>
       <c r="J16">
-        <v>1.004484284181387</v>
+        <v>1.004484284181385</v>
       </c>
       <c r="K16">
-        <v>1.014531284828875</v>
+        <v>1.014531284828874</v>
       </c>
       <c r="L16">
-        <v>1.0018164300184</v>
+        <v>1.001816430018398</v>
       </c>
       <c r="M16">
-        <v>1.007571361945019</v>
+        <v>1.007571361945017</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784019996080784</v>
+        <v>0.9784019996080795</v>
       </c>
       <c r="D17">
-        <v>1.002605955557301</v>
+        <v>1.002605955557302</v>
       </c>
       <c r="E17">
-        <v>0.9898240288481381</v>
+        <v>0.9898240288481389</v>
       </c>
       <c r="F17">
-        <v>0.9960909252401576</v>
+        <v>0.9960909252401582</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038086232273057</v>
       </c>
       <c r="J17">
-        <v>1.006716227234781</v>
+        <v>1.006716227234782</v>
       </c>
       <c r="K17">
-        <v>1.016568446695464</v>
+        <v>1.016568446695465</v>
       </c>
       <c r="L17">
-        <v>1.004012863644168</v>
+        <v>1.004012863644169</v>
       </c>
       <c r="M17">
-        <v>1.010167843621951</v>
+        <v>1.010167843621952</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801683618856808</v>
+        <v>0.9801683618856812</v>
       </c>
       <c r="D18">
-        <v>1.003991713933195</v>
+        <v>1.003991713933196</v>
       </c>
       <c r="E18">
-        <v>0.9913080995490191</v>
+        <v>0.9913080995490198</v>
       </c>
       <c r="F18">
-        <v>0.9978077080135854</v>
+        <v>0.9978077080135853</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1050,10 +1050,10 @@
         <v>1.008002102768456</v>
       </c>
       <c r="K18">
-        <v>1.01774189909595</v>
+        <v>1.017741899095949</v>
       </c>
       <c r="L18">
-        <v>1.005278572376483</v>
+        <v>1.005278572376484</v>
       </c>
       <c r="M18">
         <v>1.011664390877183</v>
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807670851974035</v>
+        <v>0.9807670851974027</v>
       </c>
       <c r="D19">
-        <v>1.004461531784116</v>
+        <v>1.004461531784115</v>
       </c>
       <c r="E19">
-        <v>0.9918113047662819</v>
+        <v>0.9918113047662811</v>
       </c>
       <c r="F19">
-        <v>0.998389809584234</v>
+        <v>0.998389809584233</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039009583834745</v>
       </c>
       <c r="J19">
-        <v>1.008437903686185</v>
+        <v>1.008437903686184</v>
       </c>
       <c r="K19">
-        <v>1.018139562655576</v>
+        <v>1.018139562655575</v>
       </c>
       <c r="L19">
-        <v>1.005707587377951</v>
+        <v>1.00570758737795</v>
       </c>
       <c r="M19">
-        <v>1.012171702002546</v>
+        <v>1.012171702002545</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780753802187979</v>
+        <v>0.9780753802187983</v>
       </c>
       <c r="D20">
         <v>1.002349764462981</v>
       </c>
       <c r="E20">
-        <v>0.9895496889792351</v>
+        <v>0.9895496889792353</v>
       </c>
       <c r="F20">
-        <v>0.9957735621336258</v>
+        <v>0.995773562133626</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1.006478428319806</v>
       </c>
       <c r="K20">
-        <v>1.016351421551398</v>
+        <v>1.016351421551397</v>
       </c>
       <c r="L20">
         <v>1.003778817665404</v>
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690648543125584</v>
+        <v>0.9690648543125593</v>
       </c>
       <c r="D21">
-        <v>0.9952886828999739</v>
+        <v>0.9952886828999749</v>
       </c>
       <c r="E21">
-        <v>0.9819914304321843</v>
+        <v>0.981991430432185</v>
       </c>
       <c r="F21">
-        <v>0.9870292134477581</v>
+        <v>0.987029213447759</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.034422984137185</v>
       </c>
       <c r="J21">
-        <v>0.9999154206188505</v>
+        <v>0.9999154206188514</v>
       </c>
       <c r="K21">
-        <v>1.010359865755002</v>
+        <v>1.010359865755003</v>
       </c>
       <c r="L21">
-        <v>0.997322205799446</v>
+        <v>0.9973222057994467</v>
       </c>
       <c r="M21">
-        <v>1.002260559788933</v>
+        <v>1.002260559788934</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1184,19 +1184,19 @@
         <v>0.9631843222193961</v>
       </c>
       <c r="D22">
-        <v>0.9906876230919662</v>
+        <v>0.9906876230919665</v>
       </c>
       <c r="E22">
         <v>0.9770692417034589</v>
       </c>
       <c r="F22">
-        <v>0.9813335826310804</v>
+        <v>0.9813335826310801</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032102714976644</v>
+        <v>1.032102714976643</v>
       </c>
       <c r="J22">
         <v>0.995629968742718</v>
@@ -1208,7 +1208,7 @@
         <v>0.993109071543244</v>
       </c>
       <c r="M22">
-        <v>0.9972841215566099</v>
+        <v>0.9972841215566095</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9663232315047672</v>
+        <v>0.9663232315047667</v>
       </c>
       <c r="D23">
-        <v>0.9931428363136612</v>
+        <v>0.993142836313661</v>
       </c>
       <c r="E23">
-        <v>0.9796955599613604</v>
+        <v>0.97969555996136</v>
       </c>
       <c r="F23">
-        <v>0.984372700771899</v>
+        <v>0.9843727007718986</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.033342396801086</v>
       </c>
       <c r="J23">
-        <v>0.9979176280323427</v>
+        <v>0.9979176280323425</v>
       </c>
       <c r="K23">
         <v>1.008535376929519</v>
       </c>
       <c r="L23">
-        <v>0.9953578530929567</v>
+        <v>0.9953578530929564</v>
       </c>
       <c r="M23">
-        <v>0.9999400698023245</v>
+        <v>0.9999400698023241</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782230316889234</v>
+        <v>0.9782230316889233</v>
       </c>
       <c r="D24">
         <v>1.002465576167155</v>
       </c>
       <c r="E24">
-        <v>0.989673703857526</v>
+        <v>0.9896737038575262</v>
       </c>
       <c r="F24">
-        <v>0.9959170257944931</v>
+        <v>0.9959170257944934</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>1.006585928634996</v>
       </c>
       <c r="K24">
-        <v>1.016449531432939</v>
+        <v>1.01644953143294</v>
       </c>
       <c r="L24">
         <v>1.003884620510685</v>
       </c>
       <c r="M24">
-        <v>1.010016224448392</v>
+        <v>1.010016224448393</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9911964431407003</v>
+        <v>0.9911964431407007</v>
       </c>
       <c r="D25">
         <v>1.012653343285275</v>
@@ -1316,10 +1316,10 @@
         <v>1.016023758271431</v>
       </c>
       <c r="K25">
-        <v>1.02505835734603</v>
+        <v>1.025058357346031</v>
       </c>
       <c r="L25">
-        <v>1.013179416996557</v>
+        <v>1.013179416996558</v>
       </c>
       <c r="M25">
         <v>1.021011796928708</v>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000965344717952</v>
+        <v>1.000971629446288</v>
       </c>
       <c r="D2">
-        <v>1.020338477058512</v>
+        <v>1.020343659943335</v>
       </c>
       <c r="E2">
-        <v>1.008836090523287</v>
+        <v>1.008843093084919</v>
       </c>
       <c r="F2">
-        <v>1.018082880395411</v>
+        <v>1.018088324047525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046803855380541</v>
+        <v>1.046806868863884</v>
       </c>
       <c r="J2">
-        <v>1.023117220778598</v>
+        <v>1.023123318031609</v>
       </c>
       <c r="K2">
-        <v>1.031521553727684</v>
+        <v>1.031526667974656</v>
       </c>
       <c r="L2">
-        <v>1.020173681984642</v>
+        <v>1.020180589129841</v>
       </c>
       <c r="M2">
-        <v>1.029295911600016</v>
+        <v>1.029301282759329</v>
+      </c>
+      <c r="N2">
+        <v>1.016851353877084</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007762826410658</v>
+        <v>1.007765090710059</v>
       </c>
       <c r="D3">
-        <v>1.025691736979227</v>
+        <v>1.025693625844857</v>
       </c>
       <c r="E3">
-        <v>1.014586654155379</v>
+        <v>1.01459001600344</v>
       </c>
       <c r="F3">
-        <v>1.024735389801926</v>
+        <v>1.024737627807061</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049382937960265</v>
+        <v>1.049384043330922</v>
       </c>
       <c r="J3">
-        <v>1.028044082947067</v>
+        <v>1.028046286804494</v>
       </c>
       <c r="K3">
-        <v>1.036006110876291</v>
+        <v>1.036007977053274</v>
       </c>
       <c r="L3">
-        <v>1.025036236924995</v>
+        <v>1.025039557283825</v>
       </c>
       <c r="M3">
-        <v>1.035061264467059</v>
+        <v>1.035063475527458</v>
+      </c>
+      <c r="N3">
+        <v>1.02031518597987</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01203599162658</v>
+        <v>1.012035769799536</v>
       </c>
       <c r="D4">
-        <v>1.029058994533299</v>
+        <v>1.029058842168632</v>
       </c>
       <c r="E4">
-        <v>1.018207064872707</v>
+        <v>1.018208173784309</v>
       </c>
       <c r="F4">
-        <v>1.02892417596612</v>
+        <v>1.028924436730974</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050990597151894</v>
+        <v>1.050990518062343</v>
       </c>
       <c r="J4">
-        <v>1.031136747279597</v>
+        <v>1.031136530946562</v>
       </c>
       <c r="K4">
-        <v>1.038818910694933</v>
+        <v>1.03881876004341</v>
       </c>
       <c r="L4">
-        <v>1.028090602827022</v>
+        <v>1.028091698939983</v>
       </c>
       <c r="M4">
-        <v>1.038685608232795</v>
+        <v>1.03868586606474</v>
+      </c>
+      <c r="N4">
+        <v>1.022486992594316</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013804003293747</v>
+        <v>1.013802761644602</v>
       </c>
       <c r="D5">
-        <v>1.030452575087366</v>
+        <v>1.03045158447156</v>
       </c>
       <c r="E5">
-        <v>1.019706213535177</v>
+        <v>1.019706398043646</v>
       </c>
       <c r="F5">
-        <v>1.030658837711605</v>
+        <v>1.030658288545349</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051652427790322</v>
+        <v>1.051651861817276</v>
       </c>
       <c r="J5">
-        <v>1.032415179583748</v>
+        <v>1.032413967709845</v>
       </c>
       <c r="K5">
-        <v>1.039981102813952</v>
+        <v>1.039980123022879</v>
       </c>
       <c r="L5">
-        <v>1.029353692831125</v>
+        <v>1.029353875270772</v>
       </c>
       <c r="M5">
-        <v>1.04018511210597</v>
+        <v>1.040184568937653</v>
+      </c>
+      <c r="N5">
+        <v>1.023384148657155</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014099236386213</v>
+        <v>1.014097824929138</v>
       </c>
       <c r="D6">
-        <v>1.030685303607458</v>
+        <v>1.030684173364847</v>
       </c>
       <c r="E6">
-        <v>1.019956619422275</v>
+        <v>1.019956650000984</v>
       </c>
       <c r="F6">
-        <v>1.030948592035316</v>
+        <v>1.030947908074896</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05176274645016</v>
+        <v>1.051762099349959</v>
       </c>
       <c r="J6">
-        <v>1.032628590574789</v>
+        <v>1.032627212780434</v>
       </c>
       <c r="K6">
-        <v>1.040175076713879</v>
+        <v>1.040173958762107</v>
       </c>
       <c r="L6">
-        <v>1.02956457130108</v>
+        <v>1.029564601538598</v>
       </c>
       <c r="M6">
-        <v>1.040435502909177</v>
+        <v>1.04043482638183</v>
+      </c>
+      <c r="N6">
+        <v>1.023533875776671</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012059725609612</v>
+        <v>1.012059490058886</v>
       </c>
       <c r="D7">
-        <v>1.029077700700596</v>
+        <v>1.02907753705919</v>
       </c>
       <c r="E7">
-        <v>1.018227184910407</v>
+        <v>1.018228281383124</v>
       </c>
       <c r="F7">
-        <v>1.028947456151619</v>
+        <v>1.02894770601283</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05099949490909</v>
+        <v>1.050999409271498</v>
       </c>
       <c r="J7">
-        <v>1.031153913719052</v>
+        <v>1.031153683999734</v>
       </c>
       <c r="K7">
-        <v>1.038834518496943</v>
+        <v>1.038834356694777</v>
       </c>
       <c r="L7">
-        <v>1.028107561325691</v>
+        <v>1.028108645148183</v>
       </c>
       <c r="M7">
-        <v>1.038705738053707</v>
+        <v>1.038705985105741</v>
+      </c>
+      <c r="N7">
+        <v>1.022499041822651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003289500530034</v>
+        <v>1.003294401201924</v>
       </c>
       <c r="D8">
-        <v>1.022168356135343</v>
+        <v>1.022172406018292</v>
       </c>
       <c r="E8">
-        <v>1.010801105844408</v>
+        <v>1.010806855512015</v>
       </c>
       <c r="F8">
-        <v>1.020356005343074</v>
+        <v>1.020360344313009</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047688523198505</v>
+        <v>1.047690880819327</v>
       </c>
       <c r="J8">
-        <v>1.024802709795714</v>
+        <v>1.024807469584183</v>
       </c>
       <c r="K8">
-        <v>1.033056187616471</v>
+        <v>1.033060185576606</v>
       </c>
       <c r="L8">
-        <v>1.021836730278886</v>
+        <v>1.021842404137785</v>
       </c>
       <c r="M8">
-        <v>1.031267124374961</v>
+        <v>1.03127140746835</v>
+      </c>
+      <c r="N8">
+        <v>1.018036852201043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9867987306321265</v>
+        <v>0.9868136824541367</v>
       </c>
       <c r="D9">
-        <v>1.00919736845466</v>
+        <v>1.009209622041747</v>
       </c>
       <c r="E9">
-        <v>0.9968853748487774</v>
+        <v>0.9969002085531922</v>
       </c>
       <c r="F9">
-        <v>1.004259223626099</v>
+        <v>1.004271610508745</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041355120535195</v>
+        <v>1.041362217140105</v>
       </c>
       <c r="J9">
-        <v>1.01282642976479</v>
+        <v>1.012840833563639</v>
       </c>
       <c r="K9">
-        <v>1.022142966632926</v>
+        <v>1.022155026031294</v>
       </c>
       <c r="L9">
-        <v>1.010029187608467</v>
+        <v>1.010043778714125</v>
       </c>
       <c r="M9">
-        <v>1.017283573809885</v>
+        <v>1.017295761907672</v>
+      </c>
+      <c r="N9">
+        <v>1.009603285583708</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9749874495785267</v>
+        <v>0.9750099666570186</v>
       </c>
       <c r="D10">
-        <v>0.9999284756010958</v>
+        <v>0.9999468654851792</v>
       </c>
       <c r="E10">
-        <v>0.9869572705844386</v>
+        <v>0.9869789128015148</v>
       </c>
       <c r="F10">
-        <v>0.9927745029953008</v>
+        <v>0.9927929843723111</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036749800761139</v>
+        <v>1.036760428179118</v>
       </c>
       <c r="J10">
-        <v>1.004229843340293</v>
+        <v>1.004251400396678</v>
       </c>
       <c r="K10">
-        <v>1.014299021563127</v>
+        <v>1.014317079358357</v>
       </c>
       <c r="L10">
-        <v>1.001566077463471</v>
+        <v>1.00158731533891</v>
       </c>
       <c r="M10">
-        <v>1.007275453122787</v>
+        <v>1.00729359446258</v>
+      </c>
+      <c r="N10">
+        <v>1.003537821431953</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9696478781468625</v>
+        <v>0.9696739292898472</v>
       </c>
       <c r="D11">
-        <v>0.9957451738322063</v>
+        <v>0.9957664185119937</v>
       </c>
       <c r="E11">
-        <v>0.9824798966545975</v>
+        <v>0.9825047088901262</v>
       </c>
       <c r="F11">
-        <v>0.9875943850984913</v>
+        <v>0.987615723570584</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034652503494484</v>
+        <v>1.034664769872641</v>
       </c>
       <c r="J11">
-        <v>1.000340219609732</v>
+        <v>1.000365087288575</v>
       </c>
       <c r="K11">
-        <v>1.010747778502997</v>
+        <v>1.010768618058656</v>
       </c>
       <c r="L11">
-        <v>0.9977399565940879</v>
+        <v>0.9977642787439887</v>
       </c>
       <c r="M11">
-        <v>1.002754107569563</v>
+        <v>1.002775030272427</v>
+      </c>
+      <c r="N11">
+        <v>1.000790949817784</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9676276305095105</v>
+        <v>0.9676550386622322</v>
       </c>
       <c r="D12">
-        <v>0.9941636205593674</v>
+        <v>0.9941859594026911</v>
       </c>
       <c r="E12">
-        <v>0.9807876534129153</v>
+        <v>0.9808136809262356</v>
       </c>
       <c r="F12">
-        <v>0.985636367634974</v>
+        <v>0.9856588048021273</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033856776659488</v>
+        <v>1.033869670616975</v>
       </c>
       <c r="J12">
-        <v>0.9988681715582508</v>
+        <v>0.9988943052373874</v>
       </c>
       <c r="K12">
-        <v>1.009403497154675</v>
+        <v>1.009425401419324</v>
       </c>
       <c r="L12">
-        <v>0.9962924260338237</v>
+        <v>0.9963179288641578</v>
       </c>
       <c r="M12">
-        <v>1.001044024775357</v>
+        <v>1.001066015465371</v>
+      </c>
+      <c r="N12">
+        <v>0.9997510399030559</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9680627032382879</v>
+        <v>0.9680898182043128</v>
       </c>
       <c r="D13">
-        <v>0.9945041599146103</v>
+        <v>0.9945262624555541</v>
       </c>
       <c r="E13">
-        <v>0.981152004964615</v>
+        <v>0.9811777700068293</v>
       </c>
       <c r="F13">
-        <v>0.9860579508098563</v>
+        <v>0.9860801505249539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034028239182638</v>
+        <v>1.034040997631275</v>
       </c>
       <c r="J13">
-        <v>0.9991852020835508</v>
+        <v>0.9992110624831499</v>
       </c>
       <c r="K13">
-        <v>1.009693023776641</v>
+        <v>1.009714698168113</v>
       </c>
       <c r="L13">
-        <v>0.99660415413389</v>
+        <v>0.9966294020457385</v>
       </c>
       <c r="M13">
-        <v>1.001412272996693</v>
+        <v>1.001434032945326</v>
+      </c>
+      <c r="N13">
+        <v>0.9999750170725447</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9694816554895997</v>
+        <v>0.9695078178644859</v>
       </c>
       <c r="D14">
-        <v>0.9956150205109316</v>
+        <v>0.9956363549199128</v>
       </c>
       <c r="E14">
-        <v>0.9823406244273878</v>
+        <v>0.9823655363187804</v>
       </c>
       <c r="F14">
-        <v>0.9874332433376174</v>
+        <v>0.9874546718344632</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034587076530163</v>
+        <v>1.034599394386382</v>
       </c>
       <c r="J14">
-        <v>1.000219109246931</v>
+        <v>1.000244080806361</v>
       </c>
       <c r="K14">
-        <v>1.010637185746386</v>
+        <v>1.010658112646051</v>
       </c>
       <c r="L14">
-        <v>0.9976208534358062</v>
+        <v>0.9976452724403028</v>
       </c>
       <c r="M14">
-        <v>1.002613392113539</v>
+        <v>1.002634402357936</v>
+      </c>
+      <c r="N14">
+        <v>1.000705399672463</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9703509322069295</v>
+        <v>0.9703765137100149</v>
       </c>
       <c r="D15">
-        <v>0.9962957197915427</v>
+        <v>0.9963165855362579</v>
       </c>
       <c r="E15">
-        <v>0.9830690350605454</v>
+        <v>0.9830934264513013</v>
       </c>
       <c r="F15">
-        <v>0.9882760270526834</v>
+        <v>0.9882969854914858</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034929143816683</v>
+        <v>1.034941192773997</v>
       </c>
       <c r="J15">
-        <v>1.000852451716212</v>
+        <v>1.000876880579638</v>
       </c>
       <c r="K15">
-        <v>1.011215514939731</v>
+        <v>1.011235985573302</v>
       </c>
       <c r="L15">
-        <v>0.998243719098531</v>
+        <v>0.9982676321626168</v>
       </c>
       <c r="M15">
-        <v>1.003349301165571</v>
+        <v>1.003369854252927</v>
+      </c>
+      <c r="N15">
+        <v>1.001152767488696</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753368218786529</v>
+        <v>0.9753591103025325</v>
       </c>
       <c r="D16">
-        <v>1.000202349916541</v>
+        <v>1.000220554834589</v>
       </c>
       <c r="E16">
-        <v>0.9872504663114356</v>
+        <v>0.9872719031835573</v>
       </c>
       <c r="F16">
-        <v>0.993113697021955</v>
+        <v>0.9931319937596074</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036886718902447</v>
+        <v>1.036897240051823</v>
       </c>
       <c r="J16">
-        <v>1.004484284181385</v>
+        <v>1.004505626362355</v>
       </c>
       <c r="K16">
-        <v>1.014531284828874</v>
+        <v>1.014549162198076</v>
       </c>
       <c r="L16">
-        <v>1.001816430018398</v>
+        <v>1.00183746787689</v>
       </c>
       <c r="M16">
-        <v>1.007571361945017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.007589323333075</v>
+      </c>
+      <c r="N16">
+        <v>1.003717459948456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784019996080795</v>
+        <v>0.9784222951118844</v>
       </c>
       <c r="D17">
-        <v>1.002605955557302</v>
+        <v>1.00262254700988</v>
       </c>
       <c r="E17">
-        <v>0.9898240288481389</v>
+        <v>0.9898436747570197</v>
       </c>
       <c r="F17">
-        <v>0.9960909252401582</v>
+        <v>0.9961076138200619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038086232273057</v>
+        <v>1.038095826024261</v>
       </c>
       <c r="J17">
-        <v>1.006716227234782</v>
+        <v>1.006735693097268</v>
       </c>
       <c r="K17">
-        <v>1.016568446695465</v>
+        <v>1.016584749200602</v>
       </c>
       <c r="L17">
-        <v>1.004012863644169</v>
+        <v>1.004032155831754</v>
       </c>
       <c r="M17">
-        <v>1.010167843621952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.010184236610179</v>
+      </c>
+      <c r="N17">
+        <v>1.005292963745133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801683618856812</v>
+        <v>0.9801875194535471</v>
       </c>
       <c r="D18">
-        <v>1.003991713933196</v>
+        <v>1.004007383050513</v>
       </c>
       <c r="E18">
-        <v>0.9913080995490198</v>
+        <v>0.9913267218911948</v>
       </c>
       <c r="F18">
-        <v>0.9978077080135853</v>
+        <v>0.9978234792749937</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03877602248877</v>
+        <v>1.038785085756204</v>
       </c>
       <c r="J18">
-        <v>1.008002102768456</v>
+        <v>1.008020494456619</v>
       </c>
       <c r="K18">
-        <v>1.017741899095949</v>
+        <v>1.017757300520555</v>
       </c>
       <c r="L18">
-        <v>1.005278572376484</v>
+        <v>1.005296865929614</v>
       </c>
       <c r="M18">
-        <v>1.011664390877183</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.011679888361268</v>
+      </c>
+      <c r="N18">
+        <v>1.006200413529138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9807670851974027</v>
+        <v>0.980785858762099</v>
       </c>
       <c r="D19">
-        <v>1.004461531784115</v>
+        <v>1.004476889480414</v>
       </c>
       <c r="E19">
-        <v>0.9918113047662811</v>
+        <v>0.9918295815491553</v>
       </c>
       <c r="F19">
-        <v>0.998389809584233</v>
+        <v>0.9984052714444006</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039009583834745</v>
+        <v>1.03901846793113</v>
       </c>
       <c r="J19">
-        <v>1.008437903686184</v>
+        <v>1.008455932425345</v>
       </c>
       <c r="K19">
-        <v>1.018139562655575</v>
+        <v>1.018154659701556</v>
       </c>
       <c r="L19">
-        <v>1.00570758737795</v>
+        <v>1.005725543631673</v>
       </c>
       <c r="M19">
-        <v>1.012171702002545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.012186897300792</v>
+      </c>
+      <c r="N19">
+        <v>1.00650791994336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780753802187983</v>
+        <v>0.9780958869730784</v>
       </c>
       <c r="D20">
-        <v>1.002349764462981</v>
+        <v>1.002366527056282</v>
       </c>
       <c r="E20">
-        <v>0.9895496889792353</v>
+        <v>0.989569524832091</v>
       </c>
       <c r="F20">
-        <v>0.995773562133626</v>
+        <v>0.9957904210820703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037958564493094</v>
+        <v>1.037968256649131</v>
       </c>
       <c r="J20">
-        <v>1.006478428319806</v>
+        <v>1.006498093370365</v>
       </c>
       <c r="K20">
-        <v>1.016351421551397</v>
+        <v>1.016367891188266</v>
       </c>
       <c r="L20">
-        <v>1.003778817665404</v>
+        <v>1.003798295093816</v>
       </c>
       <c r="M20">
-        <v>1.009891137708407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.009907696944403</v>
+      </c>
+      <c r="N20">
+        <v>1.00512512839607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690648543125593</v>
+        <v>0.9690912959298977</v>
       </c>
       <c r="D21">
-        <v>0.9952886828999749</v>
+        <v>0.995310242536569</v>
       </c>
       <c r="E21">
-        <v>0.981991430432185</v>
+        <v>0.9820165924724535</v>
       </c>
       <c r="F21">
-        <v>0.987029213447759</v>
+        <v>0.9870508679739771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034422984137185</v>
+        <v>1.034435431197994</v>
       </c>
       <c r="J21">
-        <v>0.9999154206188514</v>
+        <v>0.9999406528801097</v>
       </c>
       <c r="K21">
-        <v>1.010359865755003</v>
+        <v>1.010381011871376</v>
       </c>
       <c r="L21">
-        <v>0.9973222057994467</v>
+        <v>0.9973468678930576</v>
       </c>
       <c r="M21">
-        <v>1.002260559788934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.002281789802024</v>
+      </c>
+      <c r="N21">
+        <v>1.000490874185506</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9631843222193961</v>
+        <v>0.9632147550991664</v>
       </c>
       <c r="D22">
-        <v>0.9906876230919665</v>
+        <v>0.9907123967157141</v>
       </c>
       <c r="E22">
-        <v>0.9770692417034589</v>
+        <v>0.9770979739678527</v>
       </c>
       <c r="F22">
-        <v>0.9813335826310801</v>
+        <v>0.981358471902984</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032102714976643</v>
+        <v>1.032117004317472</v>
       </c>
       <c r="J22">
-        <v>0.995629968742718</v>
+        <v>0.9956589139369754</v>
       </c>
       <c r="K22">
-        <v>1.006445845124847</v>
+        <v>1.006470115761591</v>
       </c>
       <c r="L22">
-        <v>0.993109071543244</v>
+        <v>0.9931371987328296</v>
       </c>
       <c r="M22">
-        <v>0.9972841215566095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9973084926825198</v>
+      </c>
+      <c r="N22">
+        <v>0.9974628572502522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9663232315047667</v>
+        <v>0.9663515218178039</v>
       </c>
       <c r="D23">
-        <v>0.993142836313661</v>
+        <v>0.9931658858416699</v>
       </c>
       <c r="E23">
-        <v>0.97969555996136</v>
+        <v>0.9797223768998541</v>
       </c>
       <c r="F23">
-        <v>0.9843727007718986</v>
+        <v>0.9843958526487731</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033342396801086</v>
+        <v>1.03335569821531</v>
       </c>
       <c r="J23">
-        <v>0.9979176280323425</v>
+        <v>0.9979445831630227</v>
       </c>
       <c r="K23">
-        <v>1.008535376929519</v>
+        <v>1.008557972318023</v>
       </c>
       <c r="L23">
-        <v>0.9953578530929564</v>
+        <v>0.9953841223666583</v>
       </c>
       <c r="M23">
-        <v>0.9999400698023241</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9999627547581238</v>
+      </c>
+      <c r="N23">
+        <v>0.9990794479366447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782230316889233</v>
+        <v>0.9782434429129006</v>
       </c>
       <c r="D24">
-        <v>1.002465576167155</v>
+        <v>1.002482261371619</v>
       </c>
       <c r="E24">
-        <v>0.9896737038575262</v>
+        <v>0.9896934538180878</v>
       </c>
       <c r="F24">
-        <v>0.9959170257944934</v>
+        <v>0.9959338076971272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038016282466348</v>
+        <v>1.038025930125345</v>
       </c>
       <c r="J24">
-        <v>1.006585928634996</v>
+        <v>1.006605503618775</v>
       </c>
       <c r="K24">
-        <v>1.01644953143294</v>
+        <v>1.016465925496335</v>
       </c>
       <c r="L24">
-        <v>1.003884620510685</v>
+        <v>1.003904014176516</v>
       </c>
       <c r="M24">
-        <v>1.010016224448393</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.0100327085048</v>
+      </c>
+      <c r="N24">
+        <v>1.005201001439488</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9911964431407007</v>
+        <v>0.9912086599307657</v>
       </c>
       <c r="D25">
-        <v>1.012653343285275</v>
+        <v>1.012663370202462</v>
       </c>
       <c r="E25">
-        <v>1.000590257104141</v>
+        <v>1.000602622683991</v>
       </c>
       <c r="F25">
-        <v>1.008544693859313</v>
+        <v>1.008554885051002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043056183516752</v>
+        <v>1.043061996060692</v>
       </c>
       <c r="J25">
-        <v>1.016023758271431</v>
+        <v>1.016035553660418</v>
       </c>
       <c r="K25">
-        <v>1.025058357346031</v>
+        <v>1.02506823352319</v>
       </c>
       <c r="L25">
-        <v>1.013179416996558</v>
+        <v>1.013191590908949</v>
       </c>
       <c r="M25">
-        <v>1.021011796928708</v>
+        <v>1.021021833315721</v>
+      </c>
+      <c r="N25">
+        <v>1.011856923855018</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000971629446288</v>
+        <v>1.02035371662386</v>
       </c>
       <c r="D2">
-        <v>1.020343659943335</v>
+        <v>1.038426272979611</v>
       </c>
       <c r="E2">
-        <v>1.008843093084919</v>
+        <v>1.033915219284129</v>
       </c>
       <c r="F2">
-        <v>1.018088324047525</v>
+        <v>1.04541448539804</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046806868863884</v>
+        <v>1.051689045666065</v>
       </c>
       <c r="J2">
-        <v>1.023123318031609</v>
+        <v>1.041942238711887</v>
       </c>
       <c r="K2">
-        <v>1.031526667974656</v>
+        <v>1.049375019197746</v>
       </c>
       <c r="L2">
-        <v>1.020180589129841</v>
+        <v>1.044921447642855</v>
       </c>
       <c r="M2">
-        <v>1.029301282759329</v>
+        <v>1.05627540499698</v>
       </c>
       <c r="N2">
-        <v>1.016851353877084</v>
+        <v>1.043421916203303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007765090710059</v>
+        <v>1.026883303317092</v>
       </c>
       <c r="D3">
-        <v>1.025693625844857</v>
+        <v>1.043451733767997</v>
       </c>
       <c r="E3">
-        <v>1.01459001600344</v>
+        <v>1.039367254966131</v>
       </c>
       <c r="F3">
-        <v>1.024737627807061</v>
+        <v>1.050935765793652</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049384043330922</v>
+        <v>1.053505886789769</v>
       </c>
       <c r="J3">
-        <v>1.028046286804494</v>
+        <v>1.046666997142298</v>
       </c>
       <c r="K3">
-        <v>1.036007977053274</v>
+        <v>1.053557263946151</v>
       </c>
       <c r="L3">
-        <v>1.025039557283825</v>
+        <v>1.049520034068199</v>
       </c>
       <c r="M3">
-        <v>1.035063475527458</v>
+        <v>1.060955896131299</v>
       </c>
       <c r="N3">
-        <v>1.02031518597987</v>
+        <v>1.048153384332622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012035769799536</v>
+        <v>1.03100044752233</v>
       </c>
       <c r="D4">
-        <v>1.029058842168632</v>
+        <v>1.046622742359398</v>
       </c>
       <c r="E4">
-        <v>1.018208173784309</v>
+        <v>1.042810692925198</v>
       </c>
       <c r="F4">
-        <v>1.028924436730974</v>
+        <v>1.054422596066729</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050990518062343</v>
+        <v>1.054640115997856</v>
       </c>
       <c r="J4">
-        <v>1.031136530946562</v>
+        <v>1.049643079615049</v>
       </c>
       <c r="K4">
-        <v>1.03881876004341</v>
+        <v>1.056189241747078</v>
       </c>
       <c r="L4">
-        <v>1.028091698939983</v>
+        <v>1.052418492201068</v>
       </c>
       <c r="M4">
-        <v>1.03868586606474</v>
+        <v>1.063905730430779</v>
       </c>
       <c r="N4">
-        <v>1.022486992594316</v>
+        <v>1.051133693183846</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013802761644602</v>
+        <v>1.032706704200754</v>
       </c>
       <c r="D5">
-        <v>1.03045158447156</v>
+        <v>1.047937348939992</v>
       </c>
       <c r="E5">
-        <v>1.019706398043646</v>
+        <v>1.044239044329731</v>
       </c>
       <c r="F5">
-        <v>1.030658288545349</v>
+        <v>1.055868854458075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051651861817276</v>
+        <v>1.055107390988826</v>
       </c>
       <c r="J5">
-        <v>1.032413967709845</v>
+        <v>1.050875659923908</v>
       </c>
       <c r="K5">
-        <v>1.039980123022879</v>
+        <v>1.057278713879061</v>
       </c>
       <c r="L5">
-        <v>1.029353875270772</v>
+        <v>1.05361935769233</v>
       </c>
       <c r="M5">
-        <v>1.040184568937653</v>
+        <v>1.065127811760052</v>
       </c>
       <c r="N5">
-        <v>1.023384148657155</v>
+        <v>1.052368023898123</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014097824929138</v>
+        <v>1.032991784896153</v>
       </c>
       <c r="D6">
-        <v>1.030684173364847</v>
+        <v>1.04815701705845</v>
       </c>
       <c r="E6">
-        <v>1.019956650000984</v>
+        <v>1.04447776680683</v>
       </c>
       <c r="F6">
-        <v>1.030947908074896</v>
+        <v>1.056110564039967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051762099349959</v>
+        <v>1.055185298036708</v>
       </c>
       <c r="J6">
-        <v>1.032627212780434</v>
+        <v>1.051081550936582</v>
       </c>
       <c r="K6">
-        <v>1.040173958762107</v>
+        <v>1.057460664507532</v>
       </c>
       <c r="L6">
-        <v>1.029564601538598</v>
+        <v>1.053819976307981</v>
       </c>
       <c r="M6">
-        <v>1.04043482638183</v>
+        <v>1.065331970323975</v>
       </c>
       <c r="N6">
-        <v>1.023533875776671</v>
+        <v>1.052574207299651</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012059490058886</v>
+        <v>1.031023341644359</v>
       </c>
       <c r="D7">
-        <v>1.02907753705919</v>
+        <v>1.046640379738797</v>
       </c>
       <c r="E7">
-        <v>1.018228281383124</v>
+        <v>1.042829853154812</v>
       </c>
       <c r="F7">
-        <v>1.02894770601283</v>
+        <v>1.054441996882829</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050999409271498</v>
+        <v>1.054646396843437</v>
       </c>
       <c r="J7">
-        <v>1.031153683999734</v>
+        <v>1.04965962126172</v>
       </c>
       <c r="K7">
-        <v>1.038834356694777</v>
+        <v>1.056203865207879</v>
       </c>
       <c r="L7">
-        <v>1.028108645148183</v>
+        <v>1.052434606518733</v>
       </c>
       <c r="M7">
-        <v>1.038705985105741</v>
+        <v>1.063922129732012</v>
       </c>
       <c r="N7">
-        <v>1.022499041822651</v>
+        <v>1.051150258321553</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003294401201924</v>
+        <v>1.022583550103785</v>
       </c>
       <c r="D8">
-        <v>1.022172406018292</v>
+        <v>1.040141916965059</v>
       </c>
       <c r="E8">
-        <v>1.010806855512015</v>
+        <v>1.035775817521682</v>
       </c>
       <c r="F8">
-        <v>1.020360344313009</v>
+        <v>1.047298779889535</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047690880819327</v>
+        <v>1.052311846134249</v>
       </c>
       <c r="J8">
-        <v>1.024807469584183</v>
+        <v>1.043556335035654</v>
       </c>
       <c r="K8">
-        <v>1.033060185576606</v>
+        <v>1.050804266704155</v>
       </c>
       <c r="L8">
-        <v>1.021842404137785</v>
+        <v>1.046492044566465</v>
       </c>
       <c r="M8">
-        <v>1.03127140746835</v>
+        <v>1.05787402115482</v>
       </c>
       <c r="N8">
-        <v>1.018036852201043</v>
+        <v>1.045038304728989</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9868136824541367</v>
+        <v>1.006823816627467</v>
       </c>
       <c r="D9">
-        <v>1.009209622041747</v>
+        <v>1.02803010467024</v>
       </c>
       <c r="E9">
-        <v>0.9969002085531922</v>
+        <v>1.022653794802871</v>
       </c>
       <c r="F9">
-        <v>1.004271610508745</v>
+        <v>1.034008636844573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041362217140105</v>
+        <v>1.047863823223043</v>
       </c>
       <c r="J9">
-        <v>1.012840833563639</v>
+        <v>1.032137888345096</v>
       </c>
       <c r="K9">
-        <v>1.022155026031294</v>
+        <v>1.040684212441539</v>
       </c>
       <c r="L9">
-        <v>1.010043778714125</v>
+        <v>1.03538971935808</v>
       </c>
       <c r="M9">
-        <v>1.017295761907672</v>
+        <v>1.046573033855406</v>
       </c>
       <c r="N9">
-        <v>1.009603285583708</v>
+        <v>1.033603642534417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9750099666570186</v>
+        <v>0.9956263528357653</v>
       </c>
       <c r="D10">
-        <v>0.9999468654851792</v>
+        <v>1.019447111383934</v>
       </c>
       <c r="E10">
-        <v>0.9869789128015148</v>
+        <v>1.013370635420885</v>
       </c>
       <c r="F10">
-        <v>0.9927929843723111</v>
+        <v>1.024605828752163</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036760428179118</v>
+        <v>1.044647223866596</v>
       </c>
       <c r="J10">
-        <v>1.004251400396678</v>
+        <v>1.024014578564962</v>
       </c>
       <c r="K10">
-        <v>1.014317079358357</v>
+        <v>1.033473900694192</v>
       </c>
       <c r="L10">
-        <v>1.00158731533891</v>
+        <v>1.027502603638085</v>
       </c>
       <c r="M10">
-        <v>1.00729359446258</v>
+        <v>1.038544588629875</v>
       </c>
       <c r="N10">
-        <v>1.003537821431953</v>
+        <v>1.025468796722639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9696739292898472</v>
+        <v>0.9905898997972888</v>
       </c>
       <c r="D11">
-        <v>0.9957664185119937</v>
+        <v>1.015593725054223</v>
       </c>
       <c r="E11">
-        <v>0.9825047088901262</v>
+        <v>1.009206286725039</v>
       </c>
       <c r="F11">
-        <v>0.987615723570584</v>
+        <v>1.020387837780073</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034664769872641</v>
+        <v>1.043188087799817</v>
       </c>
       <c r="J11">
-        <v>1.000365087288575</v>
+        <v>1.020359458262091</v>
       </c>
       <c r="K11">
-        <v>1.010768618058656</v>
+        <v>1.030227438696824</v>
       </c>
       <c r="L11">
-        <v>0.9977642787439887</v>
+        <v>1.023956649571985</v>
       </c>
       <c r="M11">
-        <v>1.002775030272427</v>
+        <v>1.034935245967743</v>
       </c>
       <c r="N11">
-        <v>1.000790949817784</v>
+        <v>1.021808485729689</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9676550386622322</v>
+        <v>0.9886886101875998</v>
       </c>
       <c r="D12">
-        <v>0.9941859594026911</v>
+        <v>1.014140283546958</v>
       </c>
       <c r="E12">
-        <v>0.9808136809262356</v>
+        <v>1.007636030586468</v>
       </c>
       <c r="F12">
-        <v>0.9856588048021273</v>
+        <v>1.01879737827529</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033869670616975</v>
+        <v>1.042635491323063</v>
       </c>
       <c r="J12">
-        <v>0.9988943052373874</v>
+        <v>1.018979524923142</v>
       </c>
       <c r="K12">
-        <v>1.009425401419324</v>
+        <v>1.029001501224784</v>
       </c>
       <c r="L12">
-        <v>0.9963179288641578</v>
+        <v>1.022618384086199</v>
       </c>
       <c r="M12">
-        <v>1.001066015465371</v>
+        <v>1.033573098610499</v>
       </c>
       <c r="N12">
-        <v>0.9997510399030559</v>
+        <v>1.020426592727118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9680898182043128</v>
+        <v>0.9890978643321277</v>
       </c>
       <c r="D13">
-        <v>0.9945262624555541</v>
+        <v>1.014453079525399</v>
       </c>
       <c r="E13">
-        <v>0.9811777700068293</v>
+        <v>1.007973945361875</v>
       </c>
       <c r="F13">
-        <v>0.9860801505249539</v>
+        <v>1.019139639371071</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034040997631275</v>
+        <v>1.042754516266159</v>
       </c>
       <c r="J13">
-        <v>0.9992110624831499</v>
+        <v>1.019276559694981</v>
       </c>
       <c r="K13">
-        <v>1.009714698168113</v>
+        <v>1.029265400257347</v>
       </c>
       <c r="L13">
-        <v>0.9966294020457385</v>
+        <v>1.022906428899637</v>
       </c>
       <c r="M13">
-        <v>1.001434032945326</v>
+        <v>1.033866281511331</v>
       </c>
       <c r="N13">
-        <v>0.9999750170725447</v>
+        <v>1.020724049322404</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9695078178644859</v>
+        <v>0.9904333755292336</v>
       </c>
       <c r="D14">
-        <v>0.9956363549199128</v>
+        <v>1.015474043986603</v>
       </c>
       <c r="E14">
-        <v>0.9823655363187804</v>
+        <v>1.009076977296266</v>
       </c>
       <c r="F14">
-        <v>0.9874546718344632</v>
+        <v>1.020256864024844</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034599394386382</v>
+        <v>1.043142630370768</v>
       </c>
       <c r="J14">
-        <v>1.000244080806361</v>
+        <v>1.02024585631884</v>
       </c>
       <c r="K14">
-        <v>1.010658112646051</v>
+        <v>1.030126519943358</v>
       </c>
       <c r="L14">
-        <v>0.9976452724403028</v>
+        <v>1.023846468571105</v>
       </c>
       <c r="M14">
-        <v>1.002634402357936</v>
+        <v>1.03482309779077</v>
       </c>
       <c r="N14">
-        <v>1.000705399672463</v>
+        <v>1.021694722458648</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9703765137100149</v>
+        <v>0.9912521099370352</v>
       </c>
       <c r="D15">
-        <v>0.9963165855362579</v>
+        <v>1.01610011318711</v>
       </c>
       <c r="E15">
-        <v>0.9830934264513013</v>
+        <v>1.009753433035129</v>
       </c>
       <c r="F15">
-        <v>0.9882969854914858</v>
+        <v>1.020942027423432</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034941192773997</v>
+        <v>1.043380334177973</v>
       </c>
       <c r="J15">
-        <v>1.000876880579638</v>
+        <v>1.020840072493047</v>
       </c>
       <c r="K15">
-        <v>1.011235985573302</v>
+        <v>1.030654382885212</v>
       </c>
       <c r="L15">
-        <v>0.9982676321626168</v>
+        <v>1.024422809454477</v>
       </c>
       <c r="M15">
-        <v>1.003369854252927</v>
+        <v>1.035409730486734</v>
       </c>
       <c r="N15">
-        <v>1.001152767488696</v>
+        <v>1.02228978248798</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753591103025325</v>
+        <v>0.9959564564992622</v>
       </c>
       <c r="D16">
-        <v>1.000220554834589</v>
+        <v>1.019699834609503</v>
       </c>
       <c r="E16">
-        <v>0.9872719031835573</v>
+        <v>1.013643820580368</v>
       </c>
       <c r="F16">
-        <v>0.9931319937596074</v>
+        <v>1.024882535094841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036897240051823</v>
+        <v>1.044742611064658</v>
       </c>
       <c r="J16">
-        <v>1.004505626362355</v>
+        <v>1.024254125528876</v>
       </c>
       <c r="K16">
-        <v>1.014549162198076</v>
+        <v>1.033686623665245</v>
       </c>
       <c r="L16">
-        <v>1.00183746787689</v>
+        <v>1.027735057695868</v>
       </c>
       <c r="M16">
-        <v>1.007589323333075</v>
+        <v>1.038781202784251</v>
       </c>
       <c r="N16">
-        <v>1.003717459948456</v>
+        <v>1.025708683870718</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9784222951118844</v>
+        <v>0.9988555204619018</v>
       </c>
       <c r="D17">
-        <v>1.00262254700988</v>
+        <v>1.02192014569465</v>
       </c>
       <c r="E17">
-        <v>0.9898436747570197</v>
+        <v>1.016044280440504</v>
       </c>
       <c r="F17">
-        <v>0.9961076138200619</v>
+        <v>1.027313940989352</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038095826024261</v>
+        <v>1.04557893988755</v>
       </c>
       <c r="J17">
-        <v>1.006735693097268</v>
+        <v>1.026357750486023</v>
       </c>
       <c r="K17">
-        <v>1.016584749200602</v>
+        <v>1.035554449685816</v>
       </c>
       <c r="L17">
-        <v>1.004032155831754</v>
+        <v>1.029776724281677</v>
       </c>
       <c r="M17">
-        <v>1.010184236610179</v>
+        <v>1.040859427139412</v>
       </c>
       <c r="N17">
-        <v>1.005292963745133</v>
+        <v>1.027815296216592</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801875194535471</v>
+        <v>1.000528535846051</v>
       </c>
       <c r="D18">
-        <v>1.004007383050513</v>
+        <v>1.023202120568392</v>
       </c>
       <c r="E18">
-        <v>0.9913267218911948</v>
+        <v>1.017430592026299</v>
       </c>
       <c r="F18">
-        <v>0.9978234792749937</v>
+        <v>1.028718126121665</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038785085756204</v>
+        <v>1.046060403563982</v>
       </c>
       <c r="J18">
-        <v>1.008020494456619</v>
+        <v>1.027571590592994</v>
       </c>
       <c r="K18">
-        <v>1.017757300520555</v>
+        <v>1.03663202321192</v>
       </c>
       <c r="L18">
-        <v>1.005296865929614</v>
+        <v>1.030955084060108</v>
       </c>
       <c r="M18">
-        <v>1.011679888361268</v>
+        <v>1.042058899442738</v>
       </c>
       <c r="N18">
-        <v>1.006200413529138</v>
+        <v>1.029030860115745</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.980785858762099</v>
+        <v>1.001096010499827</v>
       </c>
       <c r="D19">
-        <v>1.004476889480414</v>
+        <v>1.023637064383555</v>
       </c>
       <c r="E19">
-        <v>0.9918295815491553</v>
+        <v>1.017900990270926</v>
       </c>
       <c r="F19">
-        <v>0.9984052714444006</v>
+        <v>1.029194588894785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03901846793113</v>
+        <v>1.046223511163134</v>
       </c>
       <c r="J19">
-        <v>1.008455932425345</v>
+        <v>1.027983290231788</v>
       </c>
       <c r="K19">
-        <v>1.018154659701556</v>
+        <v>1.036997469317699</v>
       </c>
       <c r="L19">
-        <v>1.005725543631673</v>
+        <v>1.031354795221649</v>
       </c>
       <c r="M19">
-        <v>1.012186897300792</v>
+        <v>1.042465773857114</v>
       </c>
       <c r="N19">
-        <v>1.00650791994336</v>
+        <v>1.029443144415249</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9780958869730784</v>
+        <v>0.9985463518176619</v>
       </c>
       <c r="D20">
-        <v>1.002366527056282</v>
+        <v>1.021683292536994</v>
       </c>
       <c r="E20">
-        <v>0.989569524832091</v>
+        <v>1.015788176632156</v>
       </c>
       <c r="F20">
-        <v>0.9957904210820703</v>
+        <v>1.027054535268142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037968256649131</v>
+        <v>1.045489871255333</v>
       </c>
       <c r="J20">
-        <v>1.006498093370365</v>
+        <v>1.026133424398047</v>
       </c>
       <c r="K20">
-        <v>1.016367891188266</v>
+        <v>1.035355289755453</v>
       </c>
       <c r="L20">
-        <v>1.003798295093816</v>
+        <v>1.029558977013141</v>
       </c>
       <c r="M20">
-        <v>1.009907696944403</v>
+        <v>1.040637779445129</v>
       </c>
       <c r="N20">
-        <v>1.00512512839607</v>
+        <v>1.027590651559841</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9690912959298977</v>
+        <v>0.9900409631816465</v>
       </c>
       <c r="D21">
-        <v>0.995310242536569</v>
+        <v>1.015174019392372</v>
       </c>
       <c r="E21">
-        <v>0.9820165924724535</v>
+        <v>1.008752823220068</v>
       </c>
       <c r="F21">
-        <v>0.9870508679739771</v>
+        <v>1.019928538246909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034435431197994</v>
+        <v>1.043028638789886</v>
       </c>
       <c r="J21">
-        <v>0.9999406528801097</v>
+        <v>1.019961050565947</v>
       </c>
       <c r="K21">
-        <v>1.010381011871376</v>
+        <v>1.029873507097339</v>
       </c>
       <c r="L21">
-        <v>0.9973468678930576</v>
+        <v>1.023570246664908</v>
       </c>
       <c r="M21">
-        <v>1.002281789802024</v>
+        <v>1.034541944939589</v>
       </c>
       <c r="N21">
-        <v>1.000490874185506</v>
+        <v>1.021409512248919</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9632147550991664</v>
+        <v>0.9845153409281195</v>
       </c>
       <c r="D22">
-        <v>0.9907123967157141</v>
+        <v>1.010952494626269</v>
       </c>
       <c r="E22">
-        <v>0.9770979739678527</v>
+        <v>1.004192874498622</v>
       </c>
       <c r="F22">
-        <v>0.981358471902984</v>
+        <v>1.015309987533328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032117004317472</v>
+        <v>1.041419417654804</v>
       </c>
       <c r="J22">
-        <v>0.9956589139369754</v>
+        <v>1.015950544043462</v>
       </c>
       <c r="K22">
-        <v>1.006470115761591</v>
+        <v>1.026310058730711</v>
       </c>
       <c r="L22">
-        <v>0.9931371987328296</v>
+        <v>1.019681724831722</v>
       </c>
       <c r="M22">
-        <v>0.9973084926825198</v>
+        <v>1.030584131847789</v>
       </c>
       <c r="N22">
-        <v>0.9974628572502522</v>
+        <v>1.01739331034716</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9663515218178039</v>
+        <v>0.9874622805779988</v>
       </c>
       <c r="D23">
-        <v>0.9931658858416699</v>
+        <v>1.01320318502788</v>
       </c>
       <c r="E23">
-        <v>0.9797223768998541</v>
+        <v>1.006623746358311</v>
       </c>
       <c r="F23">
-        <v>0.9843958526487731</v>
+        <v>1.017772078881045</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03335569821531</v>
+        <v>1.042278582130954</v>
       </c>
       <c r="J23">
-        <v>0.9979445831630227</v>
+        <v>1.018089453570933</v>
       </c>
       <c r="K23">
-        <v>1.008557972318023</v>
+        <v>1.02821068279077</v>
       </c>
       <c r="L23">
-        <v>0.9953841223666583</v>
+        <v>1.021755319495252</v>
       </c>
       <c r="M23">
-        <v>0.9999627547581238</v>
+        <v>1.032694646433022</v>
       </c>
       <c r="N23">
-        <v>0.9990794479366447</v>
+        <v>1.019535257371497</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782434429129006</v>
+        <v>0.9986861071501324</v>
       </c>
       <c r="D24">
-        <v>1.002482261371619</v>
+        <v>1.02179035663631</v>
       </c>
       <c r="E24">
-        <v>0.9896934538180878</v>
+        <v>1.01590394155154</v>
       </c>
       <c r="F24">
-        <v>0.9959338076971272</v>
+        <v>1.027171792725853</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038025930125345</v>
+        <v>1.045530137120619</v>
       </c>
       <c r="J24">
-        <v>1.006605503618775</v>
+        <v>1.026234828280015</v>
       </c>
       <c r="K24">
-        <v>1.016465925496335</v>
+        <v>1.035445318221274</v>
       </c>
       <c r="L24">
-        <v>1.003904014176516</v>
+        <v>1.029657406179664</v>
       </c>
       <c r="M24">
-        <v>1.0100327085048</v>
+        <v>1.04073797169771</v>
       </c>
       <c r="N24">
-        <v>1.005201001439488</v>
+        <v>1.027692199446953</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9912086599307657</v>
+        <v>1.011012429127839</v>
       </c>
       <c r="D25">
-        <v>1.012663370202462</v>
+        <v>1.031245846621158</v>
       </c>
       <c r="E25">
-        <v>1.000602622683991</v>
+        <v>1.026134953822913</v>
       </c>
       <c r="F25">
-        <v>1.008554885051002</v>
+        <v>1.037534579452781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043061996060692</v>
+        <v>1.049055933996548</v>
       </c>
       <c r="J25">
-        <v>1.016035553660418</v>
+        <v>1.035174780974631</v>
       </c>
       <c r="K25">
-        <v>1.02506823352319</v>
+        <v>1.043377729110792</v>
       </c>
       <c r="L25">
-        <v>1.013191590908949</v>
+        <v>1.038340666460327</v>
       </c>
       <c r="M25">
-        <v>1.021021833315721</v>
+        <v>1.049576879002812</v>
       </c>
       <c r="N25">
-        <v>1.011856923855018</v>
+        <v>1.036644847899822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02035371662386</v>
+        <v>1.012296006624474</v>
       </c>
       <c r="D2">
-        <v>1.038426272979611</v>
+        <v>1.032356706387649</v>
       </c>
       <c r="E2">
-        <v>1.033915219284129</v>
+        <v>1.027307543697486</v>
       </c>
       <c r="F2">
-        <v>1.04541448539804</v>
+        <v>1.039264028990301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051689045666065</v>
+        <v>1.049209996672408</v>
       </c>
       <c r="J2">
-        <v>1.041942238711887</v>
+        <v>1.034115064622657</v>
       </c>
       <c r="K2">
-        <v>1.049375019197746</v>
+        <v>1.043382940103331</v>
       </c>
       <c r="L2">
-        <v>1.044921447642855</v>
+        <v>1.038399111342809</v>
       </c>
       <c r="M2">
-        <v>1.05627540499698</v>
+        <v>1.050202168673433</v>
       </c>
       <c r="N2">
-        <v>1.043421916203303</v>
+        <v>1.014640232982396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026883303317092</v>
+        <v>1.017917489178276</v>
       </c>
       <c r="D3">
-        <v>1.043451733767997</v>
+        <v>1.036637096638933</v>
       </c>
       <c r="E3">
-        <v>1.039367254966131</v>
+        <v>1.03195895075812</v>
       </c>
       <c r="F3">
-        <v>1.050935765793652</v>
+        <v>1.044030813897846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053505886789769</v>
+        <v>1.05067872263443</v>
       </c>
       <c r="J3">
-        <v>1.046666997142298</v>
+        <v>1.037931343299201</v>
       </c>
       <c r="K3">
-        <v>1.053557263946151</v>
+        <v>1.046821714813756</v>
       </c>
       <c r="L3">
-        <v>1.049520034068199</v>
+        <v>1.042198610484604</v>
       </c>
       <c r="M3">
-        <v>1.060955896131299</v>
+        <v>1.054129682271802</v>
       </c>
       <c r="N3">
-        <v>1.048153384332622</v>
+        <v>1.015965115085846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03100044752233</v>
+        <v>1.021471622686163</v>
       </c>
       <c r="D4">
-        <v>1.046622742359398</v>
+        <v>1.039345699468731</v>
       </c>
       <c r="E4">
-        <v>1.042810692925198</v>
+        <v>1.034905594498939</v>
       </c>
       <c r="F4">
-        <v>1.054422596066729</v>
+        <v>1.04704992409426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054640115997856</v>
+        <v>1.051596574540788</v>
       </c>
       <c r="J4">
-        <v>1.049643079615049</v>
+        <v>1.040341585103795</v>
       </c>
       <c r="K4">
-        <v>1.056189241747078</v>
+        <v>1.048991361400531</v>
       </c>
       <c r="L4">
-        <v>1.052418492201068</v>
+        <v>1.044600229973989</v>
       </c>
       <c r="M4">
-        <v>1.063905730430779</v>
+        <v>1.05661181834934</v>
       </c>
       <c r="N4">
-        <v>1.051133693183846</v>
+        <v>1.01680109637956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032706704200754</v>
+        <v>1.022946676440402</v>
       </c>
       <c r="D5">
-        <v>1.047937348939992</v>
+        <v>1.040470328124951</v>
       </c>
       <c r="E5">
-        <v>1.044239044329731</v>
+        <v>1.036129860308074</v>
       </c>
       <c r="F5">
-        <v>1.055868854458075</v>
+        <v>1.04830414096386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055107390988826</v>
+        <v>1.051974880287985</v>
       </c>
       <c r="J5">
-        <v>1.050875659923908</v>
+        <v>1.041341231287325</v>
       </c>
       <c r="K5">
-        <v>1.057278713879061</v>
+        <v>1.049890680162606</v>
       </c>
       <c r="L5">
-        <v>1.05361935769233</v>
+        <v>1.045596767616567</v>
       </c>
       <c r="M5">
-        <v>1.065127811760052</v>
+        <v>1.057641661365327</v>
       </c>
       <c r="N5">
-        <v>1.052368023898123</v>
+        <v>1.01714762422099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032991784896153</v>
+        <v>1.023193247905714</v>
       </c>
       <c r="D6">
-        <v>1.04815701705845</v>
+        <v>1.040658348912197</v>
       </c>
       <c r="E6">
-        <v>1.04447776680683</v>
+        <v>1.036334586521237</v>
       </c>
       <c r="F6">
-        <v>1.056110564039967</v>
+        <v>1.048513866260248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055185298036708</v>
+        <v>1.052037962484778</v>
       </c>
       <c r="J6">
-        <v>1.051081550936582</v>
+        <v>1.041508292741336</v>
       </c>
       <c r="K6">
-        <v>1.057460664507532</v>
+        <v>1.050040942511609</v>
       </c>
       <c r="L6">
-        <v>1.053819976307981</v>
+        <v>1.045763336885714</v>
       </c>
       <c r="M6">
-        <v>1.065331970323975</v>
+        <v>1.057813791174195</v>
       </c>
       <c r="N6">
-        <v>1.052574207299651</v>
+        <v>1.01720552442804</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031023341644359</v>
+        <v>1.021491406407084</v>
       </c>
       <c r="D7">
-        <v>1.046640379738797</v>
+        <v>1.039360781373438</v>
       </c>
       <c r="E7">
-        <v>1.042829853154812</v>
+        <v>1.034922009404978</v>
       </c>
       <c r="F7">
-        <v>1.054441996882829</v>
+        <v>1.047066741213084</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054646396843437</v>
+        <v>1.051601658895712</v>
       </c>
       <c r="J7">
-        <v>1.04965962126172</v>
+        <v>1.040354995248423</v>
       </c>
       <c r="K7">
-        <v>1.056203865207879</v>
+        <v>1.049003427825775</v>
       </c>
       <c r="L7">
-        <v>1.052434606518733</v>
+        <v>1.044613596577405</v>
       </c>
       <c r="M7">
-        <v>1.063922129732012</v>
+        <v>1.056625632103317</v>
       </c>
       <c r="N7">
-        <v>1.051150258321553</v>
+        <v>1.01680574579546</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022583550103785</v>
+        <v>1.014213596622935</v>
       </c>
       <c r="D8">
-        <v>1.040141916965059</v>
+        <v>1.03381628136196</v>
       </c>
       <c r="E8">
-        <v>1.035775817521682</v>
+        <v>1.028892958002979</v>
       </c>
       <c r="F8">
-        <v>1.047298779889535</v>
+        <v>1.04088889593696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052311846134249</v>
+        <v>1.04971323066154</v>
       </c>
       <c r="J8">
-        <v>1.043556335035654</v>
+        <v>1.035417375912083</v>
       </c>
       <c r="K8">
-        <v>1.050804266704155</v>
+        <v>1.044556873257416</v>
       </c>
       <c r="L8">
-        <v>1.046492044566465</v>
+        <v>1.039695277330423</v>
       </c>
       <c r="M8">
-        <v>1.05787402115482</v>
+        <v>1.051542084332147</v>
       </c>
       <c r="N8">
-        <v>1.045038304728989</v>
+        <v>1.015092507722614</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006823816627467</v>
+        <v>1.000709934655883</v>
       </c>
       <c r="D9">
-        <v>1.02803010467024</v>
+        <v>1.023551371989805</v>
       </c>
       <c r="E9">
-        <v>1.022653794802871</v>
+        <v>1.017756182465735</v>
       </c>
       <c r="F9">
-        <v>1.034008636844573</v>
+        <v>1.029472645801543</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047863823223043</v>
+        <v>1.046125763669378</v>
       </c>
       <c r="J9">
-        <v>1.032137888345096</v>
+        <v>1.026237648183948</v>
       </c>
       <c r="K9">
-        <v>1.040684212441539</v>
+        <v>1.036273560968351</v>
       </c>
       <c r="L9">
-        <v>1.03538971935808</v>
+        <v>1.030567600110291</v>
       </c>
       <c r="M9">
-        <v>1.046573033855406</v>
+        <v>1.042104986108836</v>
       </c>
       <c r="N9">
-        <v>1.033603642534417</v>
+        <v>1.011901612930481</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9956263528357653</v>
+        <v>0.9911887868499185</v>
       </c>
       <c r="D10">
-        <v>1.019447111383934</v>
+        <v>1.016334863727502</v>
       </c>
       <c r="E10">
-        <v>1.013370635420885</v>
+        <v>1.009942584599433</v>
       </c>
       <c r="F10">
-        <v>1.024605828752163</v>
+        <v>1.021460371046579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044647223866596</v>
+        <v>1.043543077424021</v>
       </c>
       <c r="J10">
-        <v>1.024014578564962</v>
+        <v>1.019756408879042</v>
       </c>
       <c r="K10">
-        <v>1.033473900694192</v>
+        <v>1.030415320256879</v>
       </c>
       <c r="L10">
-        <v>1.027502603638085</v>
+        <v>1.024134613456533</v>
       </c>
       <c r="M10">
-        <v>1.038544588629875</v>
+        <v>1.035452669002974</v>
       </c>
       <c r="N10">
-        <v>1.025468796722639</v>
+        <v>1.00964547300806</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9905898997972888</v>
+        <v>0.9869275807209489</v>
       </c>
       <c r="D11">
-        <v>1.015593725054223</v>
+        <v>1.013111482686906</v>
       </c>
       <c r="E11">
-        <v>1.009206286725039</v>
+        <v>1.006455974084797</v>
       </c>
       <c r="F11">
-        <v>1.020387837780073</v>
+        <v>1.017884622041947</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043188087799817</v>
+        <v>1.042375381168876</v>
       </c>
       <c r="J11">
-        <v>1.020359458262091</v>
+        <v>1.016854484248343</v>
       </c>
       <c r="K11">
-        <v>1.030227438696824</v>
+        <v>1.027790300321515</v>
       </c>
       <c r="L11">
-        <v>1.023956649571985</v>
+        <v>1.021257158605205</v>
       </c>
       <c r="M11">
-        <v>1.034935245967743</v>
+        <v>1.03247696226209</v>
       </c>
       <c r="N11">
-        <v>1.021808485729689</v>
+        <v>1.008634684676681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9886886101875998</v>
+        <v>0.985322521995986</v>
       </c>
       <c r="D12">
-        <v>1.014140283546958</v>
+        <v>1.011898424372777</v>
       </c>
       <c r="E12">
-        <v>1.007636030586468</v>
+        <v>1.005144349664962</v>
       </c>
       <c r="F12">
-        <v>1.01879737827529</v>
+        <v>1.016539404203034</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042635491323063</v>
+        <v>1.041933848176545</v>
       </c>
       <c r="J12">
-        <v>1.018979524923142</v>
+        <v>1.015761315855896</v>
       </c>
       <c r="K12">
-        <v>1.029001501224784</v>
+        <v>1.026801165254835</v>
       </c>
       <c r="L12">
-        <v>1.022618384086199</v>
+        <v>1.020173651275968</v>
       </c>
       <c r="M12">
-        <v>1.033573098610499</v>
+        <v>1.031356450158514</v>
       </c>
       <c r="N12">
-        <v>1.020426592727118</v>
+        <v>1.008253836433475</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9890978643321277</v>
+        <v>0.9856678444556549</v>
       </c>
       <c r="D13">
-        <v>1.014453079525399</v>
+        <v>1.012159358248006</v>
       </c>
       <c r="E13">
-        <v>1.007973945361875</v>
+        <v>1.005426463580257</v>
       </c>
       <c r="F13">
-        <v>1.019139639371071</v>
+        <v>1.016828746166359</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042754516266159</v>
+        <v>1.04202891787757</v>
       </c>
       <c r="J13">
-        <v>1.019276559694981</v>
+        <v>1.015996510521006</v>
       </c>
       <c r="K13">
-        <v>1.029265400257347</v>
+        <v>1.027013989281094</v>
       </c>
       <c r="L13">
-        <v>1.022906428899637</v>
+        <v>1.020406747134766</v>
       </c>
       <c r="M13">
-        <v>1.033866281511331</v>
+        <v>1.031597507011021</v>
       </c>
       <c r="N13">
-        <v>1.020724049322404</v>
+        <v>1.008335779128143</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9904333755292336</v>
+        <v>0.9867953689579555</v>
       </c>
       <c r="D14">
-        <v>1.015474043986603</v>
+        <v>1.01301153794671</v>
       </c>
       <c r="E14">
-        <v>1.009076977296266</v>
+        <v>1.00634789850584</v>
       </c>
       <c r="F14">
-        <v>1.020256864024844</v>
+        <v>1.017773779578819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043142630370768</v>
+        <v>1.042339045320316</v>
       </c>
       <c r="J14">
-        <v>1.02024585631884</v>
+        <v>1.016764439577627</v>
       </c>
       <c r="K14">
-        <v>1.030126519943358</v>
+        <v>1.027708830389508</v>
       </c>
       <c r="L14">
-        <v>1.023846468571105</v>
+        <v>1.021167900641281</v>
       </c>
       <c r="M14">
-        <v>1.03482309779077</v>
+        <v>1.032384655969487</v>
       </c>
       <c r="N14">
-        <v>1.021694722458648</v>
+        <v>1.008603315608661</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9912521099370352</v>
+        <v>0.9874870791275566</v>
       </c>
       <c r="D15">
-        <v>1.01610011318711</v>
+        <v>1.013534477335988</v>
       </c>
       <c r="E15">
-        <v>1.009753433035129</v>
+        <v>1.006913400781302</v>
       </c>
       <c r="F15">
-        <v>1.020942027423432</v>
+        <v>1.018353757104244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043380334177973</v>
+        <v>1.042529079743824</v>
       </c>
       <c r="J15">
-        <v>1.020840072493047</v>
+        <v>1.017235534583383</v>
       </c>
       <c r="K15">
-        <v>1.030654382885212</v>
+        <v>1.028135052997844</v>
       </c>
       <c r="L15">
-        <v>1.024422809454477</v>
+        <v>1.021634897886325</v>
       </c>
       <c r="M15">
-        <v>1.035409730486734</v>
+        <v>1.032867601816892</v>
       </c>
       <c r="N15">
-        <v>1.02228978248798</v>
+        <v>1.008767428893045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9959564564992622</v>
+        <v>0.991468550394342</v>
       </c>
       <c r="D16">
-        <v>1.019699834609503</v>
+        <v>1.01654663343325</v>
       </c>
       <c r="E16">
-        <v>1.013643820580368</v>
+        <v>1.010171718007573</v>
       </c>
       <c r="F16">
-        <v>1.024882535094841</v>
+        <v>1.021695353399051</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044742611064658</v>
+        <v>1.043619501551908</v>
       </c>
       <c r="J16">
-        <v>1.024254125528876</v>
+        <v>1.019946911507091</v>
       </c>
       <c r="K16">
-        <v>1.033686623665245</v>
+        <v>1.030587604898953</v>
       </c>
       <c r="L16">
-        <v>1.027735057695868</v>
+        <v>1.024323570324668</v>
       </c>
       <c r="M16">
-        <v>1.038781202784251</v>
+        <v>1.035648076000419</v>
       </c>
       <c r="N16">
-        <v>1.025708683870718</v>
+        <v>1.009711816468277</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9988555204619018</v>
+        <v>0.9939279609866235</v>
       </c>
       <c r="D17">
-        <v>1.02192014569465</v>
+        <v>1.018409046610139</v>
       </c>
       <c r="E17">
-        <v>1.016044280440504</v>
+        <v>1.012187228053468</v>
       </c>
       <c r="F17">
-        <v>1.027313940989352</v>
+        <v>1.023762258434062</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04557893988755</v>
+        <v>1.044290016518552</v>
       </c>
       <c r="J17">
-        <v>1.026357750486023</v>
+        <v>1.021621495213766</v>
       </c>
       <c r="K17">
-        <v>1.035554449685816</v>
+        <v>1.032101818180706</v>
       </c>
       <c r="L17">
-        <v>1.029776724281677</v>
+        <v>1.025984892867737</v>
       </c>
       <c r="M17">
-        <v>1.040859427139412</v>
+        <v>1.037366093559128</v>
       </c>
       <c r="N17">
-        <v>1.027815296216592</v>
+        <v>1.010294929631945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000528535846051</v>
+        <v>0.9953492362918014</v>
       </c>
       <c r="D18">
-        <v>1.023202120568392</v>
+        <v>1.019485916232816</v>
       </c>
       <c r="E18">
-        <v>1.017430592026299</v>
+        <v>1.013352950656932</v>
       </c>
       <c r="F18">
-        <v>1.028718126121665</v>
+        <v>1.024957659927863</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046060403563982</v>
+        <v>1.044676379855585</v>
       </c>
       <c r="J18">
-        <v>1.027571590592994</v>
+        <v>1.0225891026229</v>
       </c>
       <c r="K18">
-        <v>1.03663202321192</v>
+        <v>1.032976565723019</v>
       </c>
       <c r="L18">
-        <v>1.030955084060108</v>
+        <v>1.026945107779823</v>
       </c>
       <c r="M18">
-        <v>1.042058899442738</v>
+        <v>1.038359062396524</v>
       </c>
       <c r="N18">
-        <v>1.029030860115745</v>
+        <v>1.01063180442568</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001096010499827</v>
+        <v>0.9958316477510961</v>
       </c>
       <c r="D19">
-        <v>1.023637064383555</v>
+        <v>1.019851526240604</v>
       </c>
       <c r="E19">
-        <v>1.017900990270926</v>
+        <v>1.013748784129677</v>
       </c>
       <c r="F19">
-        <v>1.029194588894785</v>
+        <v>1.02536356290544</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046223511163134</v>
+        <v>1.044807327365634</v>
       </c>
       <c r="J19">
-        <v>1.027983290231788</v>
+        <v>1.022917506450243</v>
       </c>
       <c r="K19">
-        <v>1.036997469317699</v>
+        <v>1.033273419279844</v>
       </c>
       <c r="L19">
-        <v>1.031354795221649</v>
+        <v>1.027271048059181</v>
       </c>
       <c r="M19">
-        <v>1.042465773857114</v>
+        <v>1.038696117928284</v>
       </c>
       <c r="N19">
-        <v>1.029443144415249</v>
+        <v>1.010746128514447</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9985463518176619</v>
+        <v>0.9936654708423995</v>
       </c>
       <c r="D20">
-        <v>1.021683292536994</v>
+        <v>1.018210210724214</v>
       </c>
       <c r="E20">
-        <v>1.015788176632156</v>
+        <v>1.011972013040628</v>
       </c>
       <c r="F20">
-        <v>1.027054535268142</v>
+        <v>1.023541560259552</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045489871255333</v>
+        <v>1.044218569192364</v>
       </c>
       <c r="J20">
-        <v>1.026133424398047</v>
+        <v>1.02144278091209</v>
       </c>
       <c r="K20">
-        <v>1.035355289755453</v>
+        <v>1.031940238886681</v>
       </c>
       <c r="L20">
-        <v>1.029558977013141</v>
+        <v>1.025807565696584</v>
       </c>
       <c r="M20">
-        <v>1.040637779445129</v>
+        <v>1.037182716282441</v>
       </c>
       <c r="N20">
-        <v>1.027590651559841</v>
+        <v>1.01023270492465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9900409631816465</v>
+        <v>0.9864639678093524</v>
       </c>
       <c r="D21">
-        <v>1.015174019392372</v>
+        <v>1.012761035026683</v>
       </c>
       <c r="E21">
-        <v>1.008752823220068</v>
+        <v>1.006077024220162</v>
       </c>
       <c r="F21">
-        <v>1.019928538246909</v>
+        <v>1.017495969606155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043028638789886</v>
+        <v>1.042247939019426</v>
       </c>
       <c r="J21">
-        <v>1.019961050565947</v>
+        <v>1.016538732741406</v>
       </c>
       <c r="K21">
-        <v>1.029873507097339</v>
+        <v>1.027504612699981</v>
       </c>
       <c r="L21">
-        <v>1.023570246664908</v>
+        <v>1.020944172952148</v>
       </c>
       <c r="M21">
-        <v>1.034541944939589</v>
+        <v>1.032153287476668</v>
       </c>
       <c r="N21">
-        <v>1.021409512248919</v>
+        <v>1.008524684366431</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9845153409281195</v>
+        <v>0.9818065074556076</v>
       </c>
       <c r="D22">
-        <v>1.010952494626269</v>
+        <v>1.009243264801363</v>
       </c>
       <c r="E22">
-        <v>1.004192874498622</v>
+        <v>1.002274328321298</v>
       </c>
       <c r="F22">
-        <v>1.015309987533328</v>
+        <v>1.013595778758061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041419417654804</v>
+        <v>1.040963591995619</v>
       </c>
       <c r="J22">
-        <v>1.015950544043462</v>
+        <v>1.013366533954727</v>
       </c>
       <c r="K22">
-        <v>1.026310058730711</v>
+        <v>1.024633808120629</v>
       </c>
       <c r="L22">
-        <v>1.019681724831722</v>
+        <v>1.01780086456332</v>
       </c>
       <c r="M22">
-        <v>1.030584131847789</v>
+        <v>1.028902627870143</v>
       </c>
       <c r="N22">
-        <v>1.01739331034716</v>
+        <v>1.007419388655884</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9874622805779988</v>
+        <v>0.9842883185486839</v>
       </c>
       <c r="D23">
-        <v>1.01320318502788</v>
+        <v>1.011117124905042</v>
       </c>
       <c r="E23">
-        <v>1.006623746358311</v>
+        <v>1.004299702499973</v>
       </c>
       <c r="F23">
-        <v>1.017772078881045</v>
+        <v>1.01567310844144</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042278582130954</v>
+        <v>1.041648881644266</v>
       </c>
       <c r="J23">
-        <v>1.018089453570933</v>
+        <v>1.015056923891063</v>
       </c>
       <c r="K23">
-        <v>1.02821068279077</v>
+        <v>1.026163733357575</v>
       </c>
       <c r="L23">
-        <v>1.021755319495252</v>
+        <v>1.019475611088438</v>
       </c>
       <c r="M23">
-        <v>1.032694646433022</v>
+        <v>1.030634569555309</v>
       </c>
       <c r="N23">
-        <v>1.019535257371497</v>
+        <v>1.008008413052473</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9986861071501324</v>
+        <v>0.9937841197017654</v>
       </c>
       <c r="D24">
-        <v>1.02179035663631</v>
+        <v>1.018300085219523</v>
       </c>
       <c r="E24">
-        <v>1.01590394155154</v>
+        <v>1.012069289929717</v>
       </c>
       <c r="F24">
-        <v>1.027171792725853</v>
+        <v>1.023641315676017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045530137120619</v>
+        <v>1.044250867773401</v>
       </c>
       <c r="J24">
-        <v>1.026234828280015</v>
+        <v>1.021523562417877</v>
       </c>
       <c r="K24">
-        <v>1.035445318221274</v>
+        <v>1.032013275721875</v>
       </c>
       <c r="L24">
-        <v>1.029657406179664</v>
+        <v>1.025887719361935</v>
       </c>
       <c r="M24">
-        <v>1.04073797169771</v>
+        <v>1.037265604703276</v>
       </c>
       <c r="N24">
-        <v>1.027692199446953</v>
+        <v>1.010260831597537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011012429127839</v>
+        <v>1.004287527103176</v>
       </c>
       <c r="D25">
-        <v>1.031245846621158</v>
+        <v>1.026267716703707</v>
       </c>
       <c r="E25">
-        <v>1.026134953822913</v>
+        <v>1.020700426985627</v>
       </c>
       <c r="F25">
-        <v>1.037534579452781</v>
+        <v>1.032491262842335</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049055933996548</v>
+        <v>1.047085604349226</v>
       </c>
       <c r="J25">
-        <v>1.035174780974631</v>
+        <v>1.028671455409444</v>
       </c>
       <c r="K25">
-        <v>1.043377729110792</v>
+        <v>1.038471499699303</v>
       </c>
       <c r="L25">
-        <v>1.038340666460327</v>
+        <v>1.032985674887052</v>
       </c>
       <c r="M25">
-        <v>1.049576879002812</v>
+        <v>1.044605294698533</v>
       </c>
       <c r="N25">
-        <v>1.036644847899822</v>
+        <v>1.012748214560897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012296006624474</v>
+        <v>1.049304338986681</v>
       </c>
       <c r="D2">
-        <v>1.032356706387649</v>
+        <v>1.055130053900059</v>
       </c>
       <c r="E2">
-        <v>1.027307543697486</v>
+        <v>1.056501405637298</v>
       </c>
       <c r="F2">
-        <v>1.039264028990301</v>
+        <v>1.067202617919128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049209996672408</v>
+        <v>1.041436550823106</v>
       </c>
       <c r="J2">
-        <v>1.034115064622657</v>
+        <v>1.05434349526658</v>
       </c>
       <c r="K2">
-        <v>1.043382940103331</v>
+        <v>1.057871359157953</v>
       </c>
       <c r="L2">
-        <v>1.038399111342809</v>
+        <v>1.059238943010632</v>
       </c>
       <c r="M2">
-        <v>1.050202168673433</v>
+        <v>1.069911112862725</v>
       </c>
       <c r="N2">
-        <v>1.014640232982396</v>
+        <v>1.021861909914845</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017917489178276</v>
+        <v>1.050486103456782</v>
       </c>
       <c r="D3">
-        <v>1.036637096638933</v>
+        <v>1.056045993168506</v>
       </c>
       <c r="E3">
-        <v>1.03195895075812</v>
+        <v>1.057525543812355</v>
       </c>
       <c r="F3">
-        <v>1.044030813897846</v>
+        <v>1.068247721612781</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05067872263443</v>
+        <v>1.041675432624431</v>
       </c>
       <c r="J3">
-        <v>1.037931343299201</v>
+        <v>1.055173348696137</v>
       </c>
       <c r="K3">
-        <v>1.046821714813756</v>
+        <v>1.058600416955825</v>
       </c>
       <c r="L3">
-        <v>1.042198610484604</v>
+        <v>1.060076196937312</v>
       </c>
       <c r="M3">
-        <v>1.054129682271802</v>
+        <v>1.070771385219403</v>
       </c>
       <c r="N3">
-        <v>1.015965115085846</v>
+        <v>1.0221448054848</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021471622686163</v>
+        <v>1.051250912047018</v>
       </c>
       <c r="D4">
-        <v>1.039345699468731</v>
+        <v>1.05663858498241</v>
       </c>
       <c r="E4">
-        <v>1.034905594498939</v>
+        <v>1.058188613512241</v>
       </c>
       <c r="F4">
-        <v>1.04704992409426</v>
+        <v>1.068924267406847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051596574540788</v>
+        <v>1.041828644991222</v>
       </c>
       <c r="J4">
-        <v>1.040341585103795</v>
+        <v>1.055709907325331</v>
       </c>
       <c r="K4">
-        <v>1.048991361400531</v>
+        <v>1.059071453325637</v>
       </c>
       <c r="L4">
-        <v>1.044600229973989</v>
+        <v>1.060617730851739</v>
       </c>
       <c r="M4">
-        <v>1.05661181834934</v>
+        <v>1.07132772551549</v>
       </c>
       <c r="N4">
-        <v>1.01680109637956</v>
+        <v>1.022327544860663</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022946676440402</v>
+        <v>1.051572469230515</v>
       </c>
       <c r="D5">
-        <v>1.040470328124951</v>
+        <v>1.05688769089877</v>
       </c>
       <c r="E5">
-        <v>1.036129860308074</v>
+        <v>1.058467460053979</v>
       </c>
       <c r="F5">
-        <v>1.04830414096386</v>
+        <v>1.06920875768336</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051974880287985</v>
+        <v>1.041892729815014</v>
       </c>
       <c r="J5">
-        <v>1.041341231287325</v>
+        <v>1.055935378247961</v>
       </c>
       <c r="K5">
-        <v>1.049890680162606</v>
+        <v>1.059269306483603</v>
       </c>
       <c r="L5">
-        <v>1.045596767616567</v>
+        <v>1.060845337957471</v>
       </c>
       <c r="M5">
-        <v>1.057641661365327</v>
+        <v>1.07156153605152</v>
       </c>
       <c r="N5">
-        <v>1.01714762422099</v>
+        <v>1.022404293565194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.023193247905714</v>
+        <v>1.051626461982366</v>
       </c>
       <c r="D6">
-        <v>1.040658348912197</v>
+        <v>1.056929515723559</v>
       </c>
       <c r="E6">
-        <v>1.036334586521237</v>
+        <v>1.05851428501706</v>
       </c>
       <c r="F6">
-        <v>1.048513866260248</v>
+        <v>1.069256528984793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052037962484778</v>
+        <v>1.041903470841286</v>
       </c>
       <c r="J6">
-        <v>1.041508292741336</v>
+        <v>1.055973230051373</v>
       </c>
       <c r="K6">
-        <v>1.050040942511609</v>
+        <v>1.059302516902507</v>
       </c>
       <c r="L6">
-        <v>1.045763336885714</v>
+        <v>1.060883551045848</v>
       </c>
       <c r="M6">
-        <v>1.057813791174195</v>
+        <v>1.071600789479079</v>
       </c>
       <c r="N6">
-        <v>1.01720552442804</v>
+        <v>1.022417175616448</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021491406407084</v>
+        <v>1.051255208584186</v>
       </c>
       <c r="D7">
-        <v>1.039360781373438</v>
+        <v>1.05664191362522</v>
       </c>
       <c r="E7">
-        <v>1.034922009404978</v>
+        <v>1.058192339111534</v>
       </c>
       <c r="F7">
-        <v>1.047066741213084</v>
+        <v>1.068928068503022</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051601658895712</v>
+        <v>1.041829502575421</v>
       </c>
       <c r="J7">
-        <v>1.040354995248423</v>
+        <v>1.05571292046479</v>
       </c>
       <c r="K7">
-        <v>1.049003427825775</v>
+        <v>1.059074097719159</v>
       </c>
       <c r="L7">
-        <v>1.044613596577405</v>
+        <v>1.060620772359985</v>
       </c>
       <c r="M7">
-        <v>1.056625632103317</v>
+        <v>1.071330849997578</v>
       </c>
       <c r="N7">
-        <v>1.01680574579546</v>
+        <v>1.022328570675032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014213596622935</v>
+        <v>1.049703695940944</v>
       </c>
       <c r="D8">
-        <v>1.03381628136196</v>
+        <v>1.05543961686185</v>
       </c>
       <c r="E8">
-        <v>1.028892958002979</v>
+        <v>1.056847438548839</v>
       </c>
       <c r="F8">
-        <v>1.04088889593696</v>
+        <v>1.067555754818856</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04971323066154</v>
+        <v>1.041517563648592</v>
       </c>
       <c r="J8">
-        <v>1.035417375912083</v>
+        <v>1.054624033622296</v>
       </c>
       <c r="K8">
-        <v>1.044556873257416</v>
+        <v>1.058117895304649</v>
       </c>
       <c r="L8">
-        <v>1.039695277330423</v>
+        <v>1.059521943678522</v>
       </c>
       <c r="M8">
-        <v>1.051542084332147</v>
+        <v>1.0702019109033</v>
       </c>
       <c r="N8">
-        <v>1.015092507722614</v>
+        <v>1.02195758059959</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000709934655883</v>
+        <v>1.046970666558614</v>
       </c>
       <c r="D9">
-        <v>1.023551371989805</v>
+        <v>1.053320387438705</v>
       </c>
       <c r="E9">
-        <v>1.017756182465735</v>
+        <v>1.054480484128981</v>
       </c>
       <c r="F9">
-        <v>1.029472645801543</v>
+        <v>1.065139808757819</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046125763669378</v>
+        <v>1.040957471813429</v>
       </c>
       <c r="J9">
-        <v>1.026237648183948</v>
+        <v>1.052702105667583</v>
       </c>
       <c r="K9">
-        <v>1.036273560968351</v>
+        <v>1.056427480145685</v>
       </c>
       <c r="L9">
-        <v>1.030567600110291</v>
+        <v>1.057583931728902</v>
       </c>
       <c r="M9">
-        <v>1.042104986108836</v>
+        <v>1.068210169731933</v>
       </c>
       <c r="N9">
-        <v>1.011901612930481</v>
+        <v>1.021301451550812</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9911887868499185</v>
+        <v>1.04514920837732</v>
       </c>
       <c r="D10">
-        <v>1.016334863727502</v>
+        <v>1.05190714216134</v>
       </c>
       <c r="E10">
-        <v>1.009942584599433</v>
+        <v>1.052904472651981</v>
       </c>
       <c r="F10">
-        <v>1.021460371046579</v>
+        <v>1.063530678909091</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043543077424021</v>
+        <v>1.040577075020172</v>
       </c>
       <c r="J10">
-        <v>1.019756408879042</v>
+        <v>1.051418666046747</v>
       </c>
       <c r="K10">
-        <v>1.030415320256879</v>
+        <v>1.055296852807829</v>
       </c>
       <c r="L10">
-        <v>1.024134613456533</v>
+        <v>1.056290741214123</v>
       </c>
       <c r="M10">
-        <v>1.035452669002974</v>
+        <v>1.06688071377593</v>
       </c>
       <c r="N10">
-        <v>1.00964547300806</v>
+        <v>1.020862419226139</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9869275807209489</v>
+        <v>1.044360614401918</v>
       </c>
       <c r="D11">
-        <v>1.013111482686906</v>
+        <v>1.05129508880144</v>
       </c>
       <c r="E11">
-        <v>1.006455974084797</v>
+        <v>1.052222502828815</v>
       </c>
       <c r="F11">
-        <v>1.017884622041947</v>
+        <v>1.06283426085895</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042375381168876</v>
+        <v>1.040410697873046</v>
       </c>
       <c r="J11">
-        <v>1.016854484248343</v>
+        <v>1.050862405671896</v>
       </c>
       <c r="K11">
-        <v>1.027790300321515</v>
+        <v>1.054806401884194</v>
       </c>
       <c r="L11">
-        <v>1.021257158605205</v>
+        <v>1.055730490639314</v>
       </c>
       <c r="M11">
-        <v>1.03247696226209</v>
+        <v>1.066304655149787</v>
       </c>
       <c r="N11">
-        <v>1.008634684676681</v>
+        <v>1.020671930185967</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.985322521995986</v>
+        <v>1.044067710480903</v>
       </c>
       <c r="D12">
-        <v>1.011898424372777</v>
+        <v>1.05106772833402</v>
       </c>
       <c r="E12">
-        <v>1.005144349664962</v>
+        <v>1.051969256571661</v>
       </c>
       <c r="F12">
-        <v>1.016539404203034</v>
+        <v>1.062575631764826</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041933848176545</v>
+        <v>1.040348648081341</v>
       </c>
       <c r="J12">
-        <v>1.015761315855896</v>
+        <v>1.050655706689905</v>
       </c>
       <c r="K12">
-        <v>1.026801165254835</v>
+        <v>1.054624093727138</v>
       </c>
       <c r="L12">
-        <v>1.020173651275968</v>
+        <v>1.055522344509273</v>
       </c>
       <c r="M12">
-        <v>1.031356450158514</v>
+        <v>1.066090621532854</v>
       </c>
       <c r="N12">
-        <v>1.008253836433475</v>
+        <v>1.020601116115069</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9856678444556549</v>
+        <v>1.044130538710998</v>
       </c>
       <c r="D13">
-        <v>1.012159358248006</v>
+        <v>1.051116498681163</v>
       </c>
       <c r="E13">
-        <v>1.005426463580257</v>
+        <v>1.052023575697011</v>
       </c>
       <c r="F13">
-        <v>1.016828746166359</v>
+        <v>1.062631106255473</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04202891787757</v>
+        <v>1.04036196928276</v>
       </c>
       <c r="J13">
-        <v>1.015996510521006</v>
+        <v>1.050700047912858</v>
       </c>
       <c r="K13">
-        <v>1.027013989281094</v>
+        <v>1.05466320546311</v>
       </c>
       <c r="L13">
-        <v>1.020406747134766</v>
+        <v>1.055566994564877</v>
       </c>
       <c r="M13">
-        <v>1.031597507011021</v>
+        <v>1.066136535182267</v>
       </c>
       <c r="N13">
-        <v>1.008335779128143</v>
+        <v>1.020616308598018</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9867953689579555</v>
+        <v>1.04433640257494</v>
       </c>
       <c r="D14">
-        <v>1.01301153794671</v>
+        <v>1.051276295454308</v>
       </c>
       <c r="E14">
-        <v>1.00634789850584</v>
+        <v>1.052201568035692</v>
       </c>
       <c r="F14">
-        <v>1.017773779578819</v>
+        <v>1.062812881447347</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042339045320316</v>
+        <v>1.040405573916545</v>
       </c>
       <c r="J14">
-        <v>1.016764439577627</v>
+        <v>1.050845321486906</v>
       </c>
       <c r="K14">
-        <v>1.027708830389508</v>
+        <v>1.054791334947192</v>
       </c>
       <c r="L14">
-        <v>1.021167900641281</v>
+        <v>1.055713286118056</v>
       </c>
       <c r="M14">
-        <v>1.032384655969487</v>
+        <v>1.066286964286262</v>
       </c>
       <c r="N14">
-        <v>1.008603315608661</v>
+        <v>1.020666077855698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9874870791275566</v>
+        <v>1.04446324403939</v>
       </c>
       <c r="D15">
-        <v>1.013534477335988</v>
+        <v>1.051374749313387</v>
       </c>
       <c r="E15">
-        <v>1.006913400781302</v>
+        <v>1.052311243947743</v>
       </c>
       <c r="F15">
-        <v>1.018353757104244</v>
+        <v>1.062924885965747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042529079743824</v>
+        <v>1.040432407052179</v>
       </c>
       <c r="J15">
-        <v>1.017235534583383</v>
+        <v>1.050934818829424</v>
       </c>
       <c r="K15">
-        <v>1.028135052997844</v>
+        <v>1.054870262136814</v>
       </c>
       <c r="L15">
-        <v>1.021634897886325</v>
+        <v>1.055803415311623</v>
       </c>
       <c r="M15">
-        <v>1.032867601816892</v>
+        <v>1.066379640687149</v>
       </c>
       <c r="N15">
-        <v>1.008767428893045</v>
+        <v>1.02069673465482</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.991468550394342</v>
+        <v>1.045201546944372</v>
       </c>
       <c r="D16">
-        <v>1.01654663343325</v>
+        <v>1.0519477598131</v>
       </c>
       <c r="E16">
-        <v>1.010171718007573</v>
+        <v>1.052949742261274</v>
       </c>
       <c r="F16">
-        <v>1.021695353399051</v>
+        <v>1.063576905135066</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043619501551908</v>
+        <v>1.040588081881912</v>
       </c>
       <c r="J16">
-        <v>1.019946911507091</v>
+        <v>1.051455572154751</v>
       </c>
       <c r="K16">
-        <v>1.030587604898953</v>
+        <v>1.055329383810409</v>
       </c>
       <c r="L16">
-        <v>1.024323570324668</v>
+        <v>1.056327917038031</v>
       </c>
       <c r="M16">
-        <v>1.035648076000419</v>
+        <v>1.06691893652567</v>
       </c>
       <c r="N16">
-        <v>1.009711816468277</v>
+        <v>1.02087505323361</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9939279609866235</v>
+        <v>1.045664693128134</v>
       </c>
       <c r="D17">
-        <v>1.018409046610139</v>
+        <v>1.052307164850368</v>
       </c>
       <c r="E17">
-        <v>1.012187228053468</v>
+        <v>1.053350376501545</v>
       </c>
       <c r="F17">
-        <v>1.023762258434062</v>
+        <v>1.063985991849323</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044290016518552</v>
+        <v>1.040685287340159</v>
       </c>
       <c r="J17">
-        <v>1.021621495213766</v>
+        <v>1.051782086630205</v>
       </c>
       <c r="K17">
-        <v>1.032101818180706</v>
+        <v>1.05561714236143</v>
       </c>
       <c r="L17">
-        <v>1.025984892867737</v>
+        <v>1.056656844994723</v>
       </c>
       <c r="M17">
-        <v>1.037366093559128</v>
+        <v>1.067257116418874</v>
       </c>
       <c r="N17">
-        <v>1.010294929631945</v>
+        <v>1.020986804584963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9953492362918014</v>
+        <v>1.045934849117461</v>
       </c>
       <c r="D18">
-        <v>1.019485916232816</v>
+        <v>1.052516789244284</v>
       </c>
       <c r="E18">
-        <v>1.013352950656932</v>
+        <v>1.053584103465989</v>
       </c>
       <c r="F18">
-        <v>1.024957659927863</v>
+        <v>1.064224638597728</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044676379855585</v>
+        <v>1.040741825206882</v>
       </c>
       <c r="J18">
-        <v>1.0225891026229</v>
+        <v>1.051972486621644</v>
       </c>
       <c r="K18">
-        <v>1.032976565723019</v>
+        <v>1.055784901996755</v>
       </c>
       <c r="L18">
-        <v>1.026945107779823</v>
+        <v>1.056848675104729</v>
       </c>
       <c r="M18">
-        <v>1.038359062396524</v>
+        <v>1.067454332902305</v>
       </c>
       <c r="N18">
-        <v>1.01063180442568</v>
+        <v>1.021051950102973</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9958316477510961</v>
+        <v>1.046026967179896</v>
       </c>
       <c r="D19">
-        <v>1.019851526240604</v>
+        <v>1.052588263974715</v>
       </c>
       <c r="E19">
-        <v>1.013748784129677</v>
+        <v>1.053663805761779</v>
       </c>
       <c r="F19">
-        <v>1.02536356290544</v>
+        <v>1.064306016646477</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044807327365634</v>
+        <v>1.040761075948995</v>
       </c>
       <c r="J19">
-        <v>1.022917506450243</v>
+        <v>1.052037399571748</v>
       </c>
       <c r="K19">
-        <v>1.033273419279844</v>
+        <v>1.055842089280632</v>
       </c>
       <c r="L19">
-        <v>1.027271048059181</v>
+        <v>1.056914079479538</v>
       </c>
       <c r="M19">
-        <v>1.038696117928284</v>
+        <v>1.067521572171399</v>
       </c>
       <c r="N19">
-        <v>1.010746128514447</v>
+        <v>1.02107415674195</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9936654708423995</v>
+        <v>1.045615000833812</v>
       </c>
       <c r="D20">
-        <v>1.018210210724214</v>
+        <v>1.052268605177269</v>
       </c>
       <c r="E20">
-        <v>1.011972013040628</v>
+        <v>1.053307387712724</v>
       </c>
       <c r="F20">
-        <v>1.023541560259552</v>
+        <v>1.063942097265389</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044218569192364</v>
+        <v>1.040674874709314</v>
       </c>
       <c r="J20">
-        <v>1.02144278091209</v>
+        <v>1.05174705993213</v>
       </c>
       <c r="K20">
-        <v>1.031940238886681</v>
+        <v>1.055586277392764</v>
       </c>
       <c r="L20">
-        <v>1.025807565696584</v>
+        <v>1.056621557037557</v>
       </c>
       <c r="M20">
-        <v>1.037182716282441</v>
+        <v>1.067220836863111</v>
       </c>
       <c r="N20">
-        <v>1.01023270492465</v>
+        <v>1.02097481856628</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9864639678093524</v>
+        <v>1.044275780395757</v>
       </c>
       <c r="D21">
-        <v>1.012761035026683</v>
+        <v>1.051229239747627</v>
       </c>
       <c r="E21">
-        <v>1.006077024220162</v>
+        <v>1.052149151862987</v>
       </c>
       <c r="F21">
-        <v>1.017495969606155</v>
+        <v>1.062759351763178</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042247939019426</v>
+        <v>1.040392740338213</v>
       </c>
       <c r="J21">
-        <v>1.016538732741406</v>
+        <v>1.050802544228909</v>
       </c>
       <c r="K21">
-        <v>1.027504612699981</v>
+        <v>1.054753607677806</v>
       </c>
       <c r="L21">
-        <v>1.020944172952148</v>
+        <v>1.055670208123609</v>
       </c>
       <c r="M21">
-        <v>1.032153287476668</v>
+        <v>1.0662426683182</v>
       </c>
       <c r="N21">
-        <v>1.008524684366431</v>
+        <v>1.020651423650527</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9818065074556076</v>
+        <v>1.043433845385305</v>
       </c>
       <c r="D22">
-        <v>1.009243264801363</v>
+        <v>1.050575653295622</v>
       </c>
       <c r="E22">
-        <v>1.002274328321298</v>
+        <v>1.05142131448577</v>
       </c>
       <c r="F22">
-        <v>1.013595778758061</v>
+        <v>1.062016010949686</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040963591995619</v>
+        <v>1.040213905306916</v>
       </c>
       <c r="J22">
-        <v>1.013366533954727</v>
+        <v>1.050208231705815</v>
       </c>
       <c r="K22">
-        <v>1.024633808120629</v>
+        <v>1.054229306389496</v>
       </c>
       <c r="L22">
-        <v>1.01780086456332</v>
+        <v>1.055071801796567</v>
       </c>
       <c r="M22">
-        <v>1.028902627870143</v>
+        <v>1.065627308788162</v>
       </c>
       <c r="N22">
-        <v>1.007419388655884</v>
+        <v>1.020447757045545</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9842883185486839</v>
+        <v>1.043880163392736</v>
       </c>
       <c r="D23">
-        <v>1.011117124905042</v>
+        <v>1.050922141037642</v>
       </c>
       <c r="E23">
-        <v>1.004299702499973</v>
+        <v>1.051807117891026</v>
       </c>
       <c r="F23">
-        <v>1.01567310844144</v>
+        <v>1.062410041836186</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041648881644266</v>
+        <v>1.040308846230601</v>
       </c>
       <c r="J23">
-        <v>1.015056923891063</v>
+        <v>1.050523331635309</v>
       </c>
       <c r="K23">
-        <v>1.026163733357575</v>
+        <v>1.054507321416255</v>
       </c>
       <c r="L23">
-        <v>1.019475611088438</v>
+        <v>1.055389052688934</v>
       </c>
       <c r="M23">
-        <v>1.030634569555309</v>
+        <v>1.065953555457612</v>
       </c>
       <c r="N23">
-        <v>1.008008413052473</v>
+        <v>1.02055575638935</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9937841197017654</v>
+        <v>1.045637454609283</v>
       </c>
       <c r="D24">
-        <v>1.018300085219523</v>
+        <v>1.052286028665967</v>
       </c>
       <c r="E24">
-        <v>1.012069289929717</v>
+        <v>1.053326812360435</v>
       </c>
       <c r="F24">
-        <v>1.023641315676017</v>
+        <v>1.063961931235065</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044250867773401</v>
+        <v>1.040679580224614</v>
       </c>
       <c r="J24">
-        <v>1.021523562417877</v>
+        <v>1.051762887144699</v>
       </c>
       <c r="K24">
-        <v>1.032013275721875</v>
+        <v>1.05560022420616</v>
       </c>
       <c r="L24">
-        <v>1.025887719361935</v>
+        <v>1.056637502232753</v>
       </c>
       <c r="M24">
-        <v>1.037265604703276</v>
+        <v>1.067237230150322</v>
       </c>
       <c r="N24">
-        <v>1.010260831597537</v>
+        <v>1.020980234646927</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004287527103176</v>
+        <v>1.04767711633378</v>
       </c>
       <c r="D25">
-        <v>1.026267716703707</v>
+        <v>1.053868333852516</v>
       </c>
       <c r="E25">
-        <v>1.020700426985627</v>
+        <v>1.0550920524656</v>
       </c>
       <c r="F25">
-        <v>1.032491262842335</v>
+        <v>1.065764123505895</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047085604349226</v>
+        <v>1.041103503215741</v>
       </c>
       <c r="J25">
-        <v>1.028671455409444</v>
+        <v>1.053199348148521</v>
       </c>
       <c r="K25">
-        <v>1.038471499699303</v>
+        <v>1.056865141558537</v>
       </c>
       <c r="L25">
-        <v>1.032985674887052</v>
+        <v>1.058085161545365</v>
       </c>
       <c r="M25">
-        <v>1.044605294698533</v>
+        <v>1.068725368813876</v>
       </c>
       <c r="N25">
-        <v>1.012748214560897</v>
+        <v>1.021471360835934</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049304338986681</v>
+        <v>1.012296006624472</v>
       </c>
       <c r="D2">
-        <v>1.055130053900059</v>
+        <v>1.032356706387648</v>
       </c>
       <c r="E2">
-        <v>1.056501405637298</v>
+        <v>1.027307543697484</v>
       </c>
       <c r="F2">
-        <v>1.067202617919128</v>
+        <v>1.039264028990299</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041436550823106</v>
+        <v>1.049209996672407</v>
       </c>
       <c r="J2">
-        <v>1.05434349526658</v>
+        <v>1.034115064622655</v>
       </c>
       <c r="K2">
-        <v>1.057871359157953</v>
+        <v>1.043382940103329</v>
       </c>
       <c r="L2">
-        <v>1.059238943010632</v>
+        <v>1.038399111342807</v>
       </c>
       <c r="M2">
-        <v>1.069911112862725</v>
+        <v>1.050202168673431</v>
       </c>
       <c r="N2">
-        <v>1.021861909914845</v>
+        <v>1.014640232982395</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050486103456782</v>
+        <v>1.017917489178277</v>
       </c>
       <c r="D3">
-        <v>1.056045993168506</v>
+        <v>1.036637096638933</v>
       </c>
       <c r="E3">
-        <v>1.057525543812355</v>
+        <v>1.03195895075812</v>
       </c>
       <c r="F3">
-        <v>1.068247721612781</v>
+        <v>1.044030813897846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041675432624431</v>
+        <v>1.05067872263443</v>
       </c>
       <c r="J3">
-        <v>1.055173348696137</v>
+        <v>1.037931343299201</v>
       </c>
       <c r="K3">
-        <v>1.058600416955825</v>
+        <v>1.046821714813756</v>
       </c>
       <c r="L3">
-        <v>1.060076196937312</v>
+        <v>1.042198610484604</v>
       </c>
       <c r="M3">
-        <v>1.070771385219403</v>
+        <v>1.054129682271802</v>
       </c>
       <c r="N3">
-        <v>1.0221448054848</v>
+        <v>1.015965115085846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051250912047018</v>
+        <v>1.021471622686164</v>
       </c>
       <c r="D4">
-        <v>1.05663858498241</v>
+        <v>1.039345699468732</v>
       </c>
       <c r="E4">
-        <v>1.058188613512241</v>
+        <v>1.03490559449894</v>
       </c>
       <c r="F4">
-        <v>1.068924267406847</v>
+        <v>1.047049924094261</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041828644991222</v>
+        <v>1.051596574540788</v>
       </c>
       <c r="J4">
-        <v>1.055709907325331</v>
+        <v>1.040341585103796</v>
       </c>
       <c r="K4">
-        <v>1.059071453325637</v>
+        <v>1.048991361400531</v>
       </c>
       <c r="L4">
-        <v>1.060617730851739</v>
+        <v>1.04460022997399</v>
       </c>
       <c r="M4">
-        <v>1.07132772551549</v>
+        <v>1.056611818349341</v>
       </c>
       <c r="N4">
-        <v>1.022327544860663</v>
+        <v>1.01680109637956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051572469230515</v>
+        <v>1.022946676440403</v>
       </c>
       <c r="D5">
-        <v>1.05688769089877</v>
+        <v>1.040470328124951</v>
       </c>
       <c r="E5">
-        <v>1.058467460053979</v>
+        <v>1.036129860308075</v>
       </c>
       <c r="F5">
-        <v>1.06920875768336</v>
+        <v>1.04830414096386</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041892729815014</v>
+        <v>1.051974880287985</v>
       </c>
       <c r="J5">
-        <v>1.055935378247961</v>
+        <v>1.041341231287327</v>
       </c>
       <c r="K5">
-        <v>1.059269306483603</v>
+        <v>1.049890680162607</v>
       </c>
       <c r="L5">
-        <v>1.060845337957471</v>
+        <v>1.045596767616568</v>
       </c>
       <c r="M5">
-        <v>1.07156153605152</v>
+        <v>1.057641661365328</v>
       </c>
       <c r="N5">
-        <v>1.022404293565194</v>
+        <v>1.01714762422099</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051626461982366</v>
+        <v>1.023193247905713</v>
       </c>
       <c r="D6">
-        <v>1.056929515723559</v>
+        <v>1.040658348912195</v>
       </c>
       <c r="E6">
-        <v>1.05851428501706</v>
+        <v>1.036334586521235</v>
       </c>
       <c r="F6">
-        <v>1.069256528984793</v>
+        <v>1.048513866260248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041903470841286</v>
+        <v>1.052037962484777</v>
       </c>
       <c r="J6">
-        <v>1.055973230051373</v>
+        <v>1.041508292741334</v>
       </c>
       <c r="K6">
-        <v>1.059302516902507</v>
+        <v>1.050040942511607</v>
       </c>
       <c r="L6">
-        <v>1.060883551045848</v>
+        <v>1.045763336885714</v>
       </c>
       <c r="M6">
-        <v>1.071600789479079</v>
+        <v>1.057813791174194</v>
       </c>
       <c r="N6">
-        <v>1.022417175616448</v>
+        <v>1.01720552442804</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051255208584186</v>
+        <v>1.021491406407085</v>
       </c>
       <c r="D7">
-        <v>1.05664191362522</v>
+        <v>1.039360781373438</v>
       </c>
       <c r="E7">
-        <v>1.058192339111534</v>
+        <v>1.034922009404978</v>
       </c>
       <c r="F7">
-        <v>1.068928068503022</v>
+        <v>1.047066741213085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041829502575421</v>
+        <v>1.051601658895712</v>
       </c>
       <c r="J7">
-        <v>1.05571292046479</v>
+        <v>1.040354995248423</v>
       </c>
       <c r="K7">
-        <v>1.059074097719159</v>
+        <v>1.049003427825775</v>
       </c>
       <c r="L7">
-        <v>1.060620772359985</v>
+        <v>1.044613596577405</v>
       </c>
       <c r="M7">
-        <v>1.071330849997578</v>
+        <v>1.056625632103318</v>
       </c>
       <c r="N7">
-        <v>1.022328570675032</v>
+        <v>1.01680574579546</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049703695940944</v>
+        <v>1.014213596622936</v>
       </c>
       <c r="D8">
-        <v>1.05543961686185</v>
+        <v>1.033816281361962</v>
       </c>
       <c r="E8">
-        <v>1.056847438548839</v>
+        <v>1.02889295800298</v>
       </c>
       <c r="F8">
-        <v>1.067555754818856</v>
+        <v>1.040888895936961</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041517563648592</v>
+        <v>1.04971323066154</v>
       </c>
       <c r="J8">
-        <v>1.054624033622296</v>
+        <v>1.035417375912084</v>
       </c>
       <c r="K8">
-        <v>1.058117895304649</v>
+        <v>1.044556873257417</v>
       </c>
       <c r="L8">
-        <v>1.059521943678522</v>
+        <v>1.039695277330424</v>
       </c>
       <c r="M8">
-        <v>1.0702019109033</v>
+        <v>1.051542084332148</v>
       </c>
       <c r="N8">
-        <v>1.02195758059959</v>
+        <v>1.015092507722615</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046970666558614</v>
+        <v>1.000709934655883</v>
       </c>
       <c r="D9">
-        <v>1.053320387438705</v>
+        <v>1.023551371989805</v>
       </c>
       <c r="E9">
-        <v>1.054480484128981</v>
+        <v>1.017756182465735</v>
       </c>
       <c r="F9">
-        <v>1.065139808757819</v>
+        <v>1.029472645801542</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040957471813429</v>
+        <v>1.046125763669378</v>
       </c>
       <c r="J9">
-        <v>1.052702105667583</v>
+        <v>1.026237648183947</v>
       </c>
       <c r="K9">
-        <v>1.056427480145685</v>
+        <v>1.036273560968351</v>
       </c>
       <c r="L9">
-        <v>1.057583931728902</v>
+        <v>1.03056760011029</v>
       </c>
       <c r="M9">
-        <v>1.068210169731933</v>
+        <v>1.042104986108836</v>
       </c>
       <c r="N9">
-        <v>1.021301451550812</v>
+        <v>1.011901612930481</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04514920837732</v>
+        <v>0.9911887868499188</v>
       </c>
       <c r="D10">
-        <v>1.05190714216134</v>
+        <v>1.016334863727503</v>
       </c>
       <c r="E10">
-        <v>1.052904472651981</v>
+        <v>1.009942584599433</v>
       </c>
       <c r="F10">
-        <v>1.063530678909091</v>
+        <v>1.021460371046579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040577075020172</v>
+        <v>1.043543077424021</v>
       </c>
       <c r="J10">
-        <v>1.051418666046747</v>
+        <v>1.019756408879043</v>
       </c>
       <c r="K10">
-        <v>1.055296852807829</v>
+        <v>1.030415320256879</v>
       </c>
       <c r="L10">
-        <v>1.056290741214123</v>
+        <v>1.024134613456533</v>
       </c>
       <c r="M10">
-        <v>1.06688071377593</v>
+        <v>1.035452669002975</v>
       </c>
       <c r="N10">
-        <v>1.020862419226139</v>
+        <v>1.00964547300806</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044360614401918</v>
+        <v>0.9869275807209469</v>
       </c>
       <c r="D11">
-        <v>1.05129508880144</v>
+        <v>1.013111482686904</v>
       </c>
       <c r="E11">
-        <v>1.052222502828815</v>
+        <v>1.006455974084796</v>
       </c>
       <c r="F11">
-        <v>1.06283426085895</v>
+        <v>1.017884622041945</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040410697873046</v>
+        <v>1.042375381168876</v>
       </c>
       <c r="J11">
-        <v>1.050862405671896</v>
+        <v>1.016854484248342</v>
       </c>
       <c r="K11">
-        <v>1.054806401884194</v>
+        <v>1.027790300321513</v>
       </c>
       <c r="L11">
-        <v>1.055730490639314</v>
+        <v>1.021257158605203</v>
       </c>
       <c r="M11">
-        <v>1.066304655149787</v>
+        <v>1.032476962262089</v>
       </c>
       <c r="N11">
-        <v>1.020671930185967</v>
+        <v>1.00863468467668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044067710480903</v>
+        <v>0.9853225219959845</v>
       </c>
       <c r="D12">
-        <v>1.05106772833402</v>
+        <v>1.011898424372776</v>
       </c>
       <c r="E12">
-        <v>1.051969256571661</v>
+        <v>1.00514434966496</v>
       </c>
       <c r="F12">
-        <v>1.062575631764826</v>
+        <v>1.016539404203033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040348648081341</v>
+        <v>1.041933848176545</v>
       </c>
       <c r="J12">
-        <v>1.050655706689905</v>
+        <v>1.015761315855895</v>
       </c>
       <c r="K12">
-        <v>1.054624093727138</v>
+        <v>1.026801165254834</v>
       </c>
       <c r="L12">
-        <v>1.055522344509273</v>
+        <v>1.020173651275967</v>
       </c>
       <c r="M12">
-        <v>1.066090621532854</v>
+        <v>1.031356450158513</v>
       </c>
       <c r="N12">
-        <v>1.020601116115069</v>
+        <v>1.008253836433474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044130538710998</v>
+        <v>0.9856678444556555</v>
       </c>
       <c r="D13">
-        <v>1.051116498681163</v>
+        <v>1.012159358248006</v>
       </c>
       <c r="E13">
-        <v>1.052023575697011</v>
+        <v>1.005426463580258</v>
       </c>
       <c r="F13">
-        <v>1.062631106255473</v>
+        <v>1.01682874616636</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04036196928276</v>
+        <v>1.042028917877571</v>
       </c>
       <c r="J13">
-        <v>1.050700047912858</v>
+        <v>1.015996510521007</v>
       </c>
       <c r="K13">
-        <v>1.05466320546311</v>
+        <v>1.027013989281095</v>
       </c>
       <c r="L13">
-        <v>1.055566994564877</v>
+        <v>1.020406747134767</v>
       </c>
       <c r="M13">
-        <v>1.066136535182267</v>
+        <v>1.031597507011021</v>
       </c>
       <c r="N13">
-        <v>1.020616308598018</v>
+        <v>1.008335779128143</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.04433640257494</v>
+        <v>0.9867953689579556</v>
       </c>
       <c r="D14">
-        <v>1.051276295454308</v>
+        <v>1.013011537946711</v>
       </c>
       <c r="E14">
-        <v>1.052201568035692</v>
+        <v>1.006347898505841</v>
       </c>
       <c r="F14">
-        <v>1.062812881447347</v>
+        <v>1.017773779578819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040405573916545</v>
+        <v>1.042339045320316</v>
       </c>
       <c r="J14">
-        <v>1.050845321486906</v>
+        <v>1.016764439577627</v>
       </c>
       <c r="K14">
-        <v>1.054791334947192</v>
+        <v>1.027708830389508</v>
       </c>
       <c r="L14">
-        <v>1.055713286118056</v>
+        <v>1.021167900641281</v>
       </c>
       <c r="M14">
-        <v>1.066286964286262</v>
+        <v>1.032384655969488</v>
       </c>
       <c r="N14">
-        <v>1.020666077855698</v>
+        <v>1.008603315608661</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04446324403939</v>
+        <v>0.9874870791275556</v>
       </c>
       <c r="D15">
-        <v>1.051374749313387</v>
+        <v>1.013534477335987</v>
       </c>
       <c r="E15">
-        <v>1.052311243947743</v>
+        <v>1.006913400781301</v>
       </c>
       <c r="F15">
-        <v>1.062924885965747</v>
+        <v>1.018353757104244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040432407052179</v>
+        <v>1.042529079743823</v>
       </c>
       <c r="J15">
-        <v>1.050934818829424</v>
+        <v>1.017235534583382</v>
       </c>
       <c r="K15">
-        <v>1.054870262136814</v>
+        <v>1.028135052997844</v>
       </c>
       <c r="L15">
-        <v>1.055803415311623</v>
+        <v>1.021634897886324</v>
       </c>
       <c r="M15">
-        <v>1.066379640687149</v>
+        <v>1.032867601816891</v>
       </c>
       <c r="N15">
-        <v>1.02069673465482</v>
+        <v>1.008767428893045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045201546944372</v>
+        <v>0.9914685503943417</v>
       </c>
       <c r="D16">
-        <v>1.0519477598131</v>
+        <v>1.01654663343325</v>
       </c>
       <c r="E16">
-        <v>1.052949742261274</v>
+        <v>1.010171718007573</v>
       </c>
       <c r="F16">
-        <v>1.063576905135066</v>
+        <v>1.02169535339905</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040588081881912</v>
+        <v>1.043619501551908</v>
       </c>
       <c r="J16">
-        <v>1.051455572154751</v>
+        <v>1.019946911507091</v>
       </c>
       <c r="K16">
-        <v>1.055329383810409</v>
+        <v>1.030587604898952</v>
       </c>
       <c r="L16">
-        <v>1.056327917038031</v>
+        <v>1.024323570324667</v>
       </c>
       <c r="M16">
-        <v>1.06691893652567</v>
+        <v>1.035648076000418</v>
       </c>
       <c r="N16">
-        <v>1.02087505323361</v>
+        <v>1.009711816468277</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045664693128134</v>
+        <v>0.9939279609866239</v>
       </c>
       <c r="D17">
-        <v>1.052307164850368</v>
+        <v>1.018409046610139</v>
       </c>
       <c r="E17">
-        <v>1.053350376501545</v>
+        <v>1.012187228053469</v>
       </c>
       <c r="F17">
-        <v>1.063985991849323</v>
+        <v>1.023762258434062</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040685287340159</v>
+        <v>1.044290016518552</v>
       </c>
       <c r="J17">
-        <v>1.051782086630205</v>
+        <v>1.021621495213767</v>
       </c>
       <c r="K17">
-        <v>1.05561714236143</v>
+        <v>1.032101818180707</v>
       </c>
       <c r="L17">
-        <v>1.056656844994723</v>
+        <v>1.025984892867738</v>
       </c>
       <c r="M17">
-        <v>1.067257116418874</v>
+        <v>1.037366093559129</v>
       </c>
       <c r="N17">
-        <v>1.020986804584963</v>
+        <v>1.010294929631945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045934849117461</v>
+        <v>0.9953492362918017</v>
       </c>
       <c r="D18">
-        <v>1.052516789244284</v>
+        <v>1.019485916232816</v>
       </c>
       <c r="E18">
-        <v>1.053584103465989</v>
+        <v>1.013352950656932</v>
       </c>
       <c r="F18">
-        <v>1.064224638597728</v>
+        <v>1.024957659927864</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040741825206882</v>
+        <v>1.044676379855585</v>
       </c>
       <c r="J18">
-        <v>1.051972486621644</v>
+        <v>1.022589102622901</v>
       </c>
       <c r="K18">
-        <v>1.055784901996755</v>
+        <v>1.032976565723019</v>
       </c>
       <c r="L18">
-        <v>1.056848675104729</v>
+        <v>1.026945107779823</v>
       </c>
       <c r="M18">
-        <v>1.067454332902305</v>
+        <v>1.038359062396525</v>
       </c>
       <c r="N18">
-        <v>1.021051950102973</v>
+        <v>1.01063180442568</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046026967179896</v>
+        <v>0.9958316477510955</v>
       </c>
       <c r="D19">
-        <v>1.052588263974715</v>
+        <v>1.019851526240603</v>
       </c>
       <c r="E19">
-        <v>1.053663805761779</v>
+        <v>1.013748784129676</v>
       </c>
       <c r="F19">
-        <v>1.064306016646477</v>
+        <v>1.025363562905439</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040761075948995</v>
+        <v>1.044807327365634</v>
       </c>
       <c r="J19">
-        <v>1.052037399571748</v>
+        <v>1.022917506450243</v>
       </c>
       <c r="K19">
-        <v>1.055842089280632</v>
+        <v>1.033273419279843</v>
       </c>
       <c r="L19">
-        <v>1.056914079479538</v>
+        <v>1.027271048059181</v>
       </c>
       <c r="M19">
-        <v>1.067521572171399</v>
+        <v>1.038696117928283</v>
       </c>
       <c r="N19">
-        <v>1.02107415674195</v>
+        <v>1.010746128514447</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045615000833812</v>
+        <v>0.993665470842399</v>
       </c>
       <c r="D20">
-        <v>1.052268605177269</v>
+        <v>1.018210210724213</v>
       </c>
       <c r="E20">
-        <v>1.053307387712724</v>
+        <v>1.011972013040628</v>
       </c>
       <c r="F20">
-        <v>1.063942097265389</v>
+        <v>1.023541560259552</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040674874709314</v>
+        <v>1.044218569192364</v>
       </c>
       <c r="J20">
-        <v>1.05174705993213</v>
+        <v>1.02144278091209</v>
       </c>
       <c r="K20">
-        <v>1.055586277392764</v>
+        <v>1.03194023888668</v>
       </c>
       <c r="L20">
-        <v>1.056621557037557</v>
+        <v>1.025807565696584</v>
       </c>
       <c r="M20">
-        <v>1.067220836863111</v>
+        <v>1.03718271628244</v>
       </c>
       <c r="N20">
-        <v>1.02097481856628</v>
+        <v>1.01023270492465</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044275780395757</v>
+        <v>0.9864639678093515</v>
       </c>
       <c r="D21">
-        <v>1.051229239747627</v>
+        <v>1.012761035026683</v>
       </c>
       <c r="E21">
-        <v>1.052149151862987</v>
+        <v>1.006077024220161</v>
       </c>
       <c r="F21">
-        <v>1.062759351763178</v>
+        <v>1.017495969606154</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040392740338213</v>
+        <v>1.042247939019426</v>
       </c>
       <c r="J21">
-        <v>1.050802544228909</v>
+        <v>1.016538732741405</v>
       </c>
       <c r="K21">
-        <v>1.054753607677806</v>
+        <v>1.027504612699981</v>
       </c>
       <c r="L21">
-        <v>1.055670208123609</v>
+        <v>1.020944172952146</v>
       </c>
       <c r="M21">
-        <v>1.0662426683182</v>
+        <v>1.032153287476668</v>
       </c>
       <c r="N21">
-        <v>1.020651423650527</v>
+        <v>1.008524684366431</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043433845385305</v>
+        <v>0.9818065074556085</v>
       </c>
       <c r="D22">
-        <v>1.050575653295622</v>
+        <v>1.009243264801363</v>
       </c>
       <c r="E22">
-        <v>1.05142131448577</v>
+        <v>1.002274328321298</v>
       </c>
       <c r="F22">
-        <v>1.062016010949686</v>
+        <v>1.013595778758061</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040213905306916</v>
+        <v>1.040963591995619</v>
       </c>
       <c r="J22">
-        <v>1.050208231705815</v>
+        <v>1.013366533954728</v>
       </c>
       <c r="K22">
-        <v>1.054229306389496</v>
+        <v>1.024633808120629</v>
       </c>
       <c r="L22">
-        <v>1.055071801796567</v>
+        <v>1.017800864563321</v>
       </c>
       <c r="M22">
-        <v>1.065627308788162</v>
+        <v>1.028902627870144</v>
       </c>
       <c r="N22">
-        <v>1.020447757045545</v>
+        <v>1.007419388655884</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043880163392736</v>
+        <v>0.9842883185486846</v>
       </c>
       <c r="D23">
-        <v>1.050922141037642</v>
+        <v>1.011117124905042</v>
       </c>
       <c r="E23">
-        <v>1.051807117891026</v>
+        <v>1.004299702499973</v>
       </c>
       <c r="F23">
-        <v>1.062410041836186</v>
+        <v>1.015673108441441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040308846230601</v>
+        <v>1.041648881644266</v>
       </c>
       <c r="J23">
-        <v>1.050523331635309</v>
+        <v>1.015056923891063</v>
       </c>
       <c r="K23">
-        <v>1.054507321416255</v>
+        <v>1.026163733357575</v>
       </c>
       <c r="L23">
-        <v>1.055389052688934</v>
+        <v>1.019475611088438</v>
       </c>
       <c r="M23">
-        <v>1.065953555457612</v>
+        <v>1.030634569555309</v>
       </c>
       <c r="N23">
-        <v>1.02055575638935</v>
+        <v>1.008008413052473</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045637454609283</v>
+        <v>0.9937841197017663</v>
       </c>
       <c r="D24">
-        <v>1.052286028665967</v>
+        <v>1.018300085219524</v>
       </c>
       <c r="E24">
-        <v>1.053326812360435</v>
+        <v>1.012069289929718</v>
       </c>
       <c r="F24">
-        <v>1.063961931235065</v>
+        <v>1.023641315676018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040679580224614</v>
+        <v>1.044250867773401</v>
       </c>
       <c r="J24">
-        <v>1.051762887144699</v>
+        <v>1.021523562417878</v>
       </c>
       <c r="K24">
-        <v>1.05560022420616</v>
+        <v>1.032013275721875</v>
       </c>
       <c r="L24">
-        <v>1.056637502232753</v>
+        <v>1.025887719361936</v>
       </c>
       <c r="M24">
-        <v>1.067237230150322</v>
+        <v>1.037265604703277</v>
       </c>
       <c r="N24">
-        <v>1.020980234646927</v>
+        <v>1.010260831597537</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04767711633378</v>
+        <v>1.004287527103175</v>
       </c>
       <c r="D25">
-        <v>1.053868333852516</v>
+        <v>1.026267716703706</v>
       </c>
       <c r="E25">
-        <v>1.0550920524656</v>
+        <v>1.020700426985626</v>
       </c>
       <c r="F25">
-        <v>1.065764123505895</v>
+        <v>1.032491262842334</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041103503215741</v>
+        <v>1.047085604349226</v>
       </c>
       <c r="J25">
-        <v>1.053199348148521</v>
+        <v>1.028671455409443</v>
       </c>
       <c r="K25">
-        <v>1.056865141558537</v>
+        <v>1.038471499699301</v>
       </c>
       <c r="L25">
-        <v>1.058085161545365</v>
+        <v>1.032985674887051</v>
       </c>
       <c r="M25">
-        <v>1.068725368813876</v>
+        <v>1.044605294698532</v>
       </c>
       <c r="N25">
-        <v>1.021471360835934</v>
+        <v>1.012748214560897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012296006624472</v>
+        <v>1.006059933491139</v>
       </c>
       <c r="D2">
-        <v>1.032356706387648</v>
+        <v>1.029020367782964</v>
       </c>
       <c r="E2">
-        <v>1.027307543697484</v>
+        <v>1.023020626528634</v>
       </c>
       <c r="F2">
-        <v>1.039264028990299</v>
+        <v>1.037111169274016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049209996672407</v>
+        <v>1.048028408586598</v>
       </c>
       <c r="J2">
-        <v>1.034115064622655</v>
+        <v>1.028060891477973</v>
       </c>
       <c r="K2">
-        <v>1.043382940103329</v>
+        <v>1.040089682304387</v>
       </c>
       <c r="L2">
-        <v>1.038399111342807</v>
+        <v>1.034168299558777</v>
       </c>
       <c r="M2">
-        <v>1.050202168673431</v>
+        <v>1.048076608720208</v>
       </c>
       <c r="N2">
-        <v>1.014640232982395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013209991442743</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046621775876759</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.039417156634015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017917489178277</v>
+        <v>1.009440659123354</v>
       </c>
       <c r="D3">
-        <v>1.036637096638933</v>
+        <v>1.031207953977885</v>
       </c>
       <c r="E3">
-        <v>1.03195895075812</v>
+        <v>1.025577499210653</v>
       </c>
       <c r="F3">
-        <v>1.044030813897846</v>
+        <v>1.039505016460861</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05067872263443</v>
+        <v>1.048546016372179</v>
       </c>
       <c r="J3">
-        <v>1.037931343299201</v>
+        <v>1.029677229452385</v>
       </c>
       <c r="K3">
-        <v>1.046821714813756</v>
+        <v>1.041456507321966</v>
       </c>
       <c r="L3">
-        <v>1.042198610484604</v>
+        <v>1.035893245499939</v>
       </c>
       <c r="M3">
-        <v>1.054129682271802</v>
+        <v>1.049656194469681</v>
       </c>
       <c r="N3">
-        <v>1.015965115085846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013760224769999</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047871900530523</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04038095551786</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021471622686164</v>
+        <v>1.011594582526155</v>
       </c>
       <c r="D4">
-        <v>1.039345699468732</v>
+        <v>1.032605239474061</v>
       </c>
       <c r="E4">
-        <v>1.03490559449894</v>
+        <v>1.027212421076596</v>
       </c>
       <c r="F4">
-        <v>1.047049924094261</v>
+        <v>1.041035898440074</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051596574540788</v>
+        <v>1.048866969115767</v>
       </c>
       <c r="J4">
-        <v>1.040341585103796</v>
+        <v>1.030706277022601</v>
       </c>
       <c r="K4">
-        <v>1.048991361400531</v>
+        <v>1.042325451209713</v>
       </c>
       <c r="L4">
-        <v>1.04460022997399</v>
+        <v>1.03699314555776</v>
       </c>
       <c r="M4">
-        <v>1.056611818349341</v>
+        <v>1.050663052582521</v>
       </c>
       <c r="N4">
-        <v>1.01680109637956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014110419729541</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048668752748972</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040996265710682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022946676440403</v>
+        <v>1.012494810296466</v>
       </c>
       <c r="D5">
-        <v>1.040470328124951</v>
+        <v>1.033191863650525</v>
       </c>
       <c r="E5">
-        <v>1.036129860308075</v>
+        <v>1.027897532549685</v>
       </c>
       <c r="F5">
-        <v>1.04830414096386</v>
+        <v>1.041677631218514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051974880287985</v>
+        <v>1.049000208416794</v>
       </c>
       <c r="J5">
-        <v>1.041341231287327</v>
+        <v>1.0311374360302</v>
       </c>
       <c r="K5">
-        <v>1.049890680162607</v>
+        <v>1.042690555819828</v>
       </c>
       <c r="L5">
-        <v>1.045596767616568</v>
+        <v>1.037454065153053</v>
       </c>
       <c r="M5">
-        <v>1.057641661365328</v>
+        <v>1.051085118315438</v>
       </c>
       <c r="N5">
-        <v>1.01714762422099</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014257334618977</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04900278567282</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041261582665379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.023193247905713</v>
+        <v>1.012648618596593</v>
       </c>
       <c r="D6">
-        <v>1.040658348912195</v>
+        <v>1.033294347143706</v>
       </c>
       <c r="E6">
-        <v>1.036334586521235</v>
+        <v>1.028015171548796</v>
       </c>
       <c r="F6">
-        <v>1.048513866260248</v>
+        <v>1.041788039484152</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052037962484777</v>
+        <v>1.049024366539143</v>
       </c>
       <c r="J6">
-        <v>1.041508292741334</v>
+        <v>1.031212635938578</v>
       </c>
       <c r="K6">
-        <v>1.050040942511607</v>
+        <v>1.04275583605972</v>
       </c>
       <c r="L6">
-        <v>1.045763336885714</v>
+        <v>1.037534073603585</v>
       </c>
       <c r="M6">
-        <v>1.057813791174194</v>
+        <v>1.051158650723309</v>
       </c>
       <c r="N6">
-        <v>1.01720552442804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014283220155202</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049060980965167</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041316470558058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021491406407085</v>
+        <v>1.011615003441289</v>
       </c>
       <c r="D7">
-        <v>1.039360781373438</v>
+        <v>1.032624450841154</v>
       </c>
       <c r="E7">
-        <v>1.034922009404978</v>
+        <v>1.027229311529388</v>
       </c>
       <c r="F7">
-        <v>1.047066741213085</v>
+        <v>1.041052285730822</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051601658895712</v>
+        <v>1.048874078811483</v>
       </c>
       <c r="J7">
-        <v>1.040354995248423</v>
+        <v>1.03072020782822</v>
       </c>
       <c r="K7">
-        <v>1.049003427825775</v>
+        <v>1.042341573590329</v>
       </c>
       <c r="L7">
-        <v>1.044613596577405</v>
+        <v>1.037006950269363</v>
       </c>
       <c r="M7">
-        <v>1.056625632103318</v>
+        <v>1.050676416946739</v>
       </c>
       <c r="N7">
-        <v>1.01680574579546</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014115884046582</v>
+      </c>
+      <c r="O7">
+        <v>1.029999999999999</v>
+      </c>
+      <c r="P7">
+        <v>1.048679329629015</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041027743427492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014213596622936</v>
+        <v>1.007220008379692</v>
       </c>
       <c r="D8">
-        <v>1.033816281361962</v>
+        <v>1.029777553598442</v>
       </c>
       <c r="E8">
-        <v>1.02889295800298</v>
+        <v>1.023898488396151</v>
       </c>
       <c r="F8">
-        <v>1.040888895936961</v>
+        <v>1.037933667581999</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04971323066154</v>
+        <v>1.048212851200854</v>
       </c>
       <c r="J8">
-        <v>1.035417375912084</v>
+        <v>1.028620826625509</v>
       </c>
       <c r="K8">
-        <v>1.044556873257417</v>
+        <v>1.040568727823826</v>
       </c>
       <c r="L8">
-        <v>1.039695277330424</v>
+        <v>1.034764184888549</v>
       </c>
       <c r="M8">
-        <v>1.051542084332148</v>
+        <v>1.048623196425374</v>
       </c>
       <c r="N8">
-        <v>1.015092507722615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013401566784429</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047054359637459</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039778755869794</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000709934655883</v>
+        <v>0.9991943636270516</v>
       </c>
       <c r="D9">
-        <v>1.023551371989805</v>
+        <v>1.024599118338474</v>
       </c>
       <c r="E9">
-        <v>1.017756182465735</v>
+        <v>1.017861852090626</v>
       </c>
       <c r="F9">
-        <v>1.029472645801542</v>
+        <v>1.032282741053239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046125763669378</v>
+        <v>1.046930787601958</v>
       </c>
       <c r="J9">
-        <v>1.026237648183947</v>
+        <v>1.024775603102106</v>
       </c>
       <c r="K9">
-        <v>1.036273560968351</v>
+        <v>1.037305312525232</v>
       </c>
       <c r="L9">
-        <v>1.03056760011029</v>
+        <v>1.030671631119563</v>
       </c>
       <c r="M9">
-        <v>1.042104986108836</v>
+        <v>1.044872900221709</v>
       </c>
       <c r="N9">
-        <v>1.011901612930481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012091198716212</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.044086272324051</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037468141995559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9911887868499188</v>
+        <v>0.9936944399883472</v>
       </c>
       <c r="D10">
-        <v>1.016334863727503</v>
+        <v>1.021091851280908</v>
       </c>
       <c r="E10">
-        <v>1.009942584599433</v>
+        <v>1.01378282555935</v>
       </c>
       <c r="F10">
-        <v>1.021460371046579</v>
+        <v>1.028503681783752</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043543077424021</v>
+        <v>1.046026551719534</v>
       </c>
       <c r="J10">
-        <v>1.019756408879043</v>
+        <v>1.022160487328683</v>
       </c>
       <c r="K10">
-        <v>1.030415320256879</v>
+        <v>1.035090449613173</v>
       </c>
       <c r="L10">
-        <v>1.024134613456533</v>
+        <v>1.027907607482712</v>
       </c>
       <c r="M10">
-        <v>1.035452669002975</v>
+        <v>1.042376683010425</v>
       </c>
       <c r="N10">
-        <v>1.00964547300806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011203126528705</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042161900347686</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035918898029832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9869275807209469</v>
+        <v>0.9916175019665499</v>
       </c>
       <c r="D11">
-        <v>1.013111482686904</v>
+        <v>1.01991802686535</v>
       </c>
       <c r="E11">
-        <v>1.006455974084796</v>
+        <v>1.012436054495594</v>
       </c>
       <c r="F11">
-        <v>1.017884622041945</v>
+        <v>1.027556885337162</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042375381168876</v>
+        <v>1.045814784223079</v>
       </c>
       <c r="J11">
-        <v>1.016854484248342</v>
+        <v>1.021343208918564</v>
       </c>
       <c r="K11">
-        <v>1.027790300321513</v>
+        <v>1.034473846191263</v>
       </c>
       <c r="L11">
-        <v>1.021257158605203</v>
+        <v>1.02712719493784</v>
       </c>
       <c r="M11">
-        <v>1.032476962262089</v>
+        <v>1.041977180935071</v>
       </c>
       <c r="N11">
-        <v>1.00863468467668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010954538567135</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04228004334403</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.035515754536035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9853225219959845</v>
+        <v>0.9909656295885166</v>
       </c>
       <c r="D12">
-        <v>1.011898424372776</v>
+        <v>1.019607387352907</v>
       </c>
       <c r="E12">
-        <v>1.00514434966496</v>
+        <v>1.012091728533773</v>
       </c>
       <c r="F12">
-        <v>1.016539404203033</v>
+        <v>1.02746014507657</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041933848176545</v>
+        <v>1.045803700210974</v>
       </c>
       <c r="J12">
-        <v>1.015761315855895</v>
+        <v>1.021157323463618</v>
       </c>
       <c r="K12">
-        <v>1.026801165254834</v>
+        <v>1.034368340888357</v>
       </c>
       <c r="L12">
-        <v>1.020173651275967</v>
+        <v>1.026990879628559</v>
       </c>
       <c r="M12">
-        <v>1.031356450158513</v>
+        <v>1.042079506750025</v>
       </c>
       <c r="N12">
-        <v>1.008253836433474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010914804364585</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.042686053412206</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035441158979413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9856678444556555</v>
+        <v>0.9913778293858488</v>
       </c>
       <c r="D13">
-        <v>1.012159358248006</v>
+        <v>1.019954990779364</v>
       </c>
       <c r="E13">
-        <v>1.005426463580258</v>
+        <v>1.012506803963273</v>
       </c>
       <c r="F13">
-        <v>1.01682874616636</v>
+        <v>1.028029971261918</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042028917877571</v>
+        <v>1.045957976914676</v>
       </c>
       <c r="J13">
-        <v>1.015996510521007</v>
+        <v>1.021457657187334</v>
       </c>
       <c r="K13">
-        <v>1.027013989281095</v>
+        <v>1.034666831443269</v>
       </c>
       <c r="L13">
-        <v>1.020406747134767</v>
+        <v>1.027355009904803</v>
       </c>
       <c r="M13">
-        <v>1.031597507011021</v>
+        <v>1.04259686786636</v>
       </c>
       <c r="N13">
-        <v>1.008335779128143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011038406605083</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.043370786088712</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035649710567877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9867953689579556</v>
+        <v>0.9921499100381733</v>
       </c>
       <c r="D14">
-        <v>1.013011537946711</v>
+        <v>1.020498362359838</v>
       </c>
       <c r="E14">
-        <v>1.006347898505841</v>
+        <v>1.01314224311292</v>
       </c>
       <c r="F14">
-        <v>1.017773779578819</v>
+        <v>1.028731848827377</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042339045320316</v>
+        <v>1.046141320938744</v>
       </c>
       <c r="J14">
-        <v>1.016764439577627</v>
+        <v>1.021889074712814</v>
       </c>
       <c r="K14">
-        <v>1.027708830389508</v>
+        <v>1.035060269356829</v>
       </c>
       <c r="L14">
-        <v>1.021167900641281</v>
+        <v>1.027837149654776</v>
       </c>
       <c r="M14">
-        <v>1.032384655969488</v>
+        <v>1.04314781650265</v>
       </c>
       <c r="N14">
-        <v>1.008603315608661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011199354427603</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043979061841251</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03592930701754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9874870791275556</v>
+        <v>0.9925732389918626</v>
       </c>
       <c r="D15">
-        <v>1.013534477335987</v>
+        <v>1.020780424753142</v>
       </c>
       <c r="E15">
-        <v>1.006913400781301</v>
+        <v>1.013468917185206</v>
       </c>
       <c r="F15">
-        <v>1.018353757104244</v>
+        <v>1.029059676472041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042529079743823</v>
+        <v>1.046225386296524</v>
       </c>
       <c r="J15">
-        <v>1.017235534583382</v>
+        <v>1.022105296380147</v>
       </c>
       <c r="K15">
-        <v>1.028135052997844</v>
+        <v>1.03525099985381</v>
       </c>
       <c r="L15">
-        <v>1.021634897886324</v>
+        <v>1.028070680107005</v>
       </c>
       <c r="M15">
-        <v>1.032867601816891</v>
+        <v>1.043384613631847</v>
       </c>
       <c r="N15">
-        <v>1.008767428893045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011276132292899</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.044203650756773</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036070025044207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9914685503943417</v>
+        <v>0.994819072610719</v>
       </c>
       <c r="D16">
-        <v>1.01654663343325</v>
+        <v>1.022201386470585</v>
       </c>
       <c r="E16">
-        <v>1.010171718007573</v>
+        <v>1.015116989067823</v>
       </c>
       <c r="F16">
-        <v>1.02169535339905</v>
+        <v>1.030573777237949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043619501551908</v>
+        <v>1.04659475739452</v>
       </c>
       <c r="J16">
-        <v>1.019946911507091</v>
+        <v>1.023162316398956</v>
       </c>
       <c r="K16">
-        <v>1.030587604898952</v>
+        <v>1.036145497636435</v>
       </c>
       <c r="L16">
-        <v>1.024323570324667</v>
+        <v>1.029182670038997</v>
       </c>
       <c r="M16">
-        <v>1.035648076000418</v>
+        <v>1.044376992037136</v>
       </c>
       <c r="N16">
-        <v>1.009711816468277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011631112349163</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044949427145738</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036705630724447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9939279609866239</v>
+        <v>0.996139727466111</v>
       </c>
       <c r="D17">
-        <v>1.018409046610139</v>
+        <v>1.023008279729857</v>
       </c>
       <c r="E17">
-        <v>1.012187228053469</v>
+        <v>1.016050033068478</v>
       </c>
       <c r="F17">
-        <v>1.023762258434062</v>
+        <v>1.031364572644264</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044290016518552</v>
+        <v>1.046779469861853</v>
       </c>
       <c r="J17">
-        <v>1.021621495213767</v>
+        <v>1.023747062797519</v>
       </c>
       <c r="K17">
-        <v>1.032101818180707</v>
+        <v>1.036624568722436</v>
       </c>
       <c r="L17">
-        <v>1.025984892867738</v>
+        <v>1.029782380112289</v>
       </c>
       <c r="M17">
-        <v>1.037366093559129</v>
+        <v>1.04484414261572</v>
       </c>
       <c r="N17">
-        <v>1.010294929631945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011818970881016</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.045190056717191</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037046937861519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9953492362918017</v>
+        <v>0.9967800497661926</v>
       </c>
       <c r="D18">
-        <v>1.019485916232816</v>
+        <v>1.023344212059031</v>
       </c>
       <c r="E18">
-        <v>1.013352950656932</v>
+        <v>1.016435011820289</v>
       </c>
       <c r="F18">
-        <v>1.024957659927864</v>
+        <v>1.031570428854008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044676379855585</v>
+        <v>1.0468145660134</v>
       </c>
       <c r="J18">
-        <v>1.022589102622901</v>
+        <v>1.023965257293145</v>
       </c>
       <c r="K18">
-        <v>1.032976565723019</v>
+        <v>1.036771803256776</v>
       </c>
       <c r="L18">
-        <v>1.026945107779823</v>
+        <v>1.029975960205102</v>
       </c>
       <c r="M18">
-        <v>1.038359062396525</v>
+        <v>1.044865592948375</v>
       </c>
       <c r="N18">
-        <v>1.01063180442568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011874707641254</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044970194837625</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037139413665699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9958316477510955</v>
+        <v>0.9968146699437542</v>
       </c>
       <c r="D19">
-        <v>1.019851526240603</v>
+        <v>1.023268705096573</v>
       </c>
       <c r="E19">
-        <v>1.013748784129676</v>
+        <v>1.016330593940593</v>
       </c>
       <c r="F19">
-        <v>1.025363562905439</v>
+        <v>1.031253510708796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044807327365634</v>
+        <v>1.046723674843044</v>
       </c>
       <c r="J19">
-        <v>1.022917506450243</v>
+        <v>1.023863223190794</v>
       </c>
       <c r="K19">
-        <v>1.033273419279843</v>
+        <v>1.036635067600815</v>
       </c>
       <c r="L19">
-        <v>1.027271048059181</v>
+        <v>1.029810205993608</v>
       </c>
       <c r="M19">
-        <v>1.038696117928283</v>
+        <v>1.044491954637808</v>
       </c>
       <c r="N19">
-        <v>1.010746128514447</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011817857325111</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.044350607784063</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037049125757443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.993665470842399</v>
+        <v>0.9951395790147052</v>
       </c>
       <c r="D20">
-        <v>1.018210210724213</v>
+        <v>1.022027048717675</v>
       </c>
       <c r="E20">
-        <v>1.011972013040628</v>
+        <v>1.014856967076192</v>
       </c>
       <c r="F20">
-        <v>1.023541560259552</v>
+        <v>1.029501865943028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044218569192364</v>
+        <v>1.046277928586581</v>
       </c>
       <c r="J20">
-        <v>1.02144278091209</v>
+        <v>1.022859156058357</v>
       </c>
       <c r="K20">
-        <v>1.03194023888668</v>
+        <v>1.035693329815065</v>
       </c>
       <c r="L20">
-        <v>1.025807565696584</v>
+        <v>1.028643510162016</v>
       </c>
       <c r="M20">
-        <v>1.03718271628244</v>
+        <v>1.043045065712129</v>
       </c>
       <c r="N20">
-        <v>1.01023270492465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011442701588964</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.042680349960034</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.036387197977617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9864639678093515</v>
+        <v>0.9909531792938805</v>
       </c>
       <c r="D21">
-        <v>1.012761035026683</v>
+        <v>1.019335512728299</v>
       </c>
       <c r="E21">
-        <v>1.006077024220161</v>
+        <v>1.011728206610844</v>
       </c>
       <c r="F21">
-        <v>1.017495969606154</v>
+        <v>1.026545264739323</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042247939019426</v>
+        <v>1.045546779303799</v>
       </c>
       <c r="J21">
-        <v>1.016538732741405</v>
+        <v>1.020834075204292</v>
       </c>
       <c r="K21">
-        <v>1.027504612699981</v>
+        <v>1.033959599229033</v>
       </c>
       <c r="L21">
-        <v>1.020944172952146</v>
+        <v>1.02649073982209</v>
       </c>
       <c r="M21">
-        <v>1.032153287476668</v>
+        <v>1.041040596205544</v>
       </c>
       <c r="N21">
-        <v>1.008524684366431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010749478838896</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.041053269314482</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03516460905155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9818065074556085</v>
+        <v>0.9882881731268774</v>
       </c>
       <c r="D22">
-        <v>1.009243264801363</v>
+        <v>1.017630663088195</v>
       </c>
       <c r="E22">
-        <v>1.002274328321298</v>
+        <v>1.009754489053039</v>
       </c>
       <c r="F22">
-        <v>1.013595778758061</v>
+        <v>1.024699048069285</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040963591995619</v>
+        <v>1.045077308250125</v>
       </c>
       <c r="J22">
-        <v>1.013366533954728</v>
+        <v>1.019551157941609</v>
       </c>
       <c r="K22">
-        <v>1.024633808120629</v>
+        <v>1.032860761490735</v>
       </c>
       <c r="L22">
-        <v>1.017800864563321</v>
+        <v>1.025135153080056</v>
       </c>
       <c r="M22">
-        <v>1.028902627870144</v>
+        <v>1.039796593424317</v>
       </c>
       <c r="N22">
-        <v>1.007419388655884</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.01031095747014</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.040068724604215</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034374182502403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9842883185486846</v>
+        <v>0.9896975128332696</v>
       </c>
       <c r="D23">
-        <v>1.011117124905042</v>
+        <v>1.018526546707053</v>
       </c>
       <c r="E23">
-        <v>1.004299702499973</v>
+        <v>1.010796085151775</v>
       </c>
       <c r="F23">
-        <v>1.015673108441441</v>
+        <v>1.025672949293124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041648881644266</v>
+        <v>1.045322907147799</v>
       </c>
       <c r="J23">
-        <v>1.015056923891063</v>
+        <v>1.020225861692972</v>
       </c>
       <c r="K23">
-        <v>1.026163733357575</v>
+        <v>1.033435185142659</v>
       </c>
       <c r="L23">
-        <v>1.019475611088438</v>
+        <v>1.025848731370744</v>
       </c>
       <c r="M23">
-        <v>1.030634569555309</v>
+        <v>1.040450971361232</v>
       </c>
       <c r="N23">
-        <v>1.008008413052473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010540791523995</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.0405866209904</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034770693374424</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9937841197017663</v>
+        <v>0.9951625774301081</v>
       </c>
       <c r="D24">
-        <v>1.018300085219524</v>
+        <v>1.022019899769433</v>
       </c>
       <c r="E24">
-        <v>1.012069289929718</v>
+        <v>1.014853743214093</v>
       </c>
       <c r="F24">
-        <v>1.023641315676018</v>
+        <v>1.029468566227144</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044250867773401</v>
+        <v>1.046263124880425</v>
       </c>
       <c r="J24">
-        <v>1.021523562417878</v>
+        <v>1.022848120050656</v>
       </c>
       <c r="K24">
-        <v>1.032013275721875</v>
+        <v>1.035671049785875</v>
       </c>
       <c r="L24">
-        <v>1.025887719361936</v>
+        <v>1.028624936805886</v>
       </c>
       <c r="M24">
-        <v>1.037265604703277</v>
+        <v>1.042997216289972</v>
       </c>
       <c r="N24">
-        <v>1.010260831597537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011435223410432</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.042601800079386</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.036344058785415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004287527103175</v>
+        <v>1.001315763001979</v>
       </c>
       <c r="D25">
-        <v>1.026267716703706</v>
+        <v>1.025973286537475</v>
       </c>
       <c r="E25">
-        <v>1.020700426985626</v>
+        <v>1.019453923750306</v>
       </c>
       <c r="F25">
-        <v>1.032491262842334</v>
+        <v>1.033773549066668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047085604349226</v>
+        <v>1.047283673726025</v>
       </c>
       <c r="J25">
-        <v>1.028671455409443</v>
+        <v>1.025798927465424</v>
       </c>
       <c r="K25">
-        <v>1.038471499699301</v>
+        <v>1.038181349782904</v>
       </c>
       <c r="L25">
-        <v>1.032985674887051</v>
+        <v>1.031757566336705</v>
       </c>
       <c r="M25">
-        <v>1.044605294698532</v>
+        <v>1.045869258696118</v>
       </c>
       <c r="N25">
-        <v>1.012748214560897</v>
+        <v>1.012441268001447</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044874818929456</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038116108070797</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_22/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006059933491139</v>
+        <v>1.005734519745708</v>
       </c>
       <c r="D2">
-        <v>1.029020367782964</v>
+        <v>1.028200871293233</v>
       </c>
       <c r="E2">
-        <v>1.023020626528634</v>
+        <v>1.022684529569844</v>
       </c>
       <c r="F2">
-        <v>1.037111169274016</v>
+        <v>1.036627589207797</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048028408586598</v>
+        <v>1.047693629023376</v>
       </c>
       <c r="J2">
-        <v>1.028060891477973</v>
+        <v>1.02774505477206</v>
       </c>
       <c r="K2">
-        <v>1.040089682304387</v>
+        <v>1.039280821186706</v>
       </c>
       <c r="L2">
-        <v>1.034168299558777</v>
+        <v>1.033836626227118</v>
       </c>
       <c r="M2">
-        <v>1.048076608720208</v>
+        <v>1.047599180265129</v>
       </c>
       <c r="N2">
-        <v>1.013209991442743</v>
+        <v>1.01452108036803</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046621775876759</v>
+        <v>1.046243926341967</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.039417156634015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038853987594469</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022498925262177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009440659123354</v>
+        <v>1.009008326028527</v>
       </c>
       <c r="D3">
-        <v>1.031207953977885</v>
+        <v>1.030253337537641</v>
       </c>
       <c r="E3">
-        <v>1.025577499210653</v>
+        <v>1.025147050954261</v>
       </c>
       <c r="F3">
-        <v>1.039505016460861</v>
+        <v>1.038927491564149</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048546016372179</v>
+        <v>1.048152046603434</v>
       </c>
       <c r="J3">
-        <v>1.029677229452385</v>
+        <v>1.029256391508076</v>
       </c>
       <c r="K3">
-        <v>1.041456507321966</v>
+        <v>1.040513219041808</v>
       </c>
       <c r="L3">
-        <v>1.035893245499939</v>
+        <v>1.035467971831329</v>
       </c>
       <c r="M3">
-        <v>1.049656194469681</v>
+        <v>1.049085385202282</v>
       </c>
       <c r="N3">
-        <v>1.013760224769999</v>
+        <v>1.014929978558668</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047871900530523</v>
+        <v>1.047420147688056</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04038095551786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039722460244306</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022730700757429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011594582526155</v>
+        <v>1.011094804196075</v>
       </c>
       <c r="D4">
-        <v>1.032605239474061</v>
+        <v>1.031564944168531</v>
       </c>
       <c r="E4">
-        <v>1.027212421076596</v>
+        <v>1.026722352267862</v>
       </c>
       <c r="F4">
-        <v>1.041035898440074</v>
+        <v>1.040398918945599</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048866969115767</v>
+        <v>1.048435429957997</v>
       </c>
       <c r="J4">
-        <v>1.030706277022601</v>
+        <v>1.030218899560668</v>
       </c>
       <c r="K4">
-        <v>1.042325451209713</v>
+        <v>1.041296768420201</v>
       </c>
       <c r="L4">
-        <v>1.03699314555776</v>
+        <v>1.036508614632585</v>
       </c>
       <c r="M4">
-        <v>1.050663052582521</v>
+        <v>1.050033039384809</v>
       </c>
       <c r="N4">
-        <v>1.014110419729541</v>
+        <v>1.015190343228679</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048668752748972</v>
+        <v>1.048170144944298</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040996265710682</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040277472082138</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022875787347101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012494810296466</v>
+        <v>1.011967011990901</v>
       </c>
       <c r="D5">
-        <v>1.033191863650525</v>
+        <v>1.032115918857078</v>
       </c>
       <c r="E5">
-        <v>1.027897532549685</v>
+        <v>1.027382677350827</v>
       </c>
       <c r="F5">
-        <v>1.041677631218514</v>
+        <v>1.041015927315266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049000208416794</v>
+        <v>1.048553023651985</v>
       </c>
       <c r="J5">
-        <v>1.0311374360302</v>
+        <v>1.030622347417646</v>
       </c>
       <c r="K5">
-        <v>1.042690555819828</v>
+        <v>1.041626306736569</v>
       </c>
       <c r="L5">
-        <v>1.037454065153053</v>
+        <v>1.03694487380944</v>
       </c>
       <c r="M5">
-        <v>1.051085118315438</v>
+        <v>1.050430460960195</v>
       </c>
       <c r="N5">
-        <v>1.014257334618977</v>
+        <v>1.015299638591968</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04900278567282</v>
+        <v>1.048484674107397</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041261582665379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040518350750228</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022936660436354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012648618596593</v>
+        <v>1.012116058099234</v>
       </c>
       <c r="D6">
-        <v>1.033294347143706</v>
+        <v>1.032212394350038</v>
       </c>
       <c r="E6">
-        <v>1.028015171548796</v>
+        <v>1.027496108459081</v>
       </c>
       <c r="F6">
-        <v>1.041788039484152</v>
+        <v>1.041122154745884</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049024366539143</v>
+        <v>1.048574538006792</v>
       </c>
       <c r="J6">
-        <v>1.031212635938578</v>
+        <v>1.03069283468831</v>
       </c>
       <c r="K6">
-        <v>1.04275583605972</v>
+        <v>1.041685591245276</v>
       </c>
       <c r="L6">
-        <v>1.037534073603585</v>
+        <v>1.037020694649432</v>
       </c>
       <c r="M6">
-        <v>1.051158650723309</v>
+        <v>1.050499825016491</v>
       </c>
       <c r="N6">
-        <v>1.014283220155202</v>
+        <v>1.015318942673585</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049060980965167</v>
+        <v>1.048539570505817</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041316470558058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040569866447249</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022948073911818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011615003441289</v>
+        <v>1.011121623749854</v>
       </c>
       <c r="D7">
-        <v>1.032624450841154</v>
+        <v>1.031588285786138</v>
       </c>
       <c r="E7">
-        <v>1.027229311529388</v>
+        <v>1.02674441688191</v>
       </c>
       <c r="F7">
-        <v>1.041052285730822</v>
+        <v>1.04041912444869</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.048874078811483</v>
+        <v>1.048444492576613</v>
       </c>
       <c r="J7">
-        <v>1.03072020782822</v>
+        <v>1.030239064999206</v>
       </c>
       <c r="K7">
-        <v>1.042341573590329</v>
+        <v>1.04131697050539</v>
       </c>
       <c r="L7">
-        <v>1.037006950269363</v>
+        <v>1.036527532951752</v>
       </c>
       <c r="M7">
-        <v>1.050676416946739</v>
+        <v>1.050050177602521</v>
       </c>
       <c r="N7">
-        <v>1.014115884046582</v>
+        <v>1.015222173412067</v>
       </c>
       <c r="O7">
-        <v>1.029999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048679329629015</v>
+        <v>1.048183708552068</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041027743427492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040313829778003</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022881384618134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007220008379692</v>
+        <v>1.006879317669304</v>
       </c>
       <c r="D8">
-        <v>1.029777553598442</v>
+        <v>1.028926494613142</v>
       </c>
       <c r="E8">
-        <v>1.023898488396151</v>
+        <v>1.023547489445748</v>
       </c>
       <c r="F8">
-        <v>1.037933667581999</v>
+        <v>1.037431120152227</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048212851200854</v>
+        <v>1.04786474489836</v>
       </c>
       <c r="J8">
-        <v>1.028620826625509</v>
+        <v>1.028289830289664</v>
       </c>
       <c r="K8">
-        <v>1.040568727823826</v>
+        <v>1.039728390973665</v>
       </c>
       <c r="L8">
-        <v>1.034764184888549</v>
+        <v>1.034417668992333</v>
       </c>
       <c r="M8">
-        <v>1.048623196425374</v>
+        <v>1.048126854460753</v>
       </c>
       <c r="N8">
-        <v>1.013401566784429</v>
+        <v>1.014747650641822</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047054359637459</v>
+        <v>1.046661541676411</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039778755869794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039195594511434</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022586814295574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9991943636270516</v>
+        <v>0.999114827395322</v>
       </c>
       <c r="D9">
-        <v>1.024599118338474</v>
+        <v>1.024073353023288</v>
       </c>
       <c r="E9">
-        <v>1.017861852090626</v>
+        <v>1.017740402598954</v>
       </c>
       <c r="F9">
-        <v>1.032282741053239</v>
+        <v>1.032007618161559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046930787601958</v>
+        <v>1.046725067653973</v>
       </c>
       <c r="J9">
-        <v>1.024775603102106</v>
+        <v>1.024698882157195</v>
       </c>
       <c r="K9">
-        <v>1.037305312525232</v>
+        <v>1.036787568274026</v>
       </c>
       <c r="L9">
-        <v>1.030671631119563</v>
+        <v>1.030552064978772</v>
       </c>
       <c r="M9">
-        <v>1.044872900221709</v>
+        <v>1.044601894174839</v>
       </c>
       <c r="N9">
-        <v>1.012091198716212</v>
+        <v>1.013784733107435</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.044086272324051</v>
+        <v>1.04387179023708</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037468141995559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03711279352127</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022019812828934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9936944399883472</v>
+        <v>0.9938271191177177</v>
       </c>
       <c r="D10">
-        <v>1.021091851280908</v>
+        <v>1.020810504541097</v>
       </c>
       <c r="E10">
-        <v>1.01378282555935</v>
+        <v>1.013845033082421</v>
       </c>
       <c r="F10">
-        <v>1.028503681783752</v>
+        <v>1.028404471629083</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046026551719534</v>
+        <v>1.045928139528861</v>
       </c>
       <c r="J10">
-        <v>1.022160487328683</v>
+        <v>1.022287808132495</v>
       </c>
       <c r="K10">
-        <v>1.035090449613173</v>
+        <v>1.034813916857568</v>
       </c>
       <c r="L10">
-        <v>1.027907607482712</v>
+        <v>1.027968731111093</v>
       </c>
       <c r="M10">
-        <v>1.042376683010425</v>
+        <v>1.042279138607834</v>
       </c>
       <c r="N10">
-        <v>1.011203126528705</v>
+        <v>1.01325108990649</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042161900347686</v>
+        <v>1.042084705436889</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035918898029832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035735776222625</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021634656731757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9916175019665499</v>
+        <v>0.9918618737180658</v>
       </c>
       <c r="D11">
-        <v>1.01991802686535</v>
+        <v>1.019742995510492</v>
       </c>
       <c r="E11">
-        <v>1.012436054495594</v>
+        <v>1.012590841269511</v>
       </c>
       <c r="F11">
-        <v>1.027556885337162</v>
+        <v>1.027539937485044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045814784223079</v>
+        <v>1.045761996659409</v>
       </c>
       <c r="J11">
-        <v>1.021343208918564</v>
+        <v>1.021577171503769</v>
       </c>
       <c r="K11">
-        <v>1.034473846191263</v>
+        <v>1.034301951039019</v>
       </c>
       <c r="L11">
-        <v>1.02712719493784</v>
+        <v>1.027279155824006</v>
       </c>
       <c r="M11">
-        <v>1.041977180935071</v>
+        <v>1.041960530870318</v>
       </c>
       <c r="N11">
-        <v>1.010954538567135</v>
+        <v>1.013308387397268</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04228004334403</v>
+        <v>1.042266873346385</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035515754536035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03540982630445</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021570883552099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9909656295885166</v>
+        <v>0.991243490603488</v>
       </c>
       <c r="D12">
-        <v>1.019607387352907</v>
+        <v>1.019460986261046</v>
       </c>
       <c r="E12">
-        <v>1.012091728533773</v>
+        <v>1.01227301007617</v>
       </c>
       <c r="F12">
-        <v>1.02746014507657</v>
+        <v>1.027466169031198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045803700210974</v>
+        <v>1.045762067137539</v>
       </c>
       <c r="J12">
-        <v>1.021157323463618</v>
+        <v>1.021423121277724</v>
       </c>
       <c r="K12">
-        <v>1.034368340888357</v>
+        <v>1.034224606487831</v>
       </c>
       <c r="L12">
-        <v>1.026990879628559</v>
+        <v>1.027168796276415</v>
       </c>
       <c r="M12">
-        <v>1.042079506750025</v>
+        <v>1.042085423166325</v>
       </c>
       <c r="N12">
-        <v>1.010914804364585</v>
+        <v>1.013385056781106</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.042686053412206</v>
+        <v>1.042690731653942</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035441158979413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035355142410478</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021581552438263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9913778293858488</v>
+        <v>0.9916206485027804</v>
       </c>
       <c r="D13">
-        <v>1.019954990779364</v>
+        <v>1.019771789045808</v>
       </c>
       <c r="E13">
-        <v>1.012506803963273</v>
+        <v>1.012656934779746</v>
       </c>
       <c r="F13">
-        <v>1.028029971261918</v>
+        <v>1.028008188646363</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045957976914676</v>
+        <v>1.045898344728284</v>
       </c>
       <c r="J13">
-        <v>1.021457657187334</v>
+        <v>1.021689985020061</v>
       </c>
       <c r="K13">
-        <v>1.034666831443269</v>
+        <v>1.034486952779429</v>
       </c>
       <c r="L13">
-        <v>1.027355009904803</v>
+        <v>1.027502366226214</v>
       </c>
       <c r="M13">
-        <v>1.04259686786636</v>
+        <v>1.042575472269047</v>
       </c>
       <c r="N13">
-        <v>1.011038406605083</v>
+        <v>1.013449697767367</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.043370786088712</v>
+        <v>1.043353872337745</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035649710567877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035537892927225</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021654385292568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9921499100381733</v>
+        <v>0.9923376418078618</v>
       </c>
       <c r="D14">
-        <v>1.020498362359838</v>
+        <v>1.020260207112895</v>
       </c>
       <c r="E14">
-        <v>1.01314224311292</v>
+        <v>1.013244955485116</v>
       </c>
       <c r="F14">
-        <v>1.028731848827377</v>
+        <v>1.02866802717729</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046141320938744</v>
+        <v>1.046056220288685</v>
       </c>
       <c r="J14">
-        <v>1.021889074712814</v>
+        <v>1.022068810071426</v>
       </c>
       <c r="K14">
-        <v>1.035060269356829</v>
+        <v>1.034826380964721</v>
       </c>
       <c r="L14">
-        <v>1.027837149654776</v>
+        <v>1.027937987670589</v>
       </c>
       <c r="M14">
-        <v>1.04314781650265</v>
+        <v>1.043085114455406</v>
       </c>
       <c r="N14">
-        <v>1.011199354427603</v>
+        <v>1.013491016291714</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043979061841251</v>
+        <v>1.043929500974369</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03592930701754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035779436274407</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02173410464981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9925732389918626</v>
+        <v>0.992733156991122</v>
       </c>
       <c r="D15">
-        <v>1.020780424753142</v>
+        <v>1.020514922481935</v>
       </c>
       <c r="E15">
-        <v>1.013468917185206</v>
+        <v>1.013547976887648</v>
       </c>
       <c r="F15">
-        <v>1.029059676472041</v>
+        <v>1.028974883053857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046225386296524</v>
+        <v>1.046127924965561</v>
       </c>
       <c r="J15">
-        <v>1.022105296380147</v>
+        <v>1.022258461635914</v>
       </c>
       <c r="K15">
-        <v>1.03525099985381</v>
+        <v>1.034990218709222</v>
       </c>
       <c r="L15">
-        <v>1.028070680107005</v>
+        <v>1.028148308104638</v>
       </c>
       <c r="M15">
-        <v>1.043384613631847</v>
+        <v>1.043301296411595</v>
       </c>
       <c r="N15">
-        <v>1.011276132292899</v>
+        <v>1.013502902856407</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.044203650756773</v>
+        <v>1.044137797000827</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036070025044207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035901708261096</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021769241458388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.994819072610719</v>
+        <v>0.9948488201478513</v>
       </c>
       <c r="D16">
-        <v>1.022201386470585</v>
+        <v>1.021806963053479</v>
       </c>
       <c r="E16">
-        <v>1.015116989067823</v>
+        <v>1.015086273308164</v>
       </c>
       <c r="F16">
-        <v>1.030573777237949</v>
+        <v>1.030390752534728</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04659475739452</v>
+        <v>1.046440537502058</v>
       </c>
       <c r="J16">
-        <v>1.023162316398956</v>
+        <v>1.023190870076649</v>
       </c>
       <c r="K16">
-        <v>1.036145497636435</v>
+        <v>1.035757785386912</v>
       </c>
       <c r="L16">
-        <v>1.029182670038997</v>
+        <v>1.029152486148667</v>
       </c>
       <c r="M16">
-        <v>1.044376992037136</v>
+        <v>1.04419701586615</v>
       </c>
       <c r="N16">
-        <v>1.011631112349163</v>
+        <v>1.0135452370284</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044949427145738</v>
+        <v>1.044807170337533</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036705630724447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036447867759253</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02191596279251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.996139727466111</v>
+        <v>0.9961064738633206</v>
       </c>
       <c r="D17">
-        <v>1.023008279729857</v>
+        <v>1.022549232651043</v>
       </c>
       <c r="E17">
-        <v>1.016050033068478</v>
+        <v>1.015966340772095</v>
       </c>
       <c r="F17">
-        <v>1.031364572644264</v>
+        <v>1.031133114334843</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046779469861853</v>
+        <v>1.046597437283372</v>
       </c>
       <c r="J17">
-        <v>1.023747062797519</v>
+        <v>1.023715101178719</v>
       </c>
       <c r="K17">
-        <v>1.036624568722436</v>
+        <v>1.036173115546166</v>
       </c>
       <c r="L17">
-        <v>1.029782380112289</v>
+        <v>1.029700096214826</v>
       </c>
       <c r="M17">
-        <v>1.04484414261572</v>
+        <v>1.044616432928835</v>
       </c>
       <c r="N17">
-        <v>1.011818970881016</v>
+        <v>1.01358498618237</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.045190056717191</v>
+        <v>1.045010052547882</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037046937861519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036744354790631</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021987299521178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9967800497661926</v>
+        <v>0.9967262916838034</v>
       </c>
       <c r="D18">
-        <v>1.023344212059031</v>
+        <v>1.02286370132018</v>
       </c>
       <c r="E18">
-        <v>1.016435011820289</v>
+        <v>1.016334685516558</v>
       </c>
       <c r="F18">
-        <v>1.031570428854008</v>
+        <v>1.031323123490961</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.0468145660134</v>
+        <v>1.046624201605514</v>
       </c>
       <c r="J18">
-        <v>1.023965257293145</v>
+        <v>1.023913548833246</v>
       </c>
       <c r="K18">
-        <v>1.036771803256776</v>
+        <v>1.036299112455798</v>
       </c>
       <c r="L18">
-        <v>1.029975960205102</v>
+        <v>1.029877294537433</v>
       </c>
       <c r="M18">
-        <v>1.044865592948375</v>
+        <v>1.044622229274842</v>
       </c>
       <c r="N18">
-        <v>1.011874707641254</v>
+        <v>1.013584357469647</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044970194837625</v>
+        <v>1.044777776382448</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037139413665699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036820681407209</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021993272301174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9968146699437542</v>
+        <v>0.9967726720015132</v>
       </c>
       <c r="D19">
-        <v>1.023268705096573</v>
+        <v>1.022801589017803</v>
       </c>
       <c r="E19">
-        <v>1.016330593940593</v>
+        <v>1.016241491715278</v>
       </c>
       <c r="F19">
-        <v>1.031253510708796</v>
+        <v>1.031016039713071</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046723674843044</v>
+        <v>1.046540592852087</v>
       </c>
       <c r="J19">
-        <v>1.023863223190794</v>
+        <v>1.023822816939472</v>
       </c>
       <c r="K19">
-        <v>1.036635067600815</v>
+        <v>1.036175514234759</v>
       </c>
       <c r="L19">
-        <v>1.029810205993608</v>
+        <v>1.029722571105339</v>
       </c>
       <c r="M19">
-        <v>1.044491954637808</v>
+        <v>1.044258251366821</v>
       </c>
       <c r="N19">
-        <v>1.011817857325111</v>
+        <v>1.013532333743673</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.044350607784063</v>
+        <v>1.044165767536759</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037049125757443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036740306243261</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021944702867347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9951395790147052</v>
+        <v>0.9951966214931495</v>
       </c>
       <c r="D20">
-        <v>1.022027048717675</v>
+        <v>1.021668118764969</v>
       </c>
       <c r="E20">
-        <v>1.014856967076192</v>
+        <v>1.014854701956415</v>
       </c>
       <c r="F20">
-        <v>1.029501865943028</v>
+        <v>1.029344147716125</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046277928586581</v>
+        <v>1.046144866059657</v>
       </c>
       <c r="J20">
-        <v>1.022859156058357</v>
+        <v>1.022913969343403</v>
       </c>
       <c r="K20">
-        <v>1.035693329815065</v>
+        <v>1.035340368413399</v>
       </c>
       <c r="L20">
-        <v>1.028643510162016</v>
+        <v>1.02864128338102</v>
       </c>
       <c r="M20">
-        <v>1.043045065712129</v>
+        <v>1.042889920770439</v>
       </c>
       <c r="N20">
-        <v>1.011442701588964</v>
+        <v>1.01332364229955</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.042680349960034</v>
+        <v>1.042557569529965</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.036387197977617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.036154133322114</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021740145690528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9909531792938805</v>
+        <v>0.9912717248487223</v>
       </c>
       <c r="D21">
-        <v>1.019335512728299</v>
+        <v>1.019233452486808</v>
       </c>
       <c r="E21">
-        <v>1.011728206610844</v>
+        <v>1.011948002504315</v>
       </c>
       <c r="F21">
-        <v>1.026545264739323</v>
+        <v>1.026585002864216</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045546779303799</v>
+        <v>1.04552939042473</v>
       </c>
       <c r="J21">
-        <v>1.020834075204292</v>
+        <v>1.021138959346581</v>
       </c>
       <c r="K21">
-        <v>1.033959599229033</v>
+        <v>1.033859378621714</v>
       </c>
       <c r="L21">
-        <v>1.02649073982209</v>
+        <v>1.026706497571629</v>
       </c>
       <c r="M21">
-        <v>1.041040596205544</v>
+        <v>1.041079631169086</v>
       </c>
       <c r="N21">
-        <v>1.010749478838896</v>
+        <v>1.013257492358271</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041053269314482</v>
+        <v>1.041084162846557</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03516460905155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035110570096876</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021447272105624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9882881731268774</v>
+        <v>0.9887718234598487</v>
       </c>
       <c r="D22">
-        <v>1.017630663088195</v>
+        <v>1.017691233955492</v>
       </c>
       <c r="E22">
-        <v>1.009754489053039</v>
+        <v>1.010114612417633</v>
       </c>
       <c r="F22">
-        <v>1.024699048069285</v>
+        <v>1.024864010666734</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045077308250125</v>
+        <v>1.04513328836025</v>
       </c>
       <c r="J22">
-        <v>1.019551157941609</v>
+        <v>1.020012867354939</v>
       </c>
       <c r="K22">
-        <v>1.032860761490735</v>
+        <v>1.032920186252187</v>
       </c>
       <c r="L22">
-        <v>1.025135153080056</v>
+        <v>1.025488325006793</v>
       </c>
       <c r="M22">
-        <v>1.039796593424317</v>
+        <v>1.039958490964743</v>
       </c>
       <c r="N22">
-        <v>1.01031095747014</v>
+        <v>1.013209133696362</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.040068724604215</v>
+        <v>1.040196855717867</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034374182502403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034431721637193</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021260247274899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9896975128332696</v>
+        <v>0.9900823469820249</v>
       </c>
       <c r="D23">
-        <v>1.018526546707053</v>
+        <v>1.018492820924571</v>
       </c>
       <c r="E23">
-        <v>1.010796085151775</v>
+        <v>1.01107248954155</v>
       </c>
       <c r="F23">
-        <v>1.025672949293124</v>
+        <v>1.025764267691532</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045322907147799</v>
+        <v>1.045336130110596</v>
       </c>
       <c r="J23">
-        <v>1.020225861692972</v>
+        <v>1.020593745924169</v>
       </c>
       <c r="K23">
-        <v>1.033435185142659</v>
+        <v>1.033402081437196</v>
       </c>
       <c r="L23">
-        <v>1.025848731370744</v>
+        <v>1.026119937147705</v>
       </c>
       <c r="M23">
-        <v>1.040450971361232</v>
+        <v>1.040540636028762</v>
       </c>
       <c r="N23">
-        <v>1.010540791523995</v>
+        <v>1.013190317673883</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.0405866209904</v>
+        <v>1.040657584550891</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034770693374424</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034761869345087</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021354429553405</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9951625774301081</v>
+        <v>0.9952199016305602</v>
       </c>
       <c r="D24">
-        <v>1.022019899769433</v>
+        <v>1.021661311546312</v>
       </c>
       <c r="E24">
-        <v>1.014853743214093</v>
+        <v>1.014851880091046</v>
       </c>
       <c r="F24">
-        <v>1.029468566227144</v>
+        <v>1.029311139261287</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046263124880425</v>
+        <v>1.046130433072837</v>
       </c>
       <c r="J24">
-        <v>1.022848120050656</v>
+        <v>1.022903207345874</v>
       </c>
       <c r="K24">
-        <v>1.035671049785875</v>
+        <v>1.035318416896187</v>
       </c>
       <c r="L24">
-        <v>1.028624936805886</v>
+        <v>1.028623105177294</v>
       </c>
       <c r="M24">
-        <v>1.042997216289972</v>
+        <v>1.042842354785803</v>
       </c>
       <c r="N24">
-        <v>1.011435223410432</v>
+        <v>1.013314006779171</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.042601800079386</v>
+        <v>1.042479237927674</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.036344058785415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.036108557411304</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021730811372375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001315763001979</v>
+        <v>1.001157944143089</v>
       </c>
       <c r="D25">
-        <v>1.025973286537475</v>
+        <v>1.025355527364062</v>
       </c>
       <c r="E25">
-        <v>1.019453923750306</v>
+        <v>1.019264346182016</v>
       </c>
       <c r="F25">
-        <v>1.033773549066668</v>
+        <v>1.033432707430016</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047283673726025</v>
+        <v>1.047037459076339</v>
       </c>
       <c r="J25">
-        <v>1.025798927465424</v>
+        <v>1.025646401590209</v>
       </c>
       <c r="K25">
-        <v>1.038181349782904</v>
+        <v>1.037572581356857</v>
       </c>
       <c r="L25">
-        <v>1.031757566336705</v>
+        <v>1.031570791378358</v>
       </c>
       <c r="M25">
-        <v>1.045869258696118</v>
+        <v>1.045533281634961</v>
       </c>
       <c r="N25">
-        <v>1.012441268001447</v>
+        <v>1.014009492455522</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044874818929456</v>
+        <v>1.044608917164962</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038116108070797</v>
+        <v>1.037699199947298</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02217457960474</v>
       </c>
     </row>
   </sheetData>
